--- a/data/testing.xlsx
+++ b/data/testing.xlsx
@@ -634,10 +634,10 @@
   </si>
   <si>
     <t>is_first_result,
-                    result_count,
-                    result_rank,
-                    lat_long_dist,
-                    name_edit_dist</t>
+result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist</t>
   </si>
   <si>
     <t>    yes   no     
@@ -2624,10 +2624,10 @@
   </si>
   <si>
     <t>is_first_result,
-                    result_count,
-                    result_rank,
-                    lat_long_dist,
-                    name_edit_dist</t>
+result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist</t>
   </si>
   <si>
     <t>    yes    no     
@@ -2715,17 +2715,17 @@
   in_stopwords_last</t>
   </si>
   <si>
-    <t>                    is_first_result,
-                    result_count,
-                    result_rank,
-                    lat_long_dist,
-                    name_edit_dist,
-                    name_exact_match,
-                    any_token_match,
-                    is_restaurant,
-                    is_coffee,
-                    any_token_match,
-                    location_token_match</t>
+    <t>is_first_result,
+result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,
+name_exact_match,
+any_token_match,
+is_restaurant,
+is_coffee,
+any_token_match,
+location_token_match</t>
   </si>
   <si>
     <t>    yes    no     
@@ -2821,6 +2821,58 @@
 Recall: 0.966133
 F-measure 0.964697
 Accuracy: 94.058787%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram,
+last_bigram</t>
+  </si>
+  <si>
+    <t>is_first_result,
+result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 6947.0 206.0  
+no  3327.0 7657.0 
+========= Yes =========
+Precision: 0.971201 
+Recall: 0.676173
+F-measure 0.797269
+========= No =========
+Precision: 0.697105 
+Recall: 0.973801
+F-measure 0.812543
+Accuracy: 80.520483%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -2905,6 +2957,63 @@
 Recall: 0.967250
 F-measure 0.966710
 Accuracy: 94.402752%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>is_first_result,
+result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,
+name_exact_match,
+any_token_match,
+is_restaurant,
+is_coffee,
+any_token_match,
+location_token_match</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 6937.0 206.0  
+no  3337.0 7657.0 
+========= Yes =========
+Precision: 0.971161 
+Recall: 0.675200
+F-measure 0.796578
+========= No =========
+Precision: 0.696471 
+Recall: 0.973801
+F-measure 0.812112
+Accuracy: 80.465347%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -2995,6 +3104,53 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>is_first_result,</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 1023.0 55.0   
+no  9251.0 7808.0 
+========= Yes =========
+Precision: 0.948980 
+Recall: 0.099572
+F-measure 0.180233
+========= No =========
+Precision: 0.457706 
+Recall: 0.993005
+F-measure 0.626595
+Accuracy: 48.690522%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140528_4771.txt</t>
   </si>
   <si>
@@ -3082,6 +3238,55 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>                    is_first_result,
+                    result_count,
+</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 6019.0 204.0  
+no  4255.0 7659.0 
+========= Yes =========
+Precision: 0.967218 
+Recall: 0.585848
+F-measure 0.729708
+========= No =========
+Precision: 0.642857 
+Recall: 0.974056
+F-measure 0.774536
+Accuracy: 75.414898%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140528_4771.txt</t>
   </si>
   <si>
@@ -3163,6 +3368,55 @@
 Recall: 0.967994
 F-measure 0.969076
 Accuracy: 94.809256%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>                    is_first_result,
+                    result_count,
+                    result_rank</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 6561.0 198.0  
+no  3713.0 7665.0 
+========= Yes =========
+Precision: 0.970706 
+Recall: 0.638602
+F-measure 0.770387
+========= No =========
+Precision: 0.673668 
+Recall: 0.974819
+F-measure 0.796736
+Accuracy: 78.436346%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -3246,6 +3500,23 @@
 Recall: 0.970971
 F-measure 0.970791
 Accuracy: 95.090682%</t>
+  </si>
+  <si>
+    <t>result_rank</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 5461.0 163.0  
+no  4813.0 7700.0 
+========= Yes =========
+Precision: 0.971017 
+Recall: 0.531536
+F-measure 0.687005
+========= No =========
+Precision: 0.615360 
+Recall: 0.979270
+F-measure 0.755791
+Accuracy: 72.564371%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -3333,6 +3604,27 @@
 Recall: 0.970227
 F-measure 0.970408
 Accuracy: 95.028143%</t>
+  </si>
+  <si>
+    <t>                    result_count,
+                    result_rank,
+                    lat_long_dist,
+                    name_edit_dist,
+</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 6947.0 206.0  
+no  3327.0 7657.0 
+========= Yes =========
+Precision: 0.971201 
+Recall: 0.676173
+F-measure 0.797269
+========= No =========
+Precision: 0.697105 
+Recall: 0.973801
+F-measure 0.812543
+Accuracy: 80.520483%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -4289,10 +4581,10 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4365,11 +4657,11 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4442,12 +4734,12 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4524,13 +4816,13 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2,
-                    go_to_at_in_3</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+go_to_at_in_3</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4608,11 +4900,11 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2,</t>
+    <t>last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4685,12 +4977,12 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4763,13 +5055,13 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2,
-                    sentence_feats</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4839,14 +5131,14 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2,
-                    sentence_feats,
-                    sentence_feats_stem</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4919,13 +5211,13 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    len_greater_2,
-                    sentence_feats,
-                    sentence_feats_stem</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem</t>
   </si>
   <si>
     <t>    yes   no     
@@ -4999,15 +5291,15 @@
     <t>test_140710.json</t>
   </si>
   <si>
-    <t>                    last_bigram_stem,
-                    last_trigram_stem,
-                    title_case,
-                    bigram_feats_stem,
-                    token_feat,
-                    len_greater_2,
-                    sentence_feats,
-                    sentence_feats_stem,
-                    stem_feat</t>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat</t>
   </si>
   <si>
     <t>    yes   no     
@@ -5035,6 +5327,32 @@
   </si>
   <si>
     <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 394.0 57.0   
+no  304.0 3039.0 
+========= Yes =========
+Precision: 0.873614 
+Recall: 0.564470
+F-measure 0.685814
+========= No =========
+Precision: 0.909064 
+Recall: 0.981589
+F-measure 0.943935
+Accuracy: 90.484976%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -5097,6 +5415,33 @@
     <t>test_140710.json</t>
   </si>
   <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 418.0 73.0   
+no  280.0 3023.0 
+========= Yes =========
+Precision: 0.851324 
+Recall: 0.598854
+F-measure 0.703112
+========= No =========
+Precision: 0.915229 
+Recall: 0.976421
+F-measure 0.944835
+Accuracy: 90.695836%</t>
+  </si>
+  <si>
     <t>Aaron</t>
   </si>
   <si>
@@ -5150,6 +5495,43 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 425.0 69.0   
+no  273.0 3027.0 
+========= Yes =========
+Precision: 0.860324 
+Recall: 0.608883
+F-measure 0.713087
+========= No =========
+Precision: 0.917273 
+Recall: 0.977713
+F-measure 0.946529
+Accuracy: 90.985767%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140602_multi.txt</t>
   </si>
   <si>
@@ -5197,6 +5579,44 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 452.0 61.0   
+no  246.0 3035.0 
+========= Yes =========
+Precision: 0.881092 
+Recall: 0.647564
+F-measure 0.746491
+========= No =========
+Precision: 0.925023 
+Recall: 0.980297
+F-measure 0.951858
+Accuracy: 91.908276%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140602_multi.txt</t>
   </si>
   <si>
@@ -5244,6 +5664,248 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+last_bigram</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 452.0 61.0   
+no  246.0 3035.0 
+========= Yes =========
+Precision: 0.881092 
+Recall: 0.647564
+F-measure 0.746491
+========= No =========
+Precision: 0.925023 
+Recall: 0.980297
+F-measure 0.951858
+Accuracy: 91.908276%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 456.0 64.0   
+no  242.0 3032.0 
+========= Yes =========
+Precision: 0.876923 
+Recall: 0.653295
+F-measure 0.748768
+========= No =========
+Precision: 0.926084 
+Recall: 0.979328
+F-measure 0.951962
+Accuracy: 91.934634%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+len_greater_3</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 457.0 61.0   
+no  241.0 3035.0 
+========= Yes =========
+Precision: 0.882239 
+Recall: 0.654728
+F-measure 0.751645
+========= No =========
+Precision: 0.926435 
+Recall: 0.980297
+F-measure 0.952605
+Accuracy: 92.040063%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+last_the</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 457.0 61.0   
+no  241.0 3035.0 
+========= Yes =========
+Precision: 0.882239 
+Recall: 0.654728
+F-measure 0.751645
+========= No =========
+Precision: 0.926435 
+Recall: 0.980297
+F-measure 0.952605
+Accuracy: 92.040063%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+len_greater_3</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 455.0 61.0   
+no  243.0 3035.0 
+========= Yes =========
+Precision: 0.881783 
+Recall: 0.651862
+F-measure 0.749588
+========= No =========
+Precision: 0.925869 
+Recall: 0.980297
+F-measure 0.952306
+Accuracy: 91.987348%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 463.0 60.0   
+no  235.0 3036.0 
+========= Yes =========
+Precision: 0.885277 
+Recall: 0.663324
+F-measure 0.758395
+========= No =========
+Precision: 0.928157 
+Recall: 0.980620
+F-measure 0.953667
+Accuracy: 92.224565%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140605_20005.txt</t>
   </si>
   <si>
@@ -5291,6 +5953,47 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 460.0 59.0   
+no  238.0 3037.0 
+========= Yes =========
+Precision: 0.886320 
+Recall: 0.659026
+F-measure 0.755957
+========= No =========
+Precision: 0.927328 
+Recall: 0.980943
+F-measure 0.953383
+Accuracy: 92.171850%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140605_20005.txt</t>
   </si>
   <si>
@@ -5339,6 +6042,48 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 464.0 60.0   
+no  234.0 3036.0 
+========= Yes =========
+Precision: 0.885496 
+Recall: 0.664756
+F-measure 0.759411
+========= No =========
+Precision: 0.928440 
+Recall: 0.980620
+F-measure 0.953817
+Accuracy: 92.250923%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140605_20668.txt</t>
   </si>
   <si>
@@ -5383,6 +6128,50 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 467.0 60.0   
+no  231.0 3036.0 
+========= Yes =========
+Precision: 0.886148 
+Recall: 0.669054
+F-measure 0.762449
+========= No =========
+Precision: 0.929293 
+Recall: 0.980620
+F-measure 0.954267
+Accuracy: 92.329995%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140605_20668.txt</t>
   </si>
   <si>
@@ -5433,6 +6222,51 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram,
+last_bigram</t>
+  </si>
+  <si>
+    <t>    yes   no     
+yes 467.0 60.0   
+no  231.0 3036.0 
+========= Yes =========
+Precision: 0.886148 
+Recall: 0.669054
+F-measure 0.762449
+========= No =========
+Precision: 0.929293 
+Recall: 0.980620
+F-measure 0.954267
+Accuracy: 92.329995%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140602_6051.txt</t>
   </si>
   <si>
@@ -5479,6 +6313,15 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140605_20668.txt</t>
   </si>
   <si>
@@ -5517,6 +6360,15 @@
 Recall: 0.723077
 F-measure 0.698020
 Accuracy: 0.655367%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -8725,6 +9577,7 @@
     <col min="7" customWidth="1" max="7" width="23.0"/>
     <col min="8" customWidth="1" max="8" width="35.43"/>
     <col min="9" customWidth="1" max="9" width="30.14"/>
+    <col min="13" customWidth="1" max="13" width="24.29"/>
     <col min="14" customWidth="1" max="14" width="25.43"/>
     <col min="15" customWidth="1" max="15" width="24.71"/>
     <col min="22" customWidth="1" max="22" width="23.86"/>
@@ -10426,13 +11279,27 @@
       <c s="3" r="T25"/>
       <c s="3" r="U25"/>
       <c s="3" r="V25"/>
-      <c s="3" r="W25"/>
-      <c s="3" r="X25"/>
-      <c s="3" r="Y25"/>
-      <c s="3" r="Z25"/>
-      <c s="3" r="AA25"/>
-      <c s="3" r="AB25"/>
-      <c s="3" r="AC25"/>
+      <c s="5" r="W25">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X25">
+        <v>400</v>
+      </c>
+      <c t="s" s="2" r="Y25">
+        <v>401</v>
+      </c>
+      <c t="s" s="2" r="Z25">
+        <v>402</v>
+      </c>
+      <c t="s" s="2" r="AA25">
+        <v>403</v>
+      </c>
+      <c t="s" s="2" r="AB25">
+        <v>404</v>
+      </c>
+      <c t="s" s="2" r="AC25">
+        <v>405</v>
+      </c>
       <c s="3" r="AD25"/>
     </row>
     <row r="26">
@@ -10440,41 +11307,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B26">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c t="s" s="2" r="C26">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c t="s" s="2" r="D26">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c t="s" s="7" r="E26">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c t="s" s="2" r="F26">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c t="s" s="2" r="G26">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c s="3" r="H26"/>
       <c s="5" r="I26">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J26">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c t="s" s="2" r="K26">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c t="s" s="2" r="L26">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c t="s" s="2" r="M26">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c t="s" s="2" r="N26">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c s="3" r="O26"/>
       <c s="3" r="Q26"/>
@@ -10483,13 +11350,27 @@
       <c s="3" r="T26"/>
       <c s="3" r="U26"/>
       <c s="3" r="V26"/>
-      <c s="3" r="W26"/>
-      <c s="3" r="X26"/>
-      <c s="3" r="Y26"/>
-      <c s="3" r="Z26"/>
-      <c s="3" r="AA26"/>
-      <c s="3" r="AB26"/>
-      <c s="3" r="AC26"/>
+      <c s="5" r="W26">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X26">
+        <v>417</v>
+      </c>
+      <c t="s" s="2" r="Y26">
+        <v>418</v>
+      </c>
+      <c t="s" s="2" r="Z26">
+        <v>419</v>
+      </c>
+      <c t="s" s="2" r="AA26">
+        <v>420</v>
+      </c>
+      <c t="s" s="2" r="AB26">
+        <v>421</v>
+      </c>
+      <c t="s" s="2" r="AC26">
+        <v>422</v>
+      </c>
       <c s="3" r="AD26"/>
     </row>
     <row r="27">
@@ -10497,41 +11378,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B27">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c t="s" s="2" r="C27">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c t="s" s="2" r="D27">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c t="s" s="7" r="E27">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c t="s" s="2" r="F27">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c t="s" s="2" r="G27">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c s="3" r="H27"/>
       <c s="5" r="I27">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J27">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c t="s" s="2" r="K27">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c t="s" s="2" r="L27">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c t="s" s="2" r="M27">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c t="s" s="2" r="N27">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c s="3" r="O27"/>
       <c s="3" r="Q27"/>
@@ -10540,57 +11421,71 @@
       <c s="3" r="T27"/>
       <c s="3" r="U27"/>
       <c s="3" r="V27"/>
-      <c s="3" r="W27"/>
-      <c s="3" r="X27"/>
-      <c s="3" r="Y27"/>
-      <c s="3" r="Z27"/>
-      <c s="3" r="AA27"/>
-      <c s="3" r="AB27"/>
-      <c s="3" r="AC27"/>
-      <c s="3" r="AD27"/>
+      <c s="5" r="W27">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X27">
+        <v>434</v>
+      </c>
+      <c t="s" s="2" r="Y27">
+        <v>435</v>
+      </c>
+      <c t="s" s="2" r="Z27">
+        <v>436</v>
+      </c>
+      <c t="s" s="2" r="AA27">
+        <v>437</v>
+      </c>
+      <c t="s" s="2" r="AB27">
+        <v>438</v>
+      </c>
+      <c t="s" s="2" r="AC27">
+        <v>439</v>
+      </c>
+      <c s="2" r="AD27"/>
     </row>
     <row r="28">
       <c s="5" r="A28">
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B28">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c t="s" s="2" r="C28">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c t="s" s="2" r="D28">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c t="s" s="7" r="E28">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c t="s" s="2" r="F28">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c t="s" s="2" r="G28">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c t="s" s="2" r="H28">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c s="5" r="I28">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J28">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c t="s" s="2" r="K28">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c t="s" s="2" r="L28">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c t="s" s="2" r="M28">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c t="s" s="2" r="N28">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c s="3" r="O28"/>
       <c s="3" r="Q28"/>
@@ -10599,13 +11494,27 @@
       <c s="3" r="T28"/>
       <c s="3" r="U28"/>
       <c s="3" r="V28"/>
-      <c s="3" r="W28"/>
-      <c s="3" r="X28"/>
-      <c s="3" r="Y28"/>
-      <c s="3" r="Z28"/>
-      <c s="3" r="AA28"/>
-      <c s="3" r="AB28"/>
-      <c s="3" r="AC28"/>
+      <c s="5" r="W28">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X28">
+        <v>452</v>
+      </c>
+      <c t="s" s="2" r="Y28">
+        <v>453</v>
+      </c>
+      <c t="s" s="2" r="Z28">
+        <v>454</v>
+      </c>
+      <c t="s" s="2" r="AA28">
+        <v>455</v>
+      </c>
+      <c t="s" s="2" r="AB28">
+        <v>456</v>
+      </c>
+      <c t="s" s="2" r="AC28">
+        <v>457</v>
+      </c>
       <c s="3" r="AD28"/>
     </row>
     <row r="29">
@@ -10613,43 +11522,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B29">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c t="s" s="2" r="C29">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c t="s" s="2" r="D29">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c t="s" s="7" r="E29">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c t="s" s="2" r="F29">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c t="s" s="2" r="G29">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c t="s" s="2" r="H29">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c s="5" r="I29">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J29">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c t="s" s="2" r="K29">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c t="s" s="2" r="L29">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c t="s" s="2" r="M29">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c t="s" s="2" r="N29">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c s="3" r="O29"/>
       <c s="3" r="Q29"/>
@@ -10658,13 +11567,27 @@
       <c s="3" r="T29"/>
       <c s="3" r="U29"/>
       <c s="3" r="V29"/>
-      <c s="3" r="W29"/>
-      <c s="3" r="X29"/>
-      <c s="3" r="Y29"/>
-      <c s="3" r="Z29"/>
-      <c s="3" r="AA29"/>
-      <c s="3" r="AB29"/>
-      <c s="3" r="AC29"/>
+      <c s="5" r="W29">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X29">
+        <v>470</v>
+      </c>
+      <c t="s" s="2" r="Y29">
+        <v>471</v>
+      </c>
+      <c t="s" s="2" r="Z29">
+        <v>472</v>
+      </c>
+      <c t="s" s="2" r="AA29">
+        <v>473</v>
+      </c>
+      <c t="s" s="2" r="AB29">
+        <v>474</v>
+      </c>
+      <c t="s" s="2" r="AC29">
+        <v>475</v>
+      </c>
       <c s="3" r="AD29"/>
     </row>
     <row r="30">
@@ -10672,41 +11595,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B30">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c t="s" s="2" r="C30">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c t="s" s="2" r="D30">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c t="s" s="7" r="E30">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c t="s" s="2" r="F30">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c t="s" s="2" r="G30">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c s="3" r="H30"/>
       <c s="5" r="I30">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J30">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c t="s" s="2" r="K30">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c t="s" s="2" r="L30">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c t="s" s="2" r="M30">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c t="s" s="2" r="N30">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c s="3" r="O30"/>
       <c s="3" r="Q30"/>
@@ -10720,8 +11643,12 @@
       <c s="3" r="Y30"/>
       <c s="3" r="Z30"/>
       <c s="3" r="AA30"/>
-      <c s="3" r="AB30"/>
-      <c s="3" r="AC30"/>
+      <c t="s" s="2" r="AB30">
+        <v>487</v>
+      </c>
+      <c t="s" s="2" r="AC30">
+        <v>488</v>
+      </c>
       <c s="3" r="AD30"/>
     </row>
     <row r="31">
@@ -10729,41 +11656,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B31">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c t="s" s="2" r="C31">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c t="s" s="2" r="D31">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c t="s" s="2" r="E31">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c t="s" s="2" r="F31">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c t="s" s="2" r="G31">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c s="3" r="H31"/>
       <c s="5" r="I31">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J31">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c t="s" s="2" r="K31">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c t="s" s="2" r="L31">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c t="s" s="2" r="M31">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c t="s" s="2" r="N31">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c s="3" r="O31"/>
       <c s="3" r="Q31"/>
@@ -10777,8 +11704,12 @@
       <c s="3" r="Y31"/>
       <c s="3" r="Z31"/>
       <c s="3" r="AA31"/>
-      <c s="3" r="AB31"/>
-      <c s="3" r="AC31"/>
+      <c t="s" s="2" r="AB31">
+        <v>500</v>
+      </c>
+      <c t="s" s="2" r="AC31">
+        <v>501</v>
+      </c>
       <c s="3" r="AD31"/>
     </row>
     <row r="32">
@@ -10786,41 +11717,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B32">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c t="s" s="2" r="C32">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c t="s" s="2" r="D32">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c t="s" s="2" r="E32">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c t="s" s="2" r="F32">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c t="s" s="2" r="G32">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c s="3" r="H32"/>
       <c s="5" r="I32">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J32">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c t="s" s="2" r="K32">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c t="s" s="2" r="L32">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c t="s" s="2" r="M32">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c t="s" s="2" r="N32">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c s="3" r="O32"/>
       <c s="3" r="Q32"/>
@@ -10843,41 +11774,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B33">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c t="s" s="2" r="C33">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c t="s" s="2" r="D33">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c t="s" s="2" r="E33">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c t="s" s="2" r="F33">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c t="s" s="2" r="G33">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c s="3" r="H33"/>
       <c s="5" r="I33">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J33">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c t="s" s="2" r="K33">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c t="s" s="2" r="L33">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c t="s" s="8" r="M33">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c t="s" s="8" r="N33">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c s="3" r="O33"/>
       <c s="3" r="Q33"/>
@@ -10900,41 +11831,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B34">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c t="s" s="2" r="C34">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c t="s" s="2" r="D34">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c t="s" s="2" r="E34">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c t="s" s="2" r="F34">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c t="s" s="2" r="G34">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c s="3" r="H34"/>
       <c s="5" r="I34">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J34">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c t="s" s="2" r="K34">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c t="s" s="2" r="L34">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c t="s" s="2" r="M34">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c t="s" s="2" r="N34">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c s="3" r="O34"/>
       <c s="3" r="Q34"/>
@@ -10957,43 +11888,43 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B35">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c t="s" s="2" r="C35">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c t="s" s="2" r="D35">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c t="s" s="2" r="E35">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c t="s" s="2" r="F35">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c t="s" s="2" r="G35">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c t="s" s="2" r="H35">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c s="5" r="I35">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J35">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c t="s" s="2" r="K35">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c t="s" s="2" r="L35">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c t="s" s="2" r="M35">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c t="s" s="2" r="N35">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c s="3" r="O35"/>
       <c s="3" r="Q35"/>
@@ -11016,41 +11947,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B36">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c t="s" s="2" r="C36">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c t="s" s="2" r="D36">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c t="s" s="2" r="E36">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c t="s" s="2" r="F36">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c t="s" s="2" r="G36">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c s="3" r="H36"/>
       <c s="5" r="I36">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J36">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c t="s" s="2" r="K36">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c t="s" s="2" r="L36">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c t="s" s="2" r="M36">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c t="s" s="2" r="N36">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c s="3" r="O36"/>
       <c s="3" r="Q36"/>
@@ -11081,19 +12012,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J37">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c t="s" s="2" r="K37">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c t="s" s="2" r="L37">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c t="s" s="2" r="M37">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c t="s" s="2" r="N37">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c s="3" r="O37"/>
       <c s="3" r="Q37"/>
@@ -11124,19 +12055,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J38">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c t="s" s="2" r="K38">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c t="s" s="2" r="L38">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c t="s" s="2" r="M38">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c t="s" s="2" r="N38">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c s="3" r="O38"/>
       <c s="3" r="Q38"/>
@@ -11167,19 +12098,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J39">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c t="s" s="2" r="K39">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c t="s" s="2" r="L39">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c t="s" s="2" r="M39">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c t="s" s="2" r="N39">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c s="3" r="O39"/>
       <c s="3" r="Q39"/>
@@ -11206,25 +12137,25 @@
       <c s="3" r="F40"/>
       <c s="3" r="G40"/>
       <c t="s" s="2" r="H40">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c s="5" r="I40">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J40">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c t="s" s="2" r="K40">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c t="s" s="2" r="L40">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c t="s" s="2" r="M40">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c t="s" s="2" r="N40">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c s="3" r="O40"/>
       <c s="3" r="Q40"/>
@@ -11247,43 +12178,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B41">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c t="s" s="2" r="C41">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c t="s" s="2" r="D41">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c t="s" s="2" r="E41">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c t="s" s="2" r="F41">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c t="s" s="2" r="G41">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c t="s" s="2" r="H41">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c s="5" r="I41">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J41">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c t="s" s="2" r="K41">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c t="s" s="2" r="L41">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c t="s" s="2" r="M41">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c t="s" s="2" r="N41">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c s="3" r="O41"/>
       <c s="3" r="Q41"/>
@@ -11306,43 +12237,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B42">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c t="s" s="2" r="C42">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c t="s" s="2" r="D42">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c t="s" s="2" r="E42">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c t="s" s="2" r="F42">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c t="s" s="2" r="G42">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c t="s" s="2" r="H42">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c s="5" r="I42">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J42">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c t="s" s="2" r="K42">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c t="s" s="2" r="L42">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c t="s" s="2" r="M42">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c t="s" s="2" r="N42">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c s="3" r="O42"/>
       <c s="3" r="Q42"/>
@@ -11365,43 +12296,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B43">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c t="s" s="2" r="C43">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c t="s" s="2" r="D43">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c t="s" s="2" r="E43">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c t="s" s="2" r="F43">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c t="s" s="2" r="G43">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c t="s" s="2" r="H43">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c s="6" r="I43">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J43">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c t="s" s="2" r="K43">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c t="s" s="2" r="L43">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c t="s" s="2" r="M43">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c t="s" s="2" r="N43">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c s="3" r="O43"/>
       <c s="3" r="P43"/>
@@ -11425,41 +12356,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B44">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c t="s" s="2" r="C44">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c t="s" s="2" r="D44">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c t="s" s="2" r="E44">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c t="s" s="2" r="F44">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c t="s" s="2" r="G44">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c s="3" r="H44"/>
       <c s="6" r="I44">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J44">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c t="s" s="2" r="K44">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c t="s" s="2" r="L44">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c t="s" s="2" r="M44">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c t="s" s="2" r="N44">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c s="3" r="O44"/>
       <c s="3" r="P44"/>
@@ -11483,41 +12414,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B45">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c t="s" s="2" r="C45">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c t="s" s="2" r="D45">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c t="s" s="2" r="E45">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c t="s" s="2" r="F45">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c t="s" s="2" r="G45">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c s="3" r="H45"/>
       <c s="6" r="I45">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J45">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c t="s" s="2" r="K45">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c t="s" s="2" r="L45">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c t="s" s="2" r="M45">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c t="s" s="2" r="N45">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c s="3" r="O45"/>
       <c s="3" r="P45"/>
@@ -11541,41 +12472,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B46">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c t="s" s="2" r="C46">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c t="s" s="2" r="D46">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c t="s" s="2" r="E46">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c t="s" s="2" r="F46">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c t="s" s="2" r="G46">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c s="3" r="H46"/>
       <c s="6" r="I46">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J46">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c t="s" s="2" r="K46">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c t="s" s="2" r="L46">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c t="s" s="2" r="M46">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c t="s" s="2" r="N46">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c s="3" r="O46"/>
       <c s="3" r="P46"/>
@@ -11599,43 +12530,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B47">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c t="s" s="2" r="C47">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c t="s" s="2" r="D47">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c t="s" s="2" r="E47">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c t="s" s="2" r="F47">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c t="s" s="2" r="G47">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c t="s" s="2" r="H47">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c s="6" r="I47">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J47">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c t="s" s="2" r="K47">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c t="s" s="2" r="L47">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c t="s" s="2" r="M47">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c t="s" s="2" r="N47">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c s="3" r="O47"/>
       <c s="3" r="P47"/>
@@ -11659,43 +12590,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B48">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c t="s" s="2" r="C48">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c t="s" s="2" r="D48">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c t="s" s="2" r="E48">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c t="s" s="2" r="F48">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c t="s" s="2" r="G48">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c t="s" s="2" r="H48">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c s="6" r="I48">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J48">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c t="s" s="2" r="K48">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c t="s" s="2" r="L48">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c t="s" s="2" r="M48">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c t="s" s="2" r="N48">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c s="3" r="O48"/>
       <c s="3" r="P48"/>
@@ -11719,41 +12650,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B49">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c t="s" s="2" r="C49">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c t="s" s="2" r="D49">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c t="s" s="2" r="E49">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c t="s" s="2" r="F49">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c t="s" s="2" r="G49">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c s="3" r="H49"/>
       <c s="6" r="I49">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J49">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c t="s" s="2" r="K49">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c t="s" s="2" r="L49">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c t="s" s="2" r="M49">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c t="s" s="2" r="N49">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c s="3" r="O49"/>
       <c s="3" r="P49"/>
@@ -11777,41 +12708,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B50">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c t="s" s="2" r="C50">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c t="s" s="2" r="D50">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c t="s" s="2" r="E50">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c t="s" s="2" r="F50">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c t="s" s="2" r="G50">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c s="3" r="H50"/>
       <c s="6" r="I50">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J50">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c t="s" s="2" r="K50">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c t="s" s="2" r="L50">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c t="s" s="2" r="M50">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c t="s" s="2" r="N50">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c s="3" r="O50"/>
       <c s="3" r="P50"/>
@@ -11835,41 +12766,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B51">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c t="s" s="2" r="C51">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c t="s" s="2" r="D51">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c t="s" s="2" r="E51">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c t="s" s="2" r="F51">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c t="s" s="2" r="G51">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c s="3" r="H51"/>
       <c s="6" r="I51">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J51">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c t="s" s="2" r="K51">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c t="s" s="2" r="L51">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c t="s" s="2" r="M51">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c t="s" s="2" r="N51">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c s="3" r="O51"/>
       <c s="3" r="P51"/>
@@ -11893,41 +12824,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B52">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c t="s" s="2" r="C52">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c t="s" s="2" r="D52">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c t="s" s="2" r="E52">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c t="s" s="2" r="F52">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c t="s" s="2" r="G52">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c s="3" r="H52"/>
       <c s="6" r="I52">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J52">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c t="s" s="2" r="K52">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c t="s" s="2" r="L52">
-        <v>679</v>
+        <v>713</v>
       </c>
       <c t="s" s="2" r="M52">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c t="s" s="2" r="N52">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c s="3" r="O52"/>
       <c s="3" r="P52"/>
@@ -11951,41 +12882,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B53">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c t="s" s="2" r="C53">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c t="s" s="2" r="D53">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c t="s" s="2" r="E53">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c t="s" s="2" r="F53">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c t="s" s="2" r="G53">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c s="3" r="H53"/>
       <c s="6" r="I53">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J53">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c t="s" s="2" r="K53">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c t="s" s="2" r="L53">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c t="s" s="2" r="M53">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c t="s" s="2" r="N53">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c s="3" r="O53"/>
       <c s="3" r="P53"/>
@@ -12011,22 +12942,26 @@
       <c s="3" r="F54"/>
       <c s="3" r="G54"/>
       <c t="s" s="2" r="H54">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c s="6" r="I54">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J54">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c t="s" s="2" r="K54">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c t="s" s="2" r="L54">
-        <v>696</v>
-      </c>
-      <c s="3" r="M54"/>
-      <c s="3" r="N54"/>
+        <v>730</v>
+      </c>
+      <c t="s" s="2" r="M54">
+        <v>731</v>
+      </c>
+      <c t="s" s="2" r="N54">
+        <v>732</v>
+      </c>
       <c s="3" r="O54"/>
       <c s="3" r="P54"/>
       <c s="3" r="Q54"/>
@@ -12049,40 +12984,44 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B55">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c t="s" s="2" r="C55">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c t="s" s="2" r="D55">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c t="s" s="2" r="E55">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c t="s" s="2" r="F55">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c t="s" s="2" r="G55">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c t="s" s="2" r="H55">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c s="6" r="I55">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J55">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c t="s" s="2" r="K55">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c t="s" s="2" r="L55">
-        <v>706</v>
-      </c>
-      <c s="3" r="M55"/>
-      <c s="3" r="N55"/>
+        <v>742</v>
+      </c>
+      <c t="s" s="2" r="M55">
+        <v>743</v>
+      </c>
+      <c t="s" s="2" r="N55">
+        <v>744</v>
+      </c>
       <c s="3" r="O55"/>
       <c s="3" r="P55"/>
       <c s="3" r="Q55"/>
@@ -12105,32 +13044,44 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B56">
-        <v>707</v>
+        <v>745</v>
       </c>
       <c t="s" s="2" r="C56">
-        <v>708</v>
+        <v>746</v>
       </c>
       <c t="s" s="2" r="D56">
-        <v>709</v>
+        <v>747</v>
       </c>
       <c t="s" s="2" r="E56">
-        <v>710</v>
+        <v>748</v>
       </c>
       <c t="s" s="2" r="F56">
-        <v>711</v>
+        <v>749</v>
       </c>
       <c t="s" s="2" r="G56">
-        <v>712</v>
+        <v>750</v>
       </c>
       <c t="s" s="2" r="H56">
-        <v>713</v>
-      </c>
-      <c s="3" r="I56"/>
-      <c s="3" r="J56"/>
-      <c s="3" r="K56"/>
-      <c s="3" r="L56"/>
-      <c s="3" r="M56"/>
-      <c s="3" r="N56"/>
+        <v>751</v>
+      </c>
+      <c s="6" r="I56">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J56">
+        <v>752</v>
+      </c>
+      <c t="s" s="2" r="K56">
+        <v>753</v>
+      </c>
+      <c t="s" s="2" r="L56">
+        <v>754</v>
+      </c>
+      <c t="s" s="2" r="M56">
+        <v>755</v>
+      </c>
+      <c t="s" s="2" r="N56">
+        <v>756</v>
+      </c>
       <c s="3" r="O56"/>
       <c s="3" r="P56"/>
       <c s="3" r="Q56"/>
@@ -12153,30 +13104,42 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B57">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c t="s" s="2" r="C57">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c t="s" s="2" r="D57">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c t="s" s="2" r="E57">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c t="s" s="2" r="F57">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c t="s" s="2" r="G57">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c s="3" r="H57"/>
-      <c s="3" r="I57"/>
-      <c s="3" r="J57"/>
-      <c s="3" r="K57"/>
-      <c s="3" r="L57"/>
-      <c s="3" r="M57"/>
-      <c s="3" r="N57"/>
+      <c s="6" r="I57">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J57">
+        <v>763</v>
+      </c>
+      <c t="s" s="2" r="K57">
+        <v>764</v>
+      </c>
+      <c t="s" s="2" r="L57">
+        <v>765</v>
+      </c>
+      <c t="s" s="2" r="M57">
+        <v>766</v>
+      </c>
+      <c t="s" s="2" r="N57">
+        <v>767</v>
+      </c>
       <c s="3" r="O57"/>
       <c s="3" r="P57"/>
       <c s="3" r="Q57"/>
@@ -12199,30 +13162,42 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B58">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c t="s" s="2" r="C58">
-        <v>721</v>
+        <v>769</v>
       </c>
       <c t="s" s="2" r="D58">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c t="s" s="2" r="E58">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c t="s" s="2" r="F58">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c t="s" s="2" r="G58">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c s="3" r="H58"/>
-      <c s="3" r="I58"/>
-      <c s="3" r="J58"/>
-      <c s="3" r="K58"/>
-      <c s="3" r="L58"/>
-      <c s="3" r="M58"/>
-      <c s="3" r="N58"/>
+      <c s="6" r="I58">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J58">
+        <v>774</v>
+      </c>
+      <c t="s" s="2" r="K58">
+        <v>775</v>
+      </c>
+      <c t="s" s="2" r="L58">
+        <v>776</v>
+      </c>
+      <c t="s" s="2" r="M58">
+        <v>777</v>
+      </c>
+      <c t="s" s="2" r="N58">
+        <v>778</v>
+      </c>
       <c s="3" r="O58"/>
       <c s="3" r="P58"/>
       <c s="3" r="Q58"/>
@@ -12248,12 +13223,24 @@
       <c s="3" r="E59"/>
       <c s="3" r="F59"/>
       <c s="3" r="G59"/>
-      <c s="3" r="I59"/>
-      <c s="3" r="J59"/>
-      <c s="3" r="K59"/>
-      <c s="3" r="L59"/>
-      <c s="3" r="M59"/>
-      <c s="3" r="N59"/>
+      <c s="6" r="I59">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J59">
+        <v>779</v>
+      </c>
+      <c t="s" s="2" r="K59">
+        <v>780</v>
+      </c>
+      <c t="s" s="2" r="L59">
+        <v>781</v>
+      </c>
+      <c t="s" s="2" r="M59">
+        <v>782</v>
+      </c>
+      <c t="s" s="2" r="N59">
+        <v>783</v>
+      </c>
       <c s="3" r="O59"/>
       <c s="3" r="P59"/>
       <c s="3" r="Q59"/>
@@ -12272,12 +13259,24 @@
       <c s="3" r="AD59"/>
     </row>
     <row r="60">
-      <c s="3" r="I60"/>
-      <c s="3" r="J60"/>
-      <c s="3" r="K60"/>
-      <c s="3" r="L60"/>
-      <c s="3" r="M60"/>
-      <c s="3" r="N60"/>
+      <c s="6" r="I60">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J60">
+        <v>784</v>
+      </c>
+      <c t="s" s="2" r="K60">
+        <v>785</v>
+      </c>
+      <c t="s" s="2" r="L60">
+        <v>786</v>
+      </c>
+      <c t="s" s="2" r="M60">
+        <v>787</v>
+      </c>
+      <c t="s" s="2" r="N60">
+        <v>788</v>
+      </c>
       <c s="3" r="O60"/>
       <c s="3" r="P60"/>
       <c s="3" r="Q60"/>
@@ -12296,12 +13295,24 @@
       <c s="3" r="AD60"/>
     </row>
     <row r="61">
-      <c s="3" r="I61"/>
-      <c s="3" r="J61"/>
-      <c s="3" r="K61"/>
-      <c s="3" r="L61"/>
-      <c s="3" r="M61"/>
-      <c s="3" r="N61"/>
+      <c s="6" r="I61">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J61">
+        <v>789</v>
+      </c>
+      <c t="s" s="2" r="K61">
+        <v>790</v>
+      </c>
+      <c t="s" s="2" r="L61">
+        <v>791</v>
+      </c>
+      <c t="s" s="2" r="M61">
+        <v>792</v>
+      </c>
+      <c t="s" s="2" r="N61">
+        <v>793</v>
+      </c>
       <c s="3" r="O61"/>
       <c s="3" r="P61"/>
       <c s="3" r="Q61"/>
@@ -12320,12 +13331,24 @@
       <c s="3" r="AD61"/>
     </row>
     <row r="62">
-      <c s="3" r="I62"/>
-      <c s="3" r="J62"/>
-      <c s="3" r="K62"/>
-      <c s="3" r="L62"/>
-      <c s="3" r="M62"/>
-      <c s="3" r="N62"/>
+      <c s="6" r="I62">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J62">
+        <v>794</v>
+      </c>
+      <c t="s" s="2" r="K62">
+        <v>795</v>
+      </c>
+      <c t="s" s="2" r="L62">
+        <v>796</v>
+      </c>
+      <c t="s" s="2" r="M62">
+        <v>797</v>
+      </c>
+      <c t="s" s="2" r="N62">
+        <v>798</v>
+      </c>
       <c s="3" r="O62"/>
       <c s="3" r="P62"/>
       <c s="3" r="Q62"/>
@@ -12345,12 +13368,24 @@
     </row>
     <row r="63">
       <c s="2" r="H63"/>
-      <c s="3" r="I63"/>
-      <c s="3" r="J63"/>
-      <c s="3" r="K63"/>
-      <c s="3" r="L63"/>
-      <c s="3" r="M63"/>
-      <c s="3" r="N63"/>
+      <c s="6" r="I63">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J63">
+        <v>799</v>
+      </c>
+      <c t="s" s="2" r="K63">
+        <v>800</v>
+      </c>
+      <c t="s" s="2" r="L63">
+        <v>801</v>
+      </c>
+      <c t="s" s="2" r="M63">
+        <v>802</v>
+      </c>
+      <c t="s" s="2" r="N63">
+        <v>803</v>
+      </c>
       <c s="3" r="O63"/>
       <c s="3" r="P63"/>
       <c s="3" r="Q63"/>
@@ -12373,30 +13408,42 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B64">
-        <v>726</v>
+        <v>804</v>
       </c>
       <c t="s" s="2" r="C64">
-        <v>727</v>
+        <v>805</v>
       </c>
       <c t="s" s="2" r="D64">
-        <v>728</v>
+        <v>806</v>
       </c>
       <c t="s" s="7" r="E64">
-        <v>729</v>
+        <v>807</v>
       </c>
       <c t="s" s="2" r="F64">
-        <v>730</v>
+        <v>808</v>
       </c>
       <c t="s" s="2" r="G64">
-        <v>731</v>
+        <v>809</v>
       </c>
       <c s="3" r="H64"/>
-      <c s="3" r="I64"/>
-      <c s="3" r="J64"/>
-      <c s="3" r="K64"/>
-      <c s="3" r="L64"/>
-      <c s="3" r="M64"/>
-      <c s="3" r="N64"/>
+      <c s="6" r="I64">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J64">
+        <v>810</v>
+      </c>
+      <c t="s" s="2" r="K64">
+        <v>811</v>
+      </c>
+      <c t="s" s="2" r="L64">
+        <v>812</v>
+      </c>
+      <c t="s" s="2" r="M64">
+        <v>813</v>
+      </c>
+      <c t="s" s="2" r="N64">
+        <v>814</v>
+      </c>
       <c s="3" r="O64"/>
       <c s="3" r="P64"/>
       <c s="3" r="Q64"/>
@@ -12419,32 +13466,44 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B65">
-        <v>732</v>
+        <v>815</v>
       </c>
       <c t="s" s="2" r="C65">
-        <v>733</v>
+        <v>816</v>
       </c>
       <c t="s" s="2" r="D65">
-        <v>734</v>
+        <v>817</v>
       </c>
       <c t="s" s="7" r="E65">
-        <v>735</v>
+        <v>818</v>
       </c>
       <c t="s" s="2" r="F65">
-        <v>736</v>
+        <v>819</v>
       </c>
       <c t="s" s="2" r="G65">
-        <v>737</v>
+        <v>820</v>
       </c>
       <c t="s" s="2" r="H65">
-        <v>738</v>
-      </c>
-      <c s="3" r="I65"/>
-      <c s="3" r="J65"/>
-      <c s="3" r="K65"/>
-      <c s="3" r="L65"/>
-      <c s="3" r="M65"/>
-      <c s="3" r="N65"/>
+        <v>821</v>
+      </c>
+      <c s="6" r="I65">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J65">
+        <v>822</v>
+      </c>
+      <c t="s" s="2" r="K65">
+        <v>823</v>
+      </c>
+      <c t="s" s="2" r="L65">
+        <v>824</v>
+      </c>
+      <c t="s" s="2" r="M65">
+        <v>825</v>
+      </c>
+      <c t="s" s="2" r="N65">
+        <v>826</v>
+      </c>
       <c s="3" r="O65"/>
       <c s="3" r="P65"/>
       <c s="3" r="Q65"/>
@@ -12467,30 +13526,42 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B66">
-        <v>739</v>
+        <v>827</v>
       </c>
       <c t="s" s="2" r="C66">
-        <v>740</v>
+        <v>828</v>
       </c>
       <c t="s" s="2" r="D66">
-        <v>741</v>
+        <v>829</v>
       </c>
       <c t="s" s="7" r="E66">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c t="s" s="2" r="F66">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c t="s" s="2" r="G66">
-        <v>744</v>
+        <v>832</v>
       </c>
       <c s="3" r="H66"/>
-      <c s="3" r="I66"/>
-      <c s="3" r="J66"/>
-      <c s="3" r="K66"/>
-      <c s="3" r="L66"/>
-      <c s="3" r="M66"/>
-      <c s="3" r="N66"/>
+      <c s="6" r="I66">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J66">
+        <v>833</v>
+      </c>
+      <c t="s" s="2" r="K66">
+        <v>834</v>
+      </c>
+      <c t="s" s="2" r="L66">
+        <v>835</v>
+      </c>
+      <c t="s" s="2" r="M66">
+        <v>836</v>
+      </c>
+      <c t="s" s="2" r="N66">
+        <v>837</v>
+      </c>
       <c s="3" r="O66"/>
       <c s="3" r="P66"/>
       <c s="3" r="Q66"/>
@@ -12513,32 +13584,44 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B67">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c t="s" s="2" r="C67">
-        <v>746</v>
+        <v>839</v>
       </c>
       <c t="s" s="2" r="D67">
-        <v>747</v>
+        <v>840</v>
       </c>
       <c t="s" s="7" r="E67">
-        <v>748</v>
+        <v>841</v>
       </c>
       <c t="s" s="4" r="F67">
-        <v>749</v>
+        <v>842</v>
       </c>
       <c t="s" s="4" r="G67">
-        <v>750</v>
+        <v>843</v>
       </c>
       <c t="s" s="2" r="H67">
-        <v>751</v>
-      </c>
-      <c s="3" r="I67"/>
-      <c s="3" r="J67"/>
-      <c s="3" r="K67"/>
-      <c s="3" r="L67"/>
-      <c s="3" r="M67"/>
-      <c s="3" r="N67"/>
+        <v>844</v>
+      </c>
+      <c s="6" r="I67">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J67">
+        <v>845</v>
+      </c>
+      <c t="s" s="2" r="K67">
+        <v>846</v>
+      </c>
+      <c t="s" s="2" r="L67">
+        <v>847</v>
+      </c>
+      <c t="s" s="2" r="M67">
+        <v>848</v>
+      </c>
+      <c t="s" s="2" r="N67">
+        <v>849</v>
+      </c>
       <c s="3" r="O67"/>
       <c s="3" r="P67"/>
       <c s="3" r="Q67"/>
@@ -12561,30 +13644,38 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B68">
-        <v>752</v>
+        <v>850</v>
       </c>
       <c t="s" s="7" r="C68">
-        <v>753</v>
+        <v>851</v>
       </c>
       <c t="s" s="2" r="D68">
-        <v>754</v>
+        <v>852</v>
       </c>
       <c t="s" s="7" r="E68">
-        <v>755</v>
+        <v>853</v>
       </c>
       <c t="s" s="2" r="F68">
-        <v>756</v>
+        <v>854</v>
       </c>
       <c t="s" s="2" r="G68">
-        <v>757</v>
+        <v>855</v>
       </c>
       <c t="s" s="2" r="H68">
-        <v>758</v>
-      </c>
-      <c s="3" r="I68"/>
-      <c s="3" r="J68"/>
-      <c s="3" r="K68"/>
-      <c s="3" r="L68"/>
+        <v>856</v>
+      </c>
+      <c s="6" r="I68">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J68">
+        <v>857</v>
+      </c>
+      <c t="s" s="2" r="K68">
+        <v>858</v>
+      </c>
+      <c t="s" s="2" r="L68">
+        <v>859</v>
+      </c>
       <c s="3" r="M68"/>
       <c s="3" r="N68"/>
       <c s="3" r="O68"/>
@@ -12609,28 +13700,36 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B69">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c t="s" s="2" r="C69">
-        <v>760</v>
+        <v>861</v>
       </c>
       <c t="s" s="2" r="D69">
-        <v>761</v>
+        <v>862</v>
       </c>
       <c t="s" s="7" r="E69">
-        <v>762</v>
+        <v>863</v>
       </c>
       <c t="s" s="2" r="F69">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c t="s" s="2" r="G69">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c s="3" r="H69"/>
-      <c s="3" r="I69"/>
-      <c s="3" r="J69"/>
-      <c s="3" r="K69"/>
-      <c s="3" r="L69"/>
+      <c s="6" r="I69">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="J69">
+        <v>866</v>
+      </c>
+      <c t="s" s="2" r="K69">
+        <v>867</v>
+      </c>
+      <c t="s" s="2" r="L69">
+        <v>868</v>
+      </c>
       <c s="3" r="M69"/>
       <c s="3" r="N69"/>
       <c s="3" r="O69"/>
@@ -12655,22 +13754,22 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B70">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c t="s" s="2" r="C70">
-        <v>766</v>
+        <v>870</v>
       </c>
       <c t="s" s="2" r="D70">
-        <v>767</v>
+        <v>871</v>
       </c>
       <c t="s" s="7" r="E70">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c t="s" s="2" r="F70">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c t="s" s="2" r="G70">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c s="3" r="H70"/>
       <c s="3" r="I70"/>
@@ -12725,7 +13824,7 @@
     </row>
     <row r="72">
       <c t="s" s="7" r="A72">
-        <v>771</v>
+        <v>875</v>
       </c>
       <c s="3" r="B72"/>
       <c s="3" r="C72"/>
@@ -12734,7 +13833,7 @@
       <c s="3" r="F72"/>
       <c s="3" r="G72"/>
       <c t="s" s="2" r="H72">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c s="3" r="I72"/>
       <c s="3" r="J72"/>
@@ -12764,25 +13863,25 @@
         <v>41796.0</v>
       </c>
       <c t="s" s="2" r="B73">
-        <v>773</v>
+        <v>877</v>
       </c>
       <c t="s" s="2" r="C73">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c t="s" s="2" r="D73">
-        <v>775</v>
+        <v>879</v>
       </c>
       <c t="s" s="2" r="E73">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c t="s" s="2" r="F73">
-        <v>777</v>
+        <v>881</v>
       </c>
       <c t="s" s="2" r="G73">
-        <v>778</v>
+        <v>882</v>
       </c>
       <c t="s" s="2" r="H73">
-        <v>779</v>
+        <v>883</v>
       </c>
       <c s="3" r="I73"/>
       <c s="3" r="J73"/>
@@ -12812,28 +13911,28 @@
         <v>41796.0</v>
       </c>
       <c t="s" s="2" r="B74">
-        <v>780</v>
+        <v>884</v>
       </c>
       <c t="s" s="2" r="C74">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c t="s" s="2" r="D74">
-        <v>782</v>
+        <v>886</v>
       </c>
       <c t="s" s="2" r="E74">
-        <v>783</v>
+        <v>887</v>
       </c>
       <c t="s" s="2" r="F74">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c t="s" s="2" r="G74">
-        <v>785</v>
+        <v>889</v>
       </c>
       <c t="s" s="2" r="H74">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c t="s" s="2" r="I74">
-        <v>787</v>
+        <v>891</v>
       </c>
       <c s="3" r="J74"/>
       <c s="3" r="K74"/>
@@ -12862,25 +13961,25 @@
         <v>41799.0</v>
       </c>
       <c t="s" s="2" r="B75">
-        <v>788</v>
+        <v>892</v>
       </c>
       <c t="s" s="2" r="C75">
-        <v>789</v>
+        <v>893</v>
       </c>
       <c t="s" s="2" r="D75">
-        <v>790</v>
+        <v>894</v>
       </c>
       <c t="s" s="2" r="E75">
-        <v>791</v>
+        <v>895</v>
       </c>
       <c t="s" s="2" r="F75">
-        <v>792</v>
+        <v>896</v>
       </c>
       <c t="s" s="2" r="G75">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c t="s" s="2" r="H75">
-        <v>794</v>
+        <v>898</v>
       </c>
       <c s="3" r="I75"/>
       <c s="3" r="J75"/>
@@ -12910,25 +14009,25 @@
         <v>41799.0</v>
       </c>
       <c t="s" s="2" r="B76">
-        <v>795</v>
+        <v>899</v>
       </c>
       <c t="s" s="2" r="C76">
-        <v>796</v>
+        <v>900</v>
       </c>
       <c t="s" s="2" r="D76">
-        <v>797</v>
+        <v>901</v>
       </c>
       <c t="s" s="2" r="E76">
-        <v>798</v>
+        <v>902</v>
       </c>
       <c t="s" s="2" r="F76">
-        <v>799</v>
+        <v>903</v>
       </c>
       <c t="s" s="2" r="G76">
-        <v>800</v>
+        <v>904</v>
       </c>
       <c t="s" s="2" r="H76">
-        <v>801</v>
+        <v>905</v>
       </c>
       <c s="3" r="I76"/>
       <c s="3" r="J76"/>
@@ -12958,22 +14057,22 @@
         <v>41799.0</v>
       </c>
       <c t="s" s="2" r="B77">
-        <v>802</v>
+        <v>906</v>
       </c>
       <c t="s" s="2" r="C77">
-        <v>803</v>
+        <v>907</v>
       </c>
       <c t="s" s="2" r="D77">
-        <v>804</v>
+        <v>908</v>
       </c>
       <c t="s" s="2" r="E77">
-        <v>805</v>
+        <v>909</v>
       </c>
       <c t="s" s="2" r="F77">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c t="s" s="2" r="G77">
-        <v>807</v>
+        <v>911</v>
       </c>
       <c s="3" r="H77"/>
       <c s="3" r="I77"/>
@@ -13087,7 +14186,7 @@
     </row>
     <row r="81">
       <c t="s" s="2" r="A81">
-        <v>808</v>
+        <v>912</v>
       </c>
       <c s="3" r="B81"/>
       <c s="3" r="C81"/>
@@ -13096,7 +14195,7 @@
       <c s="3" r="F81"/>
       <c s="3" r="G81"/>
       <c t="s" s="2" r="H81">
-        <v>809</v>
+        <v>913</v>
       </c>
       <c s="3" r="I81"/>
       <c s="3" r="J81"/>
@@ -13126,22 +14225,22 @@
         <v>41802.0</v>
       </c>
       <c t="s" s="2" r="B82">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c t="s" s="2" r="C82">
-        <v>811</v>
+        <v>915</v>
       </c>
       <c t="s" s="2" r="D82">
-        <v>812</v>
+        <v>916</v>
       </c>
       <c t="s" s="2" r="E82">
-        <v>813</v>
+        <v>917</v>
       </c>
       <c t="s" s="2" r="F82">
-        <v>814</v>
+        <v>918</v>
       </c>
       <c t="s" s="2" r="G82">
-        <v>815</v>
+        <v>919</v>
       </c>
       <c s="2" r="H82"/>
       <c s="2" r="I82"/>
@@ -13172,22 +14271,22 @@
         <v>41802.0</v>
       </c>
       <c t="s" s="2" r="B83">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c t="s" s="2" r="C83">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c t="s" s="2" r="D83">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c t="s" s="2" r="E83">
-        <v>819</v>
+        <v>923</v>
       </c>
       <c t="s" s="2" r="F83">
-        <v>820</v>
+        <v>924</v>
       </c>
       <c t="s" s="2" r="G83">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c s="2" r="H83"/>
       <c s="3" r="I83"/>
@@ -13218,25 +14317,25 @@
         <v>41802.0</v>
       </c>
       <c t="s" s="2" r="B84">
-        <v>822</v>
+        <v>926</v>
       </c>
       <c t="s" s="2" r="C84">
-        <v>823</v>
+        <v>927</v>
       </c>
       <c t="s" s="2" r="D84">
-        <v>824</v>
+        <v>928</v>
       </c>
       <c t="s" s="2" r="E84">
-        <v>825</v>
+        <v>929</v>
       </c>
       <c t="s" s="2" r="F84">
-        <v>826</v>
+        <v>930</v>
       </c>
       <c t="s" s="2" r="G84">
-        <v>827</v>
+        <v>931</v>
       </c>
       <c t="s" s="2" r="H84">
-        <v>828</v>
+        <v>932</v>
       </c>
       <c s="3" r="I84"/>
       <c s="3" r="J84"/>
@@ -13266,22 +14365,22 @@
         <v>41807.0</v>
       </c>
       <c t="s" s="2" r="B85">
-        <v>829</v>
+        <v>933</v>
       </c>
       <c t="s" s="2" r="C85">
-        <v>830</v>
+        <v>934</v>
       </c>
       <c t="s" s="2" r="D85">
-        <v>831</v>
+        <v>935</v>
       </c>
       <c t="s" s="2" r="E85">
-        <v>832</v>
+        <v>936</v>
       </c>
       <c t="s" s="2" r="F85">
-        <v>833</v>
+        <v>937</v>
       </c>
       <c t="s" s="2" r="G85">
-        <v>834</v>
+        <v>938</v>
       </c>
       <c s="2" r="H85"/>
       <c s="3" r="I85"/>
@@ -13312,22 +14411,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B86">
-        <v>835</v>
+        <v>939</v>
       </c>
       <c t="s" s="2" r="C86">
-        <v>836</v>
+        <v>940</v>
       </c>
       <c t="s" s="2" r="D86">
-        <v>837</v>
+        <v>941</v>
       </c>
       <c t="s" s="2" r="E86">
-        <v>838</v>
+        <v>942</v>
       </c>
       <c t="s" s="2" r="F86">
-        <v>839</v>
+        <v>943</v>
       </c>
       <c t="s" s="2" r="G86">
-        <v>840</v>
+        <v>944</v>
       </c>
       <c s="3" r="H86"/>
       <c s="3" r="I86"/>
@@ -13358,22 +14457,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B87">
-        <v>841</v>
+        <v>945</v>
       </c>
       <c t="s" s="2" r="C87">
-        <v>842</v>
+        <v>946</v>
       </c>
       <c t="s" s="2" r="D87">
-        <v>843</v>
+        <v>947</v>
       </c>
       <c t="s" s="2" r="E87">
-        <v>844</v>
+        <v>948</v>
       </c>
       <c t="s" s="2" r="F87">
-        <v>845</v>
+        <v>949</v>
       </c>
       <c t="s" s="2" r="G87">
-        <v>846</v>
+        <v>950</v>
       </c>
       <c s="3" r="H87"/>
       <c s="3" r="I87"/>
@@ -13404,25 +14503,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B88">
-        <v>847</v>
+        <v>951</v>
       </c>
       <c t="s" s="2" r="C88">
-        <v>848</v>
+        <v>952</v>
       </c>
       <c t="s" s="2" r="D88">
-        <v>849</v>
+        <v>953</v>
       </c>
       <c t="s" s="2" r="E88">
-        <v>850</v>
+        <v>954</v>
       </c>
       <c t="s" s="2" r="F88">
-        <v>851</v>
+        <v>955</v>
       </c>
       <c t="s" s="2" r="G88">
-        <v>852</v>
+        <v>956</v>
       </c>
       <c t="s" s="2" r="H88">
-        <v>853</v>
+        <v>957</v>
       </c>
       <c s="3" r="I88"/>
       <c s="3" r="J88"/>
@@ -13452,22 +14551,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B89">
-        <v>854</v>
+        <v>958</v>
       </c>
       <c t="s" s="2" r="C89">
-        <v>855</v>
+        <v>959</v>
       </c>
       <c t="s" s="2" r="D89">
-        <v>856</v>
+        <v>960</v>
       </c>
       <c t="s" s="2" r="E89">
-        <v>857</v>
+        <v>961</v>
       </c>
       <c t="s" s="2" r="F89">
-        <v>858</v>
+        <v>962</v>
       </c>
       <c t="s" s="2" r="G89">
-        <v>859</v>
+        <v>963</v>
       </c>
       <c s="3" r="H89"/>
       <c s="2" r="I89"/>
@@ -13498,22 +14597,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B90">
-        <v>860</v>
+        <v>964</v>
       </c>
       <c t="s" s="2" r="C90">
-        <v>861</v>
+        <v>965</v>
       </c>
       <c t="s" s="2" r="D90">
-        <v>862</v>
+        <v>966</v>
       </c>
       <c t="s" s="2" r="E90">
-        <v>863</v>
+        <v>967</v>
       </c>
       <c t="s" s="2" r="F90">
-        <v>864</v>
+        <v>968</v>
       </c>
       <c t="s" s="2" r="G90">
-        <v>865</v>
+        <v>969</v>
       </c>
       <c s="3" r="H90"/>
       <c s="3" r="I90"/>
@@ -13544,22 +14643,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B91">
-        <v>866</v>
+        <v>970</v>
       </c>
       <c t="s" s="2" r="C91">
-        <v>867</v>
+        <v>971</v>
       </c>
       <c t="s" s="2" r="D91">
-        <v>868</v>
+        <v>972</v>
       </c>
       <c t="s" s="2" r="E91">
-        <v>869</v>
+        <v>973</v>
       </c>
       <c t="s" s="2" r="F91">
-        <v>870</v>
+        <v>974</v>
       </c>
       <c t="s" s="2" r="G91">
-        <v>871</v>
+        <v>975</v>
       </c>
       <c s="3" r="H91"/>
       <c s="3" r="I91"/>
@@ -13590,22 +14689,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B92">
-        <v>872</v>
+        <v>976</v>
       </c>
       <c t="s" s="2" r="C92">
-        <v>873</v>
+        <v>977</v>
       </c>
       <c t="s" s="2" r="D92">
-        <v>874</v>
+        <v>978</v>
       </c>
       <c t="s" s="2" r="E92">
-        <v>875</v>
+        <v>979</v>
       </c>
       <c t="s" s="2" r="F92">
-        <v>876</v>
+        <v>980</v>
       </c>
       <c t="s" s="2" r="G92">
-        <v>877</v>
+        <v>981</v>
       </c>
       <c s="3" r="H92"/>
       <c s="3" r="I92"/>
@@ -13636,22 +14735,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B93">
-        <v>878</v>
+        <v>982</v>
       </c>
       <c t="s" s="2" r="C93">
-        <v>879</v>
+        <v>983</v>
       </c>
       <c t="s" s="2" r="D93">
-        <v>880</v>
+        <v>984</v>
       </c>
       <c t="s" s="2" r="E93">
-        <v>881</v>
+        <v>985</v>
       </c>
       <c t="s" s="2" r="F93">
-        <v>882</v>
+        <v>986</v>
       </c>
       <c t="s" s="2" r="G93">
-        <v>883</v>
+        <v>987</v>
       </c>
       <c s="3" r="H93"/>
       <c s="3" r="I93"/>
@@ -13682,25 +14781,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B94">
-        <v>884</v>
+        <v>988</v>
       </c>
       <c t="s" s="2" r="C94">
-        <v>885</v>
+        <v>989</v>
       </c>
       <c t="s" s="2" r="D94">
-        <v>886</v>
+        <v>990</v>
       </c>
       <c t="s" s="2" r="E94">
-        <v>887</v>
+        <v>991</v>
       </c>
       <c t="s" s="2" r="F94">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c t="s" s="2" r="G94">
-        <v>889</v>
+        <v>993</v>
       </c>
       <c t="s" s="2" r="H94">
-        <v>890</v>
+        <v>994</v>
       </c>
       <c s="3" r="I94"/>
       <c s="3" r="J94"/>
@@ -13730,22 +14829,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B95">
-        <v>891</v>
+        <v>995</v>
       </c>
       <c t="s" s="2" r="C95">
-        <v>892</v>
+        <v>996</v>
       </c>
       <c t="s" s="2" r="D95">
-        <v>893</v>
+        <v>997</v>
       </c>
       <c t="s" s="2" r="E95">
-        <v>894</v>
+        <v>998</v>
       </c>
       <c t="s" s="2" r="F95">
-        <v>895</v>
+        <v>999</v>
       </c>
       <c t="s" s="2" r="G95">
-        <v>896</v>
+        <v>1000</v>
       </c>
       <c s="3" r="H95"/>
       <c s="3" r="I95"/>
@@ -13776,22 +14875,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B96">
-        <v>897</v>
+        <v>1001</v>
       </c>
       <c t="s" s="2" r="C96">
-        <v>898</v>
+        <v>1002</v>
       </c>
       <c t="s" s="2" r="D96">
-        <v>899</v>
+        <v>1003</v>
       </c>
       <c t="s" s="2" r="E96">
-        <v>900</v>
+        <v>1004</v>
       </c>
       <c t="s" s="2" r="F96">
-        <v>901</v>
+        <v>1005</v>
       </c>
       <c t="s" s="2" r="G96">
-        <v>902</v>
+        <v>1006</v>
       </c>
       <c s="3" r="H96"/>
       <c s="3" r="I96"/>
@@ -13822,22 +14921,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B97">
-        <v>903</v>
+        <v>1007</v>
       </c>
       <c t="s" s="2" r="C97">
-        <v>904</v>
+        <v>1008</v>
       </c>
       <c t="s" s="2" r="D97">
-        <v>905</v>
+        <v>1009</v>
       </c>
       <c t="s" s="2" r="E97">
-        <v>906</v>
+        <v>1010</v>
       </c>
       <c t="s" s="2" r="F97">
-        <v>907</v>
+        <v>1011</v>
       </c>
       <c t="s" s="2" r="G97">
-        <v>908</v>
+        <v>1012</v>
       </c>
       <c s="3" r="H97"/>
       <c s="3" r="I97"/>
@@ -13932,25 +15031,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B100">
-        <v>909</v>
+        <v>1013</v>
       </c>
       <c t="s" s="2" r="C100">
-        <v>910</v>
+        <v>1014</v>
       </c>
       <c t="s" s="2" r="D100">
-        <v>911</v>
+        <v>1015</v>
       </c>
       <c t="s" s="2" r="E100">
-        <v>912</v>
+        <v>1016</v>
       </c>
       <c t="s" s="2" r="F100">
-        <v>913</v>
+        <v>1017</v>
       </c>
       <c t="s" s="2" r="G100">
-        <v>914</v>
+        <v>1018</v>
       </c>
       <c t="s" s="2" r="H100">
-        <v>915</v>
+        <v>1019</v>
       </c>
       <c s="3" r="I100"/>
       <c s="3" r="J100"/>
@@ -13980,22 +15079,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B101">
-        <v>916</v>
+        <v>1020</v>
       </c>
       <c t="s" s="2" r="C101">
-        <v>917</v>
+        <v>1021</v>
       </c>
       <c t="s" s="2" r="D101">
-        <v>918</v>
+        <v>1022</v>
       </c>
       <c t="s" s="2" r="E101">
-        <v>919</v>
+        <v>1023</v>
       </c>
       <c t="s" s="2" r="F101">
-        <v>920</v>
+        <v>1024</v>
       </c>
       <c t="s" s="2" r="G101">
-        <v>921</v>
+        <v>1025</v>
       </c>
       <c s="3" r="H101"/>
       <c s="3" r="I101"/>
@@ -14026,25 +15125,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B102">
-        <v>922</v>
+        <v>1026</v>
       </c>
       <c t="s" s="2" r="C102">
-        <v>923</v>
+        <v>1027</v>
       </c>
       <c t="s" s="2" r="D102">
-        <v>924</v>
+        <v>1028</v>
       </c>
       <c t="s" s="2" r="E102">
-        <v>925</v>
+        <v>1029</v>
       </c>
       <c t="s" s="2" r="F102">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c t="s" s="2" r="G102">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c t="s" s="2" r="H102">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c s="3" r="I102"/>
       <c s="3" r="J102"/>
@@ -14074,22 +15173,22 @@
         <v>41806.0</v>
       </c>
       <c t="s" s="2" r="B103">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c t="s" s="2" r="C103">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c t="s" s="2" r="D103">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c t="s" s="2" r="E103">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c t="s" s="2" r="F103">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c t="s" s="2" r="G103">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c s="3" r="H103"/>
       <c s="3" r="I103"/>
@@ -14124,7 +15223,7 @@
       <c s="3" r="F104"/>
       <c s="3" r="G104"/>
       <c t="s" s="2" r="H104">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c s="3" r="I104"/>
       <c s="3" r="J104"/>
@@ -14154,22 +15253,22 @@
         <v>41806.0</v>
       </c>
       <c t="s" s="2" r="B105">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c t="s" s="2" r="C105">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c t="s" s="2" r="D105">
-        <v>938</v>
+        <v>1042</v>
       </c>
       <c t="s" s="2" r="E105">
-        <v>939</v>
+        <v>1043</v>
       </c>
       <c t="s" s="2" r="F105">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c t="s" s="2" r="G105">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c s="3" r="H105"/>
       <c s="3" r="I105"/>
@@ -14203,7 +15302,7 @@
       <c s="3" r="E106"/>
       <c s="2" r="F106"/>
       <c t="s" s="2" r="H106">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c s="3" r="I106"/>
       <c s="3" r="J106"/>
@@ -14233,22 +15332,22 @@
         <v>41806.0</v>
       </c>
       <c t="s" s="2" r="B107">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c t="s" s="2" r="C107">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c t="s" s="2" r="D107">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c t="s" s="2" r="E107">
-        <v>946</v>
+        <v>1050</v>
       </c>
       <c t="s" s="2" r="F107">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c t="s" s="2" r="G107">
-        <v>948</v>
+        <v>1052</v>
       </c>
       <c s="3" r="H107"/>
       <c s="3" r="I107"/>
@@ -14283,7 +15382,7 @@
       <c s="3" r="F108"/>
       <c s="3" r="G108"/>
       <c t="s" s="2" r="H108">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c s="3" r="I108"/>
       <c s="3" r="J108"/>
@@ -14313,25 +15412,25 @@
         <v>41807.0</v>
       </c>
       <c t="s" s="2" r="B109">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c t="s" s="2" r="C109">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c t="s" s="2" r="D109">
-        <v>952</v>
+        <v>1056</v>
       </c>
       <c t="s" s="2" r="E109">
-        <v>953</v>
+        <v>1057</v>
       </c>
       <c t="s" s="2" r="F109">
-        <v>954</v>
+        <v>1058</v>
       </c>
       <c t="s" s="2" r="G109">
-        <v>955</v>
+        <v>1059</v>
       </c>
       <c t="s" s="2" r="H109">
-        <v>956</v>
+        <v>1060</v>
       </c>
       <c s="3" r="I109"/>
       <c s="3" r="J109"/>
@@ -14361,22 +15460,22 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B110">
-        <v>957</v>
+        <v>1061</v>
       </c>
       <c t="s" s="2" r="C110">
-        <v>958</v>
+        <v>1062</v>
       </c>
       <c t="s" s="2" r="D110">
-        <v>959</v>
+        <v>1063</v>
       </c>
       <c t="s" s="2" r="E110">
-        <v>960</v>
+        <v>1064</v>
       </c>
       <c t="s" s="2" r="F110">
-        <v>961</v>
+        <v>1065</v>
       </c>
       <c t="s" s="2" r="G110">
-        <v>962</v>
+        <v>1066</v>
       </c>
       <c s="3" r="H110"/>
       <c s="3" r="I110"/>
@@ -14411,7 +15510,7 @@
       <c s="3" r="F111"/>
       <c s="3" r="G111"/>
       <c t="s" s="2" r="H111">
-        <v>963</v>
+        <v>1067</v>
       </c>
       <c s="3" r="I111"/>
       <c s="3" r="J111"/>
@@ -14441,22 +15540,22 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B112">
-        <v>964</v>
+        <v>1068</v>
       </c>
       <c t="s" s="2" r="C112">
-        <v>965</v>
+        <v>1069</v>
       </c>
       <c t="s" s="2" r="D112">
-        <v>966</v>
+        <v>1070</v>
       </c>
       <c t="s" s="2" r="E112">
-        <v>967</v>
+        <v>1071</v>
       </c>
       <c t="s" s="2" r="F112">
-        <v>968</v>
+        <v>1072</v>
       </c>
       <c t="s" s="2" r="G112">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c s="3" r="H112"/>
       <c s="3" r="I112"/>
@@ -14487,25 +15586,25 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B113">
-        <v>970</v>
+        <v>1074</v>
       </c>
       <c t="s" s="2" r="C113">
-        <v>971</v>
+        <v>1075</v>
       </c>
       <c t="s" s="2" r="D113">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c t="s" s="2" r="E113">
-        <v>973</v>
+        <v>1077</v>
       </c>
       <c t="s" s="2" r="F113">
-        <v>974</v>
+        <v>1078</v>
       </c>
       <c t="s" s="2" r="G113">
-        <v>975</v>
+        <v>1079</v>
       </c>
       <c t="s" s="2" r="H113">
-        <v>976</v>
+        <v>1080</v>
       </c>
       <c s="3" r="I113"/>
       <c s="3" r="J113"/>
@@ -14535,22 +15634,22 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B114">
-        <v>977</v>
+        <v>1081</v>
       </c>
       <c t="s" s="2" r="C114">
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c t="s" s="2" r="D114">
-        <v>979</v>
+        <v>1083</v>
       </c>
       <c t="s" s="2" r="E114">
-        <v>980</v>
+        <v>1084</v>
       </c>
       <c t="s" s="2" r="F114">
-        <v>981</v>
+        <v>1085</v>
       </c>
       <c t="s" s="2" r="G114">
-        <v>982</v>
+        <v>1086</v>
       </c>
       <c s="3" r="H114"/>
       <c s="3" r="I114"/>
@@ -14581,22 +15680,22 @@
         <v>41809.0</v>
       </c>
       <c t="s" s="2" r="B115">
-        <v>983</v>
+        <v>1087</v>
       </c>
       <c t="s" s="2" r="C115">
-        <v>984</v>
+        <v>1088</v>
       </c>
       <c t="s" s="2" r="D115">
-        <v>985</v>
+        <v>1089</v>
       </c>
       <c t="s" s="2" r="E115">
-        <v>986</v>
+        <v>1090</v>
       </c>
       <c t="s" s="2" r="F115">
-        <v>987</v>
+        <v>1091</v>
       </c>
       <c t="s" s="2" r="G115">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c s="3" r="H115"/>
       <c s="3" r="I115"/>
@@ -14631,7 +15730,7 @@
       <c s="3" r="F116"/>
       <c s="3" r="G116"/>
       <c t="s" s="2" r="H116">
-        <v>989</v>
+        <v>1093</v>
       </c>
       <c s="3" r="I116"/>
       <c s="3" r="J116"/>
@@ -14661,22 +15760,22 @@
         <v>41809.0</v>
       </c>
       <c t="s" s="2" r="B117">
-        <v>990</v>
+        <v>1094</v>
       </c>
       <c t="s" s="2" r="C117">
-        <v>991</v>
+        <v>1095</v>
       </c>
       <c t="s" s="2" r="D117">
-        <v>992</v>
+        <v>1096</v>
       </c>
       <c t="s" s="2" r="E117">
-        <v>993</v>
+        <v>1097</v>
       </c>
       <c t="s" s="2" r="F117">
-        <v>994</v>
+        <v>1098</v>
       </c>
       <c t="s" s="2" r="G117">
-        <v>995</v>
+        <v>1099</v>
       </c>
       <c s="3" r="H117"/>
       <c s="3" r="I117"/>
@@ -14707,25 +15806,25 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B118">
-        <v>996</v>
+        <v>1100</v>
       </c>
       <c t="s" s="2" r="C118">
-        <v>997</v>
+        <v>1101</v>
       </c>
       <c t="s" s="2" r="D118">
-        <v>998</v>
+        <v>1102</v>
       </c>
       <c t="s" s="2" r="E118">
-        <v>999</v>
+        <v>1103</v>
       </c>
       <c t="s" s="2" r="F118">
-        <v>1000</v>
+        <v>1104</v>
       </c>
       <c t="s" s="2" r="G118">
-        <v>1001</v>
+        <v>1105</v>
       </c>
       <c t="s" s="2" r="H118">
-        <v>1002</v>
+        <v>1106</v>
       </c>
       <c s="3" r="I118"/>
       <c s="3" r="J118"/>
@@ -14755,22 +15854,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B119">
-        <v>1003</v>
+        <v>1107</v>
       </c>
       <c t="s" s="2" r="C119">
-        <v>1004</v>
+        <v>1108</v>
       </c>
       <c t="s" s="2" r="D119">
-        <v>1005</v>
+        <v>1109</v>
       </c>
       <c t="s" s="2" r="E119">
-        <v>1006</v>
+        <v>1110</v>
       </c>
       <c t="s" s="2" r="F119">
-        <v>1007</v>
+        <v>1111</v>
       </c>
       <c t="s" s="2" r="G119">
-        <v>1008</v>
+        <v>1112</v>
       </c>
       <c s="3" r="H119"/>
       <c s="3" r="I119"/>
@@ -14801,22 +15900,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B120">
-        <v>1009</v>
+        <v>1113</v>
       </c>
       <c t="s" s="2" r="C120">
-        <v>1010</v>
+        <v>1114</v>
       </c>
       <c t="s" s="2" r="D120">
-        <v>1011</v>
+        <v>1115</v>
       </c>
       <c t="s" s="2" r="E120">
-        <v>1012</v>
+        <v>1116</v>
       </c>
       <c t="s" s="2" r="F120">
-        <v>1013</v>
+        <v>1117</v>
       </c>
       <c t="s" s="2" r="G120">
-        <v>1014</v>
+        <v>1118</v>
       </c>
       <c s="3" r="H120"/>
       <c s="3" r="I120"/>
@@ -14847,28 +15946,28 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B121">
-        <v>1015</v>
+        <v>1119</v>
       </c>
       <c t="s" s="2" r="C121">
-        <v>1016</v>
+        <v>1120</v>
       </c>
       <c t="s" s="2" r="D121">
-        <v>1017</v>
+        <v>1121</v>
       </c>
       <c t="s" s="2" r="E121">
-        <v>1018</v>
+        <v>1122</v>
       </c>
       <c t="s" s="2" r="F121">
-        <v>1019</v>
+        <v>1123</v>
       </c>
       <c t="s" s="2" r="G121">
-        <v>1020</v>
+        <v>1124</v>
       </c>
       <c t="s" s="2" r="H121">
-        <v>1021</v>
+        <v>1125</v>
       </c>
       <c t="s" s="2" r="I121">
-        <v>1022</v>
+        <v>1126</v>
       </c>
       <c s="3" r="J121"/>
       <c s="3" r="K121"/>
@@ -14897,28 +15996,28 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B122">
-        <v>1023</v>
+        <v>1127</v>
       </c>
       <c t="s" s="2" r="C122">
-        <v>1024</v>
+        <v>1128</v>
       </c>
       <c t="s" s="2" r="D122">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c t="s" s="2" r="E122">
-        <v>1026</v>
+        <v>1130</v>
       </c>
       <c t="s" s="2" r="F122">
-        <v>1027</v>
+        <v>1131</v>
       </c>
       <c t="s" s="2" r="G122">
-        <v>1028</v>
+        <v>1132</v>
       </c>
       <c t="s" s="2" r="H122">
-        <v>1029</v>
+        <v>1133</v>
       </c>
       <c t="s" s="2" r="I122">
-        <v>1030</v>
+        <v>1134</v>
       </c>
       <c s="3" r="J122"/>
       <c s="3" r="K122"/>
@@ -14947,22 +16046,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B123">
-        <v>1031</v>
+        <v>1135</v>
       </c>
       <c t="s" s="2" r="C123">
-        <v>1032</v>
+        <v>1136</v>
       </c>
       <c t="s" s="2" r="D123">
-        <v>1033</v>
+        <v>1137</v>
       </c>
       <c t="s" s="2" r="E123">
-        <v>1034</v>
+        <v>1138</v>
       </c>
       <c t="s" s="2" r="F123">
-        <v>1035</v>
+        <v>1139</v>
       </c>
       <c t="s" s="2" r="G123">
-        <v>1036</v>
+        <v>1140</v>
       </c>
       <c s="3" r="H123"/>
       <c s="3" r="I123"/>
@@ -14993,25 +16092,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B124">
-        <v>1037</v>
+        <v>1141</v>
       </c>
       <c t="s" s="2" r="C124">
-        <v>1038</v>
+        <v>1142</v>
       </c>
       <c t="s" s="2" r="D124">
-        <v>1039</v>
+        <v>1143</v>
       </c>
       <c t="s" s="2" r="E124">
-        <v>1040</v>
+        <v>1144</v>
       </c>
       <c t="s" s="2" r="F124">
-        <v>1041</v>
+        <v>1145</v>
       </c>
       <c t="s" s="2" r="G124">
-        <v>1042</v>
+        <v>1146</v>
       </c>
       <c t="s" s="2" r="H124">
-        <v>1043</v>
+        <v>1147</v>
       </c>
       <c s="3" r="I124"/>
       <c s="3" r="J124"/>
@@ -15041,22 +16140,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B125">
-        <v>1044</v>
+        <v>1148</v>
       </c>
       <c t="s" s="2" r="C125">
-        <v>1045</v>
+        <v>1149</v>
       </c>
       <c t="s" s="2" r="D125">
-        <v>1046</v>
+        <v>1150</v>
       </c>
       <c t="s" s="2" r="E125">
-        <v>1047</v>
+        <v>1151</v>
       </c>
       <c t="s" s="2" r="F125">
-        <v>1048</v>
+        <v>1152</v>
       </c>
       <c t="s" s="2" r="G125">
-        <v>1049</v>
+        <v>1153</v>
       </c>
       <c s="3" r="H125"/>
       <c s="3" r="I125"/>
@@ -15087,25 +16186,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B126">
-        <v>1050</v>
+        <v>1154</v>
       </c>
       <c t="s" s="2" r="C126">
-        <v>1051</v>
+        <v>1155</v>
       </c>
       <c t="s" s="2" r="D126">
-        <v>1052</v>
+        <v>1156</v>
       </c>
       <c t="s" s="2" r="E126">
-        <v>1053</v>
+        <v>1157</v>
       </c>
       <c t="s" s="2" r="F126">
-        <v>1054</v>
+        <v>1158</v>
       </c>
       <c t="s" s="2" r="G126">
-        <v>1055</v>
+        <v>1159</v>
       </c>
       <c t="s" s="2" r="H126">
-        <v>1056</v>
+        <v>1160</v>
       </c>
       <c s="3" r="I126"/>
       <c s="3" r="J126"/>
@@ -15135,25 +16234,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B127">
-        <v>1057</v>
+        <v>1161</v>
       </c>
       <c t="s" s="2" r="C127">
-        <v>1058</v>
+        <v>1162</v>
       </c>
       <c t="s" s="2" r="D127">
-        <v>1059</v>
+        <v>1163</v>
       </c>
       <c t="s" s="2" r="E127">
-        <v>1060</v>
+        <v>1164</v>
       </c>
       <c t="s" s="2" r="F127">
-        <v>1061</v>
+        <v>1165</v>
       </c>
       <c t="s" s="2" r="G127">
-        <v>1062</v>
+        <v>1166</v>
       </c>
       <c t="s" s="2" r="H127">
-        <v>1063</v>
+        <v>1167</v>
       </c>
       <c s="3" r="I127"/>
       <c s="3" r="J127"/>
@@ -15183,22 +16282,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B128">
-        <v>1064</v>
+        <v>1168</v>
       </c>
       <c t="s" s="2" r="C128">
-        <v>1065</v>
+        <v>1169</v>
       </c>
       <c t="s" s="2" r="D128">
-        <v>1066</v>
+        <v>1170</v>
       </c>
       <c t="s" s="2" r="E128">
-        <v>1067</v>
+        <v>1171</v>
       </c>
       <c t="s" s="2" r="F128">
-        <v>1068</v>
+        <v>1172</v>
       </c>
       <c t="s" s="2" r="G128">
-        <v>1069</v>
+        <v>1173</v>
       </c>
       <c s="3" r="H128"/>
       <c s="3" r="I128"/>
@@ -15229,22 +16328,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B129">
-        <v>1070</v>
+        <v>1174</v>
       </c>
       <c t="s" s="2" r="C129">
-        <v>1071</v>
+        <v>1175</v>
       </c>
       <c t="s" s="2" r="D129">
-        <v>1072</v>
+        <v>1176</v>
       </c>
       <c t="s" s="2" r="E129">
-        <v>1073</v>
+        <v>1177</v>
       </c>
       <c t="s" s="2" r="F129">
-        <v>1074</v>
+        <v>1178</v>
       </c>
       <c t="s" s="2" r="G129">
-        <v>1075</v>
+        <v>1179</v>
       </c>
       <c s="3" r="H129"/>
       <c s="3" r="I129"/>
@@ -15275,22 +16374,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B130">
-        <v>1076</v>
+        <v>1180</v>
       </c>
       <c t="s" s="2" r="C130">
-        <v>1077</v>
+        <v>1181</v>
       </c>
       <c t="s" s="2" r="D130">
-        <v>1078</v>
+        <v>1182</v>
       </c>
       <c t="s" s="2" r="E130">
-        <v>1079</v>
+        <v>1183</v>
       </c>
       <c t="s" s="2" r="F130">
-        <v>1080</v>
+        <v>1184</v>
       </c>
       <c t="s" s="2" r="G130">
-        <v>1081</v>
+        <v>1185</v>
       </c>
       <c s="3" r="H130"/>
       <c s="3" r="I130"/>
@@ -15321,25 +16420,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B131">
-        <v>1082</v>
+        <v>1186</v>
       </c>
       <c t="s" s="2" r="C131">
-        <v>1083</v>
+        <v>1187</v>
       </c>
       <c t="s" s="2" r="D131">
-        <v>1084</v>
+        <v>1188</v>
       </c>
       <c t="s" s="2" r="E131">
-        <v>1085</v>
+        <v>1189</v>
       </c>
       <c t="s" s="2" r="F131">
-        <v>1086</v>
+        <v>1190</v>
       </c>
       <c t="s" s="2" r="G131">
-        <v>1087</v>
+        <v>1191</v>
       </c>
       <c t="s" s="2" r="H131">
-        <v>1088</v>
+        <v>1192</v>
       </c>
       <c s="3" r="I131"/>
       <c s="3" r="J131"/>
@@ -15369,22 +16468,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B132">
-        <v>1089</v>
+        <v>1193</v>
       </c>
       <c t="s" s="2" r="C132">
-        <v>1090</v>
+        <v>1194</v>
       </c>
       <c t="s" s="2" r="D132">
-        <v>1091</v>
+        <v>1195</v>
       </c>
       <c t="s" s="2" r="E132">
-        <v>1092</v>
+        <v>1196</v>
       </c>
       <c t="s" s="8" r="F132">
-        <v>1093</v>
+        <v>1197</v>
       </c>
       <c t="s" s="8" r="G132">
-        <v>1094</v>
+        <v>1198</v>
       </c>
       <c s="3" r="H132"/>
       <c s="3" r="I132"/>
@@ -15415,25 +16514,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B133">
-        <v>1095</v>
+        <v>1199</v>
       </c>
       <c t="s" s="2" r="C133">
-        <v>1096</v>
+        <v>1200</v>
       </c>
       <c t="s" s="2" r="D133">
-        <v>1097</v>
+        <v>1201</v>
       </c>
       <c t="s" s="2" r="E133">
-        <v>1098</v>
+        <v>1202</v>
       </c>
       <c t="s" s="2" r="F133">
-        <v>1099</v>
+        <v>1203</v>
       </c>
       <c t="s" s="2" r="G133">
-        <v>1100</v>
+        <v>1204</v>
       </c>
       <c t="s" s="2" r="H133">
-        <v>1101</v>
+        <v>1205</v>
       </c>
       <c s="3" r="I133"/>
       <c s="3" r="J133"/>
@@ -15463,22 +16562,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B134">
-        <v>1102</v>
+        <v>1206</v>
       </c>
       <c t="s" s="2" r="C134">
-        <v>1103</v>
+        <v>1207</v>
       </c>
       <c t="s" s="2" r="D134">
-        <v>1104</v>
+        <v>1208</v>
       </c>
       <c t="s" s="2" r="E134">
-        <v>1105</v>
+        <v>1209</v>
       </c>
       <c t="s" s="2" r="F134">
-        <v>1106</v>
+        <v>1210</v>
       </c>
       <c t="s" s="2" r="G134">
-        <v>1107</v>
+        <v>1211</v>
       </c>
       <c s="3" r="H134"/>
       <c s="3" r="I134"/>
@@ -15509,22 +16608,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B135">
-        <v>1108</v>
+        <v>1212</v>
       </c>
       <c t="s" s="2" r="C135">
-        <v>1109</v>
+        <v>1213</v>
       </c>
       <c t="s" s="2" r="D135">
-        <v>1110</v>
+        <v>1214</v>
       </c>
       <c t="s" s="2" r="E135">
-        <v>1111</v>
+        <v>1215</v>
       </c>
       <c t="s" s="2" r="F135">
-        <v>1112</v>
+        <v>1216</v>
       </c>
       <c t="s" s="2" r="G135">
-        <v>1113</v>
+        <v>1217</v>
       </c>
       <c s="3" r="H135"/>
       <c s="3" r="I135"/>
@@ -15555,22 +16654,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B136">
-        <v>1114</v>
+        <v>1218</v>
       </c>
       <c t="s" s="2" r="C136">
-        <v>1115</v>
+        <v>1219</v>
       </c>
       <c t="s" s="2" r="D136">
-        <v>1116</v>
+        <v>1220</v>
       </c>
       <c t="s" s="2" r="E136">
-        <v>1117</v>
+        <v>1221</v>
       </c>
       <c t="s" s="2" r="F136">
-        <v>1118</v>
+        <v>1222</v>
       </c>
       <c t="s" s="2" r="G136">
-        <v>1119</v>
+        <v>1223</v>
       </c>
       <c s="3" r="H136"/>
       <c s="3" r="I136"/>
@@ -15758,7 +16857,7 @@
     </row>
     <row r="142">
       <c t="s" s="2" r="A142">
-        <v>1120</v>
+        <v>1224</v>
       </c>
       <c s="3" r="B142"/>
       <c s="3" r="C142"/>
@@ -15796,10 +16895,10 @@
       <c s="3" r="C143"/>
       <c s="3" r="D143"/>
       <c t="s" s="10" r="E143">
-        <v>1121</v>
+        <v>1225</v>
       </c>
       <c t="s" s="10" r="F143">
-        <v>1122</v>
+        <v>1226</v>
       </c>
       <c s="9" r="G143"/>
       <c s="9" r="H143"/>
@@ -15832,10 +16931,10 @@
       <c s="3" r="C144"/>
       <c s="3" r="D144"/>
       <c t="s" s="10" r="E144">
-        <v>1123</v>
+        <v>1227</v>
       </c>
       <c t="s" s="10" r="F144">
-        <v>1124</v>
+        <v>1228</v>
       </c>
       <c s="9" r="G144"/>
       <c s="9" r="H144"/>
@@ -15868,10 +16967,10 @@
       <c s="3" r="C145"/>
       <c s="3" r="D145"/>
       <c t="s" s="10" r="E145">
-        <v>1125</v>
+        <v>1229</v>
       </c>
       <c t="s" s="10" r="F145">
-        <v>1126</v>
+        <v>1230</v>
       </c>
       <c s="9" r="G145"/>
       <c s="9" r="H145"/>
@@ -15904,10 +17003,10 @@
       <c s="3" r="C146"/>
       <c s="3" r="D146"/>
       <c t="s" s="10" r="E146">
-        <v>1127</v>
+        <v>1231</v>
       </c>
       <c t="s" s="10" r="F146">
-        <v>1128</v>
+        <v>1232</v>
       </c>
       <c s="9" r="G146"/>
       <c s="9" r="H146"/>
@@ -15940,10 +17039,10 @@
       <c s="3" r="C147"/>
       <c s="3" r="D147"/>
       <c t="s" s="10" r="E147">
-        <v>1129</v>
+        <v>1233</v>
       </c>
       <c t="s" s="10" r="F147">
-        <v>1130</v>
+        <v>1234</v>
       </c>
       <c s="9" r="G147"/>
       <c s="9" r="H147"/>
@@ -15976,10 +17075,10 @@
       <c s="3" r="C148"/>
       <c s="3" r="D148"/>
       <c t="s" s="10" r="E148">
-        <v>1131</v>
+        <v>1235</v>
       </c>
       <c t="s" s="10" r="F148">
-        <v>1132</v>
+        <v>1236</v>
       </c>
       <c s="9" r="G148"/>
       <c s="9" r="H148"/>
@@ -16012,10 +17111,10 @@
       <c s="3" r="C149"/>
       <c s="3" r="D149"/>
       <c t="s" s="10" r="E149">
-        <v>1133</v>
+        <v>1237</v>
       </c>
       <c t="s" s="10" r="F149">
-        <v>1134</v>
+        <v>1238</v>
       </c>
       <c s="9" r="G149"/>
       <c s="9" r="H149"/>
@@ -16048,14 +17147,14 @@
       <c s="3" r="C150"/>
       <c s="3" r="D150"/>
       <c t="s" s="10" r="E150">
-        <v>1135</v>
+        <v>1239</v>
       </c>
       <c t="s" s="10" r="F150">
-        <v>1136</v>
+        <v>1240</v>
       </c>
       <c s="9" r="G150"/>
       <c t="s" s="10" r="H150">
-        <v>1137</v>
+        <v>1241</v>
       </c>
       <c s="3" r="I150"/>
       <c s="3" r="J150"/>
@@ -16086,13 +17185,13 @@
       <c s="3" r="C151"/>
       <c s="3" r="D151"/>
       <c t="s" s="10" r="E151">
-        <v>1138</v>
+        <v>1242</v>
       </c>
       <c t="s" s="10" r="F151">
-        <v>1139</v>
+        <v>1243</v>
       </c>
       <c t="s" s="10" r="G151">
-        <v>1140</v>
+        <v>1244</v>
       </c>
       <c s="9" r="H151"/>
       <c s="3" r="I151"/>
@@ -16124,13 +17223,13 @@
       <c s="3" r="C152"/>
       <c s="3" r="D152"/>
       <c t="s" s="10" r="E152">
-        <v>1141</v>
+        <v>1245</v>
       </c>
       <c t="s" s="10" r="F152">
-        <v>1142</v>
+        <v>1246</v>
       </c>
       <c t="s" s="10" r="G152">
-        <v>1143</v>
+        <v>1247</v>
       </c>
       <c s="9" r="H152"/>
       <c s="3" r="I152"/>
@@ -16162,13 +17261,13 @@
       <c s="3" r="C153"/>
       <c s="3" r="D153"/>
       <c t="s" s="10" r="E153">
-        <v>1144</v>
+        <v>1248</v>
       </c>
       <c t="s" s="10" r="F153">
-        <v>1145</v>
+        <v>1249</v>
       </c>
       <c t="s" s="10" r="G153">
-        <v>1146</v>
+        <v>1250</v>
       </c>
       <c s="9" r="H153"/>
       <c s="3" r="I153"/>
@@ -16200,13 +17299,13 @@
       <c s="3" r="C154"/>
       <c s="3" r="D154"/>
       <c t="s" s="10" r="E154">
-        <v>1147</v>
+        <v>1251</v>
       </c>
       <c t="s" s="10" r="F154">
-        <v>1148</v>
+        <v>1252</v>
       </c>
       <c t="s" s="10" r="G154">
-        <v>1149</v>
+        <v>1253</v>
       </c>
       <c s="9" r="H154"/>
       <c s="3" r="I154"/>
@@ -16238,16 +17337,16 @@
       <c s="3" r="C155"/>
       <c s="3" r="D155"/>
       <c t="s" s="10" r="E155">
-        <v>1150</v>
+        <v>1254</v>
       </c>
       <c t="s" s="10" r="F155">
-        <v>1151</v>
+        <v>1255</v>
       </c>
       <c t="s" s="10" r="G155">
-        <v>1152</v>
+        <v>1256</v>
       </c>
       <c t="s" s="10" r="H155">
-        <v>1153</v>
+        <v>1257</v>
       </c>
       <c s="3" r="I155"/>
       <c s="3" r="J155"/>
@@ -16278,13 +17377,13 @@
       <c s="3" r="C156"/>
       <c s="3" r="D156"/>
       <c t="s" s="10" r="E156">
-        <v>1154</v>
+        <v>1258</v>
       </c>
       <c t="s" s="10" r="F156">
-        <v>1155</v>
+        <v>1259</v>
       </c>
       <c t="s" s="10" r="G156">
-        <v>1156</v>
+        <v>1260</v>
       </c>
       <c s="9" r="H156"/>
       <c s="3" r="I156"/>
@@ -16316,13 +17415,13 @@
       <c s="3" r="C157"/>
       <c s="3" r="D157"/>
       <c t="s" s="10" r="E157">
-        <v>1157</v>
+        <v>1261</v>
       </c>
       <c t="s" s="10" r="F157">
-        <v>1158</v>
+        <v>1262</v>
       </c>
       <c t="s" s="10" r="G157">
-        <v>1159</v>
+        <v>1263</v>
       </c>
       <c s="9" r="H157"/>
       <c s="3" r="I157"/>
@@ -16354,13 +17453,13 @@
       <c s="3" r="C158"/>
       <c s="3" r="D158"/>
       <c t="s" s="10" r="E158">
-        <v>1160</v>
+        <v>1264</v>
       </c>
       <c t="s" s="10" r="F158">
-        <v>1161</v>
+        <v>1265</v>
       </c>
       <c t="s" s="10" r="G158">
-        <v>1162</v>
+        <v>1266</v>
       </c>
       <c s="9" r="H158"/>
       <c s="3" r="I158"/>
@@ -16392,13 +17491,13 @@
       <c s="3" r="C159"/>
       <c s="3" r="D159"/>
       <c t="s" s="10" r="E159">
-        <v>1163</v>
+        <v>1267</v>
       </c>
       <c t="s" s="10" r="F159">
-        <v>1164</v>
+        <v>1268</v>
       </c>
       <c t="s" s="10" r="G159">
-        <v>1165</v>
+        <v>1269</v>
       </c>
       <c s="3" r="H159"/>
       <c s="3" r="I159"/>
@@ -16430,13 +17529,13 @@
       <c s="3" r="C160"/>
       <c s="3" r="D160"/>
       <c t="s" s="10" r="E160">
-        <v>1166</v>
+        <v>1270</v>
       </c>
       <c t="s" s="2" r="F160">
-        <v>1167</v>
+        <v>1271</v>
       </c>
       <c t="s" s="2" r="G160">
-        <v>1168</v>
+        <v>1272</v>
       </c>
       <c s="3" r="H160"/>
       <c s="3" r="I160"/>
@@ -16500,10 +17599,10 @@
       <c s="3" r="C162"/>
       <c s="3" r="D162"/>
       <c t="s" s="10" r="E162">
-        <v>1169</v>
+        <v>1273</v>
       </c>
       <c t="s" s="2" r="F162">
-        <v>1170</v>
+        <v>1274</v>
       </c>
       <c s="3" r="G162"/>
       <c s="3" r="H162"/>
@@ -16568,13 +17667,13 @@
       <c s="3" r="C164"/>
       <c s="3" r="D164"/>
       <c t="s" s="2" r="E164">
-        <v>1171</v>
+        <v>1275</v>
       </c>
       <c t="s" s="2" r="F164">
-        <v>1172</v>
+        <v>1276</v>
       </c>
       <c t="s" s="2" r="G164">
-        <v>1173</v>
+        <v>1277</v>
       </c>
       <c s="3" r="H164"/>
       <c s="3" r="I164"/>
@@ -16606,10 +17705,10 @@
       <c s="3" r="C165"/>
       <c s="3" r="D165"/>
       <c t="s" s="2" r="E165">
-        <v>1174</v>
+        <v>1278</v>
       </c>
       <c t="s" s="2" r="F165">
-        <v>1175</v>
+        <v>1279</v>
       </c>
       <c s="3" r="G165"/>
       <c s="3" r="H165"/>
@@ -17110,7 +18209,7 @@
     </row>
     <row r="183">
       <c t="s" s="2" r="G183">
-        <v>1176</v>
+        <v>1280</v>
       </c>
       <c s="3" r="H183"/>
       <c s="3" r="I183"/>
@@ -17294,7 +18393,7 @@
     </row>
     <row r="190">
       <c t="s" s="2" r="G190">
-        <v>1177</v>
+        <v>1281</v>
       </c>
       <c s="3" r="H190"/>
       <c s="3" r="I190"/>
@@ -17792,10 +18891,10 @@
       <c s="3" r="G209"/>
       <c s="3" r="H209"/>
       <c t="s" s="2" r="I209">
-        <v>1178</v>
+        <v>1282</v>
       </c>
       <c t="s" s="2" r="J209">
-        <v>1179</v>
+        <v>1283</v>
       </c>
       <c s="3" r="K209"/>
       <c s="3" r="L209"/>

--- a/data/testing.xlsx
+++ b/data/testing.xlsx
@@ -775,6 +775,38 @@
 Recall: 0.958318
 F-measure 0.954765
 Accuracy: 92.370231%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,</t>
+  </si>
+  <si>
+    <t>    yes     no     
+yes 10274.0 346.0  
+no  0.0     7517.0 
+========= Yes =========
+Precision: 0.967420 
+Recall: 1.000000
+F-measure 0.983440
+========= No =========
+Precision: 1.000000 
+Recall: 0.955996
+F-measure 0.977503
+Accuracy: 98.092298%</t>
+  </si>
+  <si>
+    <t>access to full utterance</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -3265,8 +3297,8 @@
 last_trigram</t>
   </si>
   <si>
-    <t>                    is_first_result,
-                    result_count,
+    <t>is_first_result,
+result_count,
 </t>
   </si>
   <si>
@@ -3400,9 +3432,9 @@
 last_trigram</t>
   </si>
   <si>
-    <t>                    is_first_result,
-                    result_count,
-                    result_rank</t>
+    <t>is_first_result,
+result_count,
+result_rank</t>
   </si>
   <si>
     <t>    yes    no     
@@ -3500,6 +3532,36 @@
 Recall: 0.970971
 F-measure 0.970791
 Accuracy: 95.090682%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
   </si>
   <si>
     <t>result_rank</t>
@@ -3606,11 +3668,40 @@
 Accuracy: 95.028143%</t>
   </si>
   <si>
-    <t>                    result_count,
-                    result_rank,
-                    lat_long_dist,
-                    name_edit_dist,
-</t>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,</t>
   </si>
   <si>
     <t>    yes    no     
@@ -3718,6 +3809,59 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 7641.0 236.0  
+no  2633.0 7627.0 
+========= Yes =========
+Precision: 0.970039 
+Recall: 0.743722
+F-measure 0.841937
+========= No =========
+Precision: 0.743372 
+Recall: 0.969986
+F-measure 0.841693
+Accuracy: 84.181507%</t>
+  </si>
+  <si>
+    <t>access to full utterance</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140528_4771.txt</t>
   </si>
   <si>
@@ -3802,6 +3946,40 @@
 Recall: 0.972088
 F-measure 0.971365
 Accuracy: 95.184490%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,</t>
+  </si>
+  <si>
+    <t>result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 7422.0 292.0  
+no  2852.0 7571.0 
+========= Yes =========
+Precision: 0.962147 
+Recall: 0.722406
+F-measure 0.825217
+========= No =========
+Precision: 0.726374 
+Recall: 0.962864
+F-measure 0.828065
+Accuracy: 82.665270%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -3896,6 +4074,55 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>result_count,
+result_rank,
+lat_long_dist,
+name_edit_dist,</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 8067.0 288.0  
+no  2207.0 7575.0 
+========= Yes =========
+Precision: 0.965530 
+Recall: 0.785186
+F-measure 0.866069
+========= No =========
+Precision: 0.774382 
+Recall: 0.963373
+F-measure 0.858600
+Accuracy: 86.243590%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140529_5223.txt</t>
   </si>
   <si>
@@ -3991,6 +4218,57 @@
     <t>Aaron</t>
   </si>
   <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>                    result_count,
+                    result_rank,
+                    lat_long_dist,
+                    name_edit_dist,
+                    any_token_match,</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 7656.0 255.0  
+no  2618.0 7608.0 
+========= Yes =========
+Precision: 0.967766 
+Recall: 0.745182
+F-measure 0.842013
+========= No =========
+Precision: 0.743986 
+Recall: 0.967570
+F-measure 0.841174
+Accuracy: 84.159453%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
     <t>140529_5223.txt</t>
   </si>
   <si>
@@ -4076,6 +4354,57 @@
 Recall: 0.971344
 F-measure 0.970441
 Accuracy: 95.028143%</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>data_140709.json</t>
+  </si>
+  <si>
+    <t>test_140710.json</t>
+  </si>
+  <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>                    result_count,
+                    result_rank,
+                    lat_long_dist,
+                    name_edit_dist,
+                    location_token_match,</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 8067.0 288.0  
+no  2207.0 7575.0 
+========= Yes =========
+Precision: 0.965530 
+Recall: 0.785186
+F-measure 0.866069
+========= No =========
+Precision: 0.774382 
+Recall: 0.963373
+F-measure 0.858600
+Accuracy: 86.243590%</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -6319,6 +6648,44 @@
     <t>test_140710.json</t>
   </si>
   <si>
+    <t>last_bigram_stem,
+last_trigram_stem,
+title_case,
+bigram_feats_stem,
+token_feat,
+len_greater_2,
+sentence_feats,
+sentence_feats_stem,
+stem_feat,
+last_4gram_stem,
+in_stopwords,
+last_tag,
+tag_feat,
+first_word,
+in_stopwords_last,
+go_to_at_in_3,
+last_bigram,
+last_4gram,
+last_trigram</t>
+  </si>
+  <si>
+    <t>    yes    no     
+yes 7877.0 2414.0 
+no  2743.0 5103.0 
+========= Yes =========
+Precision: 0.765426 
+Recall: 0.741714
+F-measure 0.753383
+========= No =========
+Precision: 0.650395 
+Recall: 0.678861
+F-measure 0.664323
+Accuracy: 71.566411%</t>
+  </si>
+  <si>
+    <t>access to full utterance</t>
+  </si>
+  <si>
     <t>Aaron</t>
   </si>
   <si>
@@ -6360,15 +6727,6 @@
 Recall: 0.723077
 F-measure 0.698020
 Accuracy: 0.655367%</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>data_140709.json</t>
-  </si>
-  <si>
-    <t>test_140710.json</t>
   </si>
   <si>
     <t>Aaron</t>
@@ -9580,6 +9938,7 @@
     <col min="13" customWidth="1" max="13" width="24.29"/>
     <col min="14" customWidth="1" max="14" width="25.43"/>
     <col min="15" customWidth="1" max="15" width="24.71"/>
+    <col min="21" customWidth="1" max="21" width="25.43"/>
     <col min="22" customWidth="1" max="22" width="23.86"/>
     <col min="23" customWidth="1" max="23" width="25.29"/>
     <col min="27" customWidth="1" max="27" width="19.71"/>
@@ -10112,32 +10471,47 @@
         <v>129</v>
       </c>
       <c s="3" r="O8"/>
-      <c s="3" r="Q8"/>
-      <c s="5" r="R8"/>
-      <c s="2" r="S8"/>
-      <c s="3" r="T8"/>
-      <c s="3" r="U8"/>
-      <c s="3" r="V8"/>
+      <c s="6" r="P8">
+        <v>41469.0</v>
+      </c>
+      <c t="s" s="2" r="Q8">
+        <v>130</v>
+      </c>
+      <c t="s" s="2" r="R8">
+        <v>131</v>
+      </c>
+      <c t="s" s="2" r="S8">
+        <v>132</v>
+      </c>
+      <c t="s" s="2" r="T8">
+        <v>133</v>
+      </c>
+      <c t="s" s="2" r="U8">
+        <v>134</v>
+      </c>
+      <c t="s" s="2" r="V8">
+        <v>135</v>
+      </c>
       <c s="5" r="W8">
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X8">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c t="s" s="2" r="Y8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c t="s" s="2" r="Z8">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" s="2" r="AA8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c t="s" s="2" r="AB8">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" s="2" r="AC8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c s="3" r="AD8"/>
     </row>
@@ -10146,43 +10520,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B9">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c t="s" s="2" r="C9">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c t="s" s="2" r="D9">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" s="7" r="E9">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c t="s" s="2" r="F9">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" s="2" r="G9">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c t="s" s="2" r="H9">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c s="5" r="I9">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J9">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c t="s" s="2" r="K9">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" s="2" r="L9">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c t="s" s="2" r="M9">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c t="s" s="2" r="N9">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c s="3" r="O9"/>
       <c s="3" r="Q9"/>
@@ -10195,22 +10569,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X9">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c t="s" s="2" r="Y9">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c t="s" s="2" r="Z9">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c t="s" s="2" r="AA9">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c t="s" s="2" r="AB9">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c t="s" s="2" r="AC9">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c s="3" r="AD9"/>
     </row>
@@ -10219,41 +10593,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B10">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c t="s" s="2" r="C10">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" s="2" r="D10">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c t="s" s="7" r="E10">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c t="s" s="2" r="F10">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" s="2" r="G10">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c s="3" r="H10"/>
       <c s="5" r="I10">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J10">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c t="s" s="2" r="K10">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" s="2" r="L10">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c t="s" s="2" r="M10">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c t="s" s="2" r="N10">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c s="3" r="O10"/>
       <c s="3" r="Q10"/>
@@ -10266,22 +10640,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X10">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c t="s" s="2" r="Y10">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c t="s" s="2" r="Z10">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c t="s" s="2" r="AA10">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c t="s" s="2" r="AB10">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c t="s" s="2" r="AC10">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c s="3" r="AD10"/>
     </row>
@@ -10290,41 +10664,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" s="2" r="C11">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c t="s" s="2" r="D11">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c t="s" s="2" r="E11">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c t="s" s="2" r="F11">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c t="s" s="2" r="G11">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c s="3" r="H11"/>
       <c s="5" r="I11">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J11">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c t="s" s="2" r="K11">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c t="s" s="2" r="L11">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c t="s" s="2" r="M11">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c t="s" s="2" r="N11">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c s="3" r="O11"/>
       <c s="3" r="Q11"/>
@@ -10337,22 +10711,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X11">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c t="s" s="2" r="Y11">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c t="s" s="2" r="Z11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" s="2" r="AA11">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c t="s" s="2" r="AB11">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c t="s" s="2" r="AC11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c s="3" r="AD11"/>
     </row>
@@ -10361,43 +10735,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B12">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c t="s" s="2" r="C12">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c t="s" s="2" r="D12">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c t="s" s="7" r="E12">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c t="s" s="2" r="F12">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c t="s" s="2" r="G12">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" s="2" r="H12">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c s="5" r="I12">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J12">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c t="s" s="2" r="K12">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" s="2" r="L12">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" s="2" r="M12">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" s="2" r="N12">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c s="3" r="O12"/>
       <c s="3" r="Q12"/>
@@ -10410,22 +10784,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X12">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" s="2" r="Y12">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c t="s" s="2" r="Z12">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c t="s" s="2" r="AA12">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c t="s" s="2" r="AB12">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c t="s" s="2" r="AC12">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c s="3" r="AD12"/>
     </row>
@@ -10434,43 +10808,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B13">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" s="2" r="C13">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c t="s" s="2" r="D13">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c t="s" s="7" r="E13">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c t="s" s="2" r="F13">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c t="s" s="2" r="G13">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" s="2" r="H13">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c s="5" r="I13">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J13">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c t="s" s="2" r="K13">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c t="s" s="2" r="L13">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c t="s" s="2" r="M13">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c t="s" s="2" r="N13">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c s="3" r="O13"/>
       <c s="3" r="Q13"/>
@@ -10483,22 +10857,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X13">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c t="s" s="2" r="Y13">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c t="s" s="2" r="Z13">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c t="s" s="2" r="AA13">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c t="s" s="2" r="AB13">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c t="s" s="2" r="AC13">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c s="3" r="AD13"/>
     </row>
@@ -10507,41 +10881,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B14">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c t="s" s="2" r="C14">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c t="s" s="2" r="D14">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c t="s" s="7" r="E14">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c t="s" s="2" r="F14">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c t="s" s="2" r="G14">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c s="3" r="H14"/>
       <c s="5" r="I14">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J14">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c t="s" s="2" r="K14">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c t="s" s="2" r="L14">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c t="s" s="2" r="M14">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c t="s" s="2" r="N14">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c s="3" r="O14"/>
       <c s="3" r="Q14"/>
@@ -10554,22 +10928,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X14">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c t="s" s="2" r="Y14">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c t="s" s="2" r="Z14">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c t="s" s="2" r="AA14">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c t="s" s="2" r="AB14">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c t="s" s="2" r="AC14">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c s="3" r="AD14"/>
     </row>
@@ -10578,41 +10952,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B15">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c t="s" s="2" r="C15">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c t="s" s="2" r="D15">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c t="s" s="2" r="E15">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c t="s" s="2" r="F15">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c t="s" s="2" r="G15">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c s="3" r="H15"/>
       <c s="5" r="I15">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J15">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c t="s" s="2" r="K15">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c t="s" s="2" r="L15">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c t="s" s="2" r="M15">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c t="s" s="2" r="N15">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c s="3" r="O15"/>
       <c s="3" r="Q15"/>
@@ -10625,22 +10999,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X15">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c t="s" s="2" r="Y15">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c t="s" s="2" r="Z15">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c t="s" s="2" r="AA15">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c t="s" s="2" r="AB15">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c t="s" s="2" r="AC15">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c s="3" r="AD15"/>
     </row>
@@ -10649,43 +11023,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B16">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c t="s" s="2" r="C16">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c t="s" s="2" r="D16">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c t="s" s="2" r="E16">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c t="s" s="2" r="F16">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c t="s" s="2" r="G16">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c t="s" s="2" r="H16">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c s="5" r="I16">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J16">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c t="s" s="2" r="K16">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c t="s" s="2" r="L16">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c t="s" s="2" r="M16">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c t="s" s="2" r="N16">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c s="3" r="O16"/>
       <c s="3" r="Q16"/>
@@ -10698,22 +11072,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X16">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c t="s" s="2" r="Y16">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c t="s" s="2" r="Z16">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c t="s" s="2" r="AA16">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c t="s" s="2" r="AB16">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c t="s" s="2" r="AC16">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c s="3" r="AD16"/>
     </row>
@@ -10722,41 +11096,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B17">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c t="s" s="2" r="C17">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c t="s" s="2" r="D17">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c t="s" s="2" r="E17">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c t="s" s="2" r="F17">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c t="s" s="2" r="G17">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c s="2" r="H17"/>
       <c s="5" r="I17">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J17">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c t="s" s="2" r="K17">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c t="s" s="2" r="L17">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c t="s" s="2" r="M17">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c t="s" s="2" r="N17">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c s="3" r="O17"/>
       <c s="3" r="Q17"/>
@@ -10769,22 +11143,22 @@
         <v>41458.0</v>
       </c>
       <c t="s" s="2" r="X17">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c t="s" s="2" r="Y17">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c t="s" s="2" r="Z17">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c t="s" s="2" r="AA17">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c t="s" s="2" r="AB17">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c t="s" s="2" r="AC17">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c s="3" r="AD17"/>
     </row>
@@ -10793,41 +11167,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B18">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c t="s" s="2" r="C18">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c t="s" s="2" r="D18">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c t="s" s="2" r="E18">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c t="s" s="2" r="F18">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c t="s" s="2" r="G18">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c s="3" r="H18"/>
       <c s="5" r="I18">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J18">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c t="s" s="2" r="K18">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c t="s" s="2" r="L18">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c t="s" s="2" r="M18">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c t="s" s="2" r="N18">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c s="3" r="O18"/>
       <c s="3" r="Q18"/>
@@ -10840,22 +11214,22 @@
         <v>41463.0</v>
       </c>
       <c t="s" s="2" r="X18">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c t="s" s="2" r="Y18">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c t="s" s="2" r="Z18">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c t="s" s="2" r="AA18">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c t="s" s="2" r="AB18">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c t="s" s="2" r="AC18">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c s="2" r="AD18"/>
     </row>
@@ -10864,41 +11238,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B19">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c t="s" s="2" r="C19">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c t="s" s="2" r="D19">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c t="s" s="2" r="E19">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c t="s" s="2" r="F19">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c t="s" s="2" r="G19">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c s="3" r="H19"/>
       <c s="5" r="I19">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J19">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c t="s" s="2" r="K19">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c t="s" s="2" r="L19">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c t="s" s="2" r="M19">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c t="s" s="2" r="N19">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c s="3" r="O19"/>
       <c s="3" r="Q19"/>
@@ -10911,22 +11285,22 @@
         <v>41464.0</v>
       </c>
       <c t="s" s="2" r="X19">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c t="s" s="2" r="Y19">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c t="s" s="2" r="Z19">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c t="s" s="2" r="AA19">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c t="s" s="2" r="AB19">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c t="s" s="2" r="AC19">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c s="3" r="AD19"/>
     </row>
@@ -10935,41 +11309,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B20">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c t="s" s="2" r="C20">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c t="s" s="2" r="D20">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c t="s" s="2" r="E20">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c t="s" s="2" r="F20">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c t="s" s="2" r="G20">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c s="3" r="H20"/>
       <c s="5" r="I20">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J20">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c t="s" s="2" r="K20">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c t="s" s="2" r="L20">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c t="s" s="2" r="M20">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c t="s" s="2" r="N20">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c s="3" r="O20"/>
       <c s="3" r="Q20"/>
@@ -10982,22 +11356,22 @@
         <v>41464.0</v>
       </c>
       <c t="s" s="2" r="X20">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c t="s" s="2" r="Y20">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c t="s" s="2" r="Z20">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c t="s" s="2" r="AA20">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c t="s" s="2" r="AB20">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c t="s" s="2" r="AC20">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c s="3" r="AD20"/>
     </row>
@@ -11014,19 +11388,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J21">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c t="s" s="2" r="K21">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c t="s" s="2" r="L21">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c t="s" s="2" r="M21">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c t="s" s="2" r="N21">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c s="3" r="O21"/>
       <c s="3" r="Q21"/>
@@ -11039,22 +11413,22 @@
         <v>41464.0</v>
       </c>
       <c t="s" s="2" r="X21">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c t="s" s="2" r="Y21">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c t="s" s="2" r="Z21">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c t="s" s="2" r="AA21">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c t="s" s="2" r="AB21">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c t="s" s="2" r="AC21">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c s="3" r="AD21"/>
     </row>
@@ -11071,19 +11445,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J22">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c t="s" s="2" r="K22">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c t="s" s="2" r="L22">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c t="s" s="2" r="M22">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c t="s" s="2" r="N22">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c s="3" r="O22"/>
       <c s="3" r="Q22"/>
@@ -11096,22 +11470,22 @@
         <v>41465.0</v>
       </c>
       <c t="s" s="2" r="X22">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c t="s" s="2" r="Y22">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c t="s" s="2" r="Z22">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c t="s" s="2" r="AA22">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c t="s" s="2" r="AB22">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c t="s" s="2" r="AC22">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c s="3" r="AD22"/>
     </row>
@@ -11128,19 +11502,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J23">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c t="s" s="2" r="K23">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c t="s" s="2" r="L23">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c t="s" s="2" r="M23">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c t="s" s="2" r="N23">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c s="3" r="O23"/>
       <c s="3" r="Q23"/>
@@ -11153,28 +11527,28 @@
         <v>41465.0</v>
       </c>
       <c t="s" s="2" r="X23">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c t="s" s="2" r="Y23">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c t="s" s="2" r="Z23">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c t="s" s="2" r="AA23">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c t="s" s="2" r="AB23">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c t="s" s="2" r="AC23">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c s="3" r="AD23"/>
     </row>
     <row r="24">
       <c t="s" s="2" r="A24">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c s="2" r="B24"/>
       <c s="2" r="C24"/>
@@ -11187,19 +11561,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J24">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c t="s" s="2" r="K24">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c t="s" s="2" r="L24">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c t="s" s="2" r="M24">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c t="s" s="2" r="N24">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c s="3" r="O24"/>
       <c s="3" r="Q24"/>
@@ -11212,22 +11586,22 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="X24">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c t="s" s="2" r="Y24">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c t="s" s="2" r="Z24">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c t="s" s="2" r="AA24">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c t="s" s="2" r="AB24">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c t="s" s="2" r="AC24">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c s="3" r="AD24"/>
     </row>
@@ -11236,41 +11610,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B25">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c t="s" s="2" r="C25">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c t="s" s="2" r="D25">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c t="s" s="2" r="E25">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c t="s" s="2" r="F25">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c t="s" s="2" r="G25">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c s="3" r="H25"/>
       <c s="5" r="I25">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J25">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c t="s" s="2" r="K25">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c t="s" s="2" r="L25">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c t="s" s="2" r="M25">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c t="s" s="2" r="N25">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c s="3" r="O25"/>
       <c s="3" r="Q25"/>
@@ -11283,22 +11657,22 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="X25">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c t="s" s="2" r="Y25">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c t="s" s="2" r="Z25">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c t="s" s="2" r="AA25">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c t="s" s="2" r="AB25">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c t="s" s="2" r="AC25">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c s="3" r="AD25"/>
     </row>
@@ -11307,41 +11681,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B26">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c t="s" s="2" r="C26">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c t="s" s="2" r="D26">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c t="s" s="7" r="E26">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c t="s" s="2" r="F26">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c t="s" s="2" r="G26">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c s="3" r="H26"/>
       <c s="5" r="I26">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J26">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c t="s" s="2" r="K26">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c t="s" s="2" r="L26">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c t="s" s="2" r="M26">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c t="s" s="2" r="N26">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c s="3" r="O26"/>
       <c s="3" r="Q26"/>
@@ -11354,22 +11728,22 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="X26">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c t="s" s="2" r="Y26">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c t="s" s="2" r="Z26">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c t="s" s="2" r="AA26">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c t="s" s="2" r="AB26">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c t="s" s="2" r="AC26">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c s="3" r="AD26"/>
     </row>
@@ -11378,41 +11752,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B27">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c t="s" s="2" r="C27">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c t="s" s="2" r="D27">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c t="s" s="7" r="E27">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c t="s" s="2" r="F27">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c t="s" s="2" r="G27">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c s="3" r="H27"/>
       <c s="5" r="I27">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J27">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c t="s" s="2" r="K27">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c t="s" s="2" r="L27">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c t="s" s="2" r="M27">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c t="s" s="2" r="N27">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c s="3" r="O27"/>
       <c s="3" r="Q27"/>
@@ -11425,22 +11799,22 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="X27">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c t="s" s="2" r="Y27">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c t="s" s="2" r="Z27">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c t="s" s="2" r="AA27">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c t="s" s="2" r="AB27">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c t="s" s="2" r="AC27">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c s="2" r="AD27"/>
     </row>
@@ -11449,43 +11823,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B28">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c t="s" s="2" r="C28">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c t="s" s="2" r="D28">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c t="s" s="7" r="E28">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c t="s" s="2" r="F28">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c t="s" s="2" r="G28">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c t="s" s="2" r="H28">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c s="5" r="I28">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J28">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c t="s" s="2" r="K28">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c t="s" s="2" r="L28">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c t="s" s="2" r="M28">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c t="s" s="2" r="N28">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c s="3" r="O28"/>
       <c s="3" r="Q28"/>
@@ -11498,22 +11872,22 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="X28">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c t="s" s="2" r="Y28">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c t="s" s="2" r="Z28">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c t="s" s="2" r="AA28">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c t="s" s="2" r="AB28">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c t="s" s="2" r="AC28">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c s="3" r="AD28"/>
     </row>
@@ -11522,43 +11896,43 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B29">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c t="s" s="2" r="C29">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c t="s" s="2" r="D29">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c t="s" s="7" r="E29">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c t="s" s="2" r="F29">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c t="s" s="2" r="G29">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c t="s" s="2" r="H29">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c s="5" r="I29">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J29">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c t="s" s="2" r="K29">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c t="s" s="2" r="L29">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c t="s" s="2" r="M29">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c t="s" s="2" r="N29">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c s="3" r="O29"/>
       <c s="3" r="Q29"/>
@@ -11571,22 +11945,22 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="X29">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c t="s" s="2" r="Y29">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c t="s" s="2" r="Z29">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c t="s" s="2" r="AA29">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c t="s" s="2" r="AB29">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c t="s" s="2" r="AC29">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c s="3" r="AD29"/>
     </row>
@@ -11595,41 +11969,41 @@
         <v>41787.0</v>
       </c>
       <c t="s" s="2" r="B30">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c t="s" s="2" r="C30">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c t="s" s="2" r="D30">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c t="s" s="7" r="E30">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c t="s" s="2" r="F30">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c t="s" s="2" r="G30">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c s="3" r="H30"/>
       <c s="5" r="I30">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J30">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c t="s" s="2" r="K30">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c t="s" s="2" r="L30">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c t="s" s="2" r="M30">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c t="s" s="2" r="N30">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c s="3" r="O30"/>
       <c s="3" r="Q30"/>
@@ -11638,16 +12012,26 @@
       <c s="3" r="T30"/>
       <c s="3" r="U30"/>
       <c s="3" r="V30"/>
-      <c s="3" r="W30"/>
-      <c s="3" r="X30"/>
-      <c s="3" r="Y30"/>
-      <c s="3" r="Z30"/>
-      <c s="3" r="AA30"/>
+      <c s="5" r="W30">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X30">
+        <v>493</v>
+      </c>
+      <c t="s" s="2" r="Y30">
+        <v>494</v>
+      </c>
+      <c t="s" s="2" r="Z30">
+        <v>495</v>
+      </c>
+      <c t="s" s="2" r="AA30">
+        <v>496</v>
+      </c>
       <c t="s" s="2" r="AB30">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c t="s" s="2" r="AC30">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c s="3" r="AD30"/>
     </row>
@@ -11656,41 +12040,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B31">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c t="s" s="2" r="C31">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c t="s" s="2" r="D31">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c t="s" s="2" r="E31">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c t="s" s="2" r="F31">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c t="s" s="2" r="G31">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c s="3" r="H31"/>
       <c s="5" r="I31">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J31">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c t="s" s="2" r="K31">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c t="s" s="2" r="L31">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c t="s" s="2" r="M31">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c t="s" s="2" r="N31">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c s="3" r="O31"/>
       <c s="3" r="Q31"/>
@@ -11699,16 +12083,26 @@
       <c s="3" r="T31"/>
       <c s="3" r="U31"/>
       <c s="3" r="V31"/>
-      <c s="3" r="W31"/>
-      <c s="3" r="X31"/>
-      <c s="3" r="Y31"/>
-      <c s="3" r="Z31"/>
-      <c s="3" r="AA31"/>
+      <c s="5" r="W31">
+        <v>41466.0</v>
+      </c>
+      <c t="s" s="2" r="X31">
+        <v>510</v>
+      </c>
+      <c t="s" s="2" r="Y31">
+        <v>511</v>
+      </c>
+      <c t="s" s="2" r="Z31">
+        <v>512</v>
+      </c>
+      <c t="s" s="2" r="AA31">
+        <v>513</v>
+      </c>
       <c t="s" s="2" r="AB31">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c t="s" s="2" r="AC31">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c s="3" r="AD31"/>
     </row>
@@ -11717,41 +12111,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B32">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c t="s" s="2" r="C32">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c t="s" s="2" r="D32">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c t="s" s="2" r="E32">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c t="s" s="2" r="F32">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c t="s" s="2" r="G32">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c s="3" r="H32"/>
       <c s="5" r="I32">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J32">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c t="s" s="2" r="K32">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c t="s" s="2" r="L32">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c t="s" s="2" r="M32">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c t="s" s="2" r="N32">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c s="3" r="O32"/>
       <c s="3" r="Q32"/>
@@ -11760,55 +12154,71 @@
       <c s="3" r="T32"/>
       <c s="3" r="U32"/>
       <c s="3" r="V32"/>
-      <c s="3" r="W32"/>
-      <c s="3" r="X32"/>
-      <c s="3" r="Y32"/>
-      <c s="3" r="Z32"/>
-      <c s="3" r="AA32"/>
-      <c s="3" r="AB32"/>
-      <c s="3" r="AC32"/>
-      <c s="3" r="AD32"/>
+      <c s="5" r="W32">
+        <v>41469.0</v>
+      </c>
+      <c t="s" s="2" r="X32">
+        <v>527</v>
+      </c>
+      <c t="s" s="2" r="Y32">
+        <v>528</v>
+      </c>
+      <c t="s" s="2" r="Z32">
+        <v>529</v>
+      </c>
+      <c t="s" s="2" r="AA32">
+        <v>530</v>
+      </c>
+      <c t="s" s="2" r="AB32">
+        <v>531</v>
+      </c>
+      <c t="s" s="2" r="AC32">
+        <v>532</v>
+      </c>
+      <c t="s" s="2" r="AD32">
+        <v>533</v>
+      </c>
     </row>
     <row r="33">
       <c s="5" r="A33">
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B33">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c t="s" s="2" r="C33">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c t="s" s="2" r="D33">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c t="s" s="2" r="E33">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c t="s" s="2" r="F33">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c t="s" s="2" r="G33">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c s="3" r="H33"/>
       <c s="5" r="I33">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J33">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c t="s" s="2" r="K33">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c t="s" s="2" r="L33">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c t="s" s="8" r="M33">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c t="s" s="8" r="N33">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c s="3" r="O33"/>
       <c s="3" r="Q33"/>
@@ -11817,13 +12227,27 @@
       <c s="3" r="T33"/>
       <c s="3" r="U33"/>
       <c s="3" r="V33"/>
-      <c s="3" r="W33"/>
-      <c s="3" r="X33"/>
-      <c s="3" r="Y33"/>
-      <c s="3" r="Z33"/>
-      <c s="3" r="AA33"/>
-      <c s="3" r="AB33"/>
-      <c s="3" r="AC33"/>
+      <c s="5" r="W33">
+        <v>41469.0</v>
+      </c>
+      <c t="s" s="2" r="X33">
+        <v>545</v>
+      </c>
+      <c t="s" s="2" r="Y33">
+        <v>546</v>
+      </c>
+      <c t="s" s="2" r="Z33">
+        <v>547</v>
+      </c>
+      <c t="s" s="2" r="AA33">
+        <v>548</v>
+      </c>
+      <c t="s" s="2" r="AB33">
+        <v>549</v>
+      </c>
+      <c t="s" s="2" r="AC33">
+        <v>550</v>
+      </c>
       <c s="3" r="AD33"/>
     </row>
     <row r="34">
@@ -11831,41 +12255,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B34">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c t="s" s="2" r="C34">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c t="s" s="2" r="D34">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c t="s" s="2" r="E34">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c t="s" s="2" r="F34">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c t="s" s="2" r="G34">
-        <v>529</v>
+        <v>556</v>
       </c>
       <c s="3" r="H34"/>
       <c s="5" r="I34">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J34">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c t="s" s="2" r="K34">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c t="s" s="2" r="L34">
-        <v>532</v>
+        <v>559</v>
       </c>
       <c t="s" s="2" r="M34">
-        <v>533</v>
+        <v>560</v>
       </c>
       <c t="s" s="2" r="N34">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c s="3" r="O34"/>
       <c s="3" r="Q34"/>
@@ -11874,13 +12298,27 @@
       <c s="3" r="T34"/>
       <c s="3" r="U34"/>
       <c s="3" r="V34"/>
-      <c s="3" r="W34"/>
-      <c s="3" r="X34"/>
-      <c s="3" r="Y34"/>
-      <c s="3" r="Z34"/>
-      <c s="3" r="AA34"/>
-      <c s="3" r="AB34"/>
-      <c s="3" r="AC34"/>
+      <c s="5" r="W34">
+        <v>41469.0</v>
+      </c>
+      <c t="s" s="2" r="X34">
+        <v>562</v>
+      </c>
+      <c t="s" s="2" r="Y34">
+        <v>563</v>
+      </c>
+      <c t="s" s="2" r="Z34">
+        <v>564</v>
+      </c>
+      <c t="s" s="2" r="AA34">
+        <v>565</v>
+      </c>
+      <c t="s" s="2" r="AB34">
+        <v>566</v>
+      </c>
+      <c t="s" s="2" r="AC34">
+        <v>567</v>
+      </c>
       <c s="3" r="AD34"/>
     </row>
     <row r="35">
@@ -11888,43 +12326,43 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B35">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c t="s" s="2" r="C35">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c t="s" s="2" r="D35">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c t="s" s="2" r="E35">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c t="s" s="2" r="F35">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c t="s" s="2" r="G35">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c t="s" s="2" r="H35">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c s="5" r="I35">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J35">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c t="s" s="2" r="K35">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c t="s" s="2" r="L35">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c t="s" s="2" r="M35">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c t="s" s="2" r="N35">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c s="3" r="O35"/>
       <c s="3" r="Q35"/>
@@ -11933,13 +12371,27 @@
       <c s="3" r="T35"/>
       <c s="3" r="U35"/>
       <c s="3" r="V35"/>
-      <c s="3" r="W35"/>
-      <c s="3" r="X35"/>
-      <c s="3" r="Y35"/>
-      <c s="3" r="Z35"/>
-      <c s="3" r="AA35"/>
-      <c s="3" r="AB35"/>
-      <c s="3" r="AC35"/>
+      <c s="5" r="W35">
+        <v>41469.0</v>
+      </c>
+      <c t="s" s="2" r="X35">
+        <v>580</v>
+      </c>
+      <c t="s" s="2" r="Y35">
+        <v>581</v>
+      </c>
+      <c t="s" s="2" r="Z35">
+        <v>582</v>
+      </c>
+      <c t="s" s="2" r="AA35">
+        <v>583</v>
+      </c>
+      <c t="s" s="2" r="AB35">
+        <v>584</v>
+      </c>
+      <c t="s" s="2" r="AC35">
+        <v>585</v>
+      </c>
       <c s="3" r="AD35"/>
     </row>
     <row r="36">
@@ -11947,41 +12399,41 @@
         <v>41788.0</v>
       </c>
       <c t="s" s="2" r="B36">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c t="s" s="2" r="C36">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c t="s" s="2" r="D36">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c t="s" s="2" r="E36">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c t="s" s="2" r="F36">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c t="s" s="2" r="G36">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c s="3" r="H36"/>
       <c s="5" r="I36">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J36">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c t="s" s="2" r="K36">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c t="s" s="2" r="L36">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c t="s" s="2" r="M36">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c t="s" s="2" r="N36">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c s="3" r="O36"/>
       <c s="3" r="Q36"/>
@@ -11990,13 +12442,27 @@
       <c s="3" r="T36"/>
       <c s="3" r="U36"/>
       <c s="3" r="V36"/>
-      <c s="3" r="W36"/>
-      <c s="3" r="X36"/>
-      <c s="3" r="Y36"/>
-      <c s="3" r="Z36"/>
-      <c s="3" r="AA36"/>
-      <c s="3" r="AB36"/>
-      <c s="3" r="AC36"/>
+      <c s="5" r="W36">
+        <v>41469.0</v>
+      </c>
+      <c t="s" s="2" r="X36">
+        <v>597</v>
+      </c>
+      <c t="s" s="2" r="Y36">
+        <v>598</v>
+      </c>
+      <c t="s" s="2" r="Z36">
+        <v>599</v>
+      </c>
+      <c t="s" s="2" r="AA36">
+        <v>600</v>
+      </c>
+      <c t="s" s="2" r="AB36">
+        <v>601</v>
+      </c>
+      <c t="s" s="2" r="AC36">
+        <v>602</v>
+      </c>
       <c s="3" r="AD36"/>
     </row>
     <row r="37">
@@ -12012,19 +12478,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J37">
-        <v>558</v>
+        <v>603</v>
       </c>
       <c t="s" s="2" r="K37">
-        <v>559</v>
+        <v>604</v>
       </c>
       <c t="s" s="2" r="L37">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c t="s" s="2" r="M37">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c t="s" s="2" r="N37">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c s="3" r="O37"/>
       <c s="3" r="Q37"/>
@@ -12033,13 +12499,13 @@
       <c s="3" r="T37"/>
       <c s="3" r="U37"/>
       <c s="3" r="V37"/>
-      <c s="3" r="W37"/>
-      <c s="3" r="X37"/>
-      <c s="3" r="Y37"/>
-      <c s="3" r="Z37"/>
-      <c s="3" r="AA37"/>
-      <c s="3" r="AB37"/>
-      <c s="3" r="AC37"/>
+      <c s="5" r="W37"/>
+      <c s="2" r="X37"/>
+      <c s="2" r="Y37"/>
+      <c s="2" r="Z37"/>
+      <c s="2" r="AA37"/>
+      <c s="2" r="AB37"/>
+      <c s="2" r="AC37"/>
       <c s="3" r="AD37"/>
     </row>
     <row r="38">
@@ -12055,19 +12521,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J38">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c t="s" s="2" r="K38">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c t="s" s="2" r="L38">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c t="s" s="2" r="M38">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c t="s" s="2" r="N38">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c s="3" r="O38"/>
       <c s="3" r="Q38"/>
@@ -12076,13 +12542,6 @@
       <c s="3" r="T38"/>
       <c s="3" r="U38"/>
       <c s="3" r="V38"/>
-      <c s="3" r="W38"/>
-      <c s="3" r="X38"/>
-      <c s="3" r="Y38"/>
-      <c s="3" r="Z38"/>
-      <c s="3" r="AA38"/>
-      <c s="3" r="AB38"/>
-      <c s="3" r="AC38"/>
       <c s="3" r="AD38"/>
     </row>
     <row r="39">
@@ -12098,19 +12557,19 @@
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J39">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c t="s" s="2" r="K39">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c t="s" s="2" r="L39">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c t="s" s="2" r="M39">
-        <v>571</v>
+        <v>616</v>
       </c>
       <c t="s" s="2" r="N39">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c s="3" r="O39"/>
       <c s="3" r="Q39"/>
@@ -12125,7 +12584,7 @@
       <c s="3" r="Z39"/>
       <c s="3" r="AA39"/>
       <c s="3" r="AB39"/>
-      <c s="3" r="AC39"/>
+      <c s="2" r="AC39"/>
       <c s="3" r="AD39"/>
     </row>
     <row r="40">
@@ -12137,25 +12596,25 @@
       <c s="3" r="F40"/>
       <c s="3" r="G40"/>
       <c t="s" s="2" r="H40">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c s="5" r="I40">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J40">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c t="s" s="2" r="K40">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c t="s" s="2" r="L40">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c t="s" s="2" r="M40">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c t="s" s="2" r="N40">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c s="3" r="O40"/>
       <c s="3" r="Q40"/>
@@ -12178,43 +12637,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B41">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c t="s" s="2" r="C41">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c t="s" s="2" r="D41">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c t="s" s="2" r="E41">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c t="s" s="2" r="F41">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c t="s" s="2" r="G41">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c t="s" s="2" r="H41">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c s="5" r="I41">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J41">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c t="s" s="2" r="K41">
-        <v>587</v>
+        <v>632</v>
       </c>
       <c t="s" s="2" r="L41">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c t="s" s="2" r="M41">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c t="s" s="2" r="N41">
-        <v>590</v>
+        <v>635</v>
       </c>
       <c s="3" r="O41"/>
       <c s="3" r="Q41"/>
@@ -12237,43 +12696,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B42">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c t="s" s="2" r="C42">
-        <v>592</v>
+        <v>637</v>
       </c>
       <c t="s" s="2" r="D42">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c t="s" s="2" r="E42">
-        <v>594</v>
+        <v>639</v>
       </c>
       <c t="s" s="2" r="F42">
-        <v>595</v>
+        <v>640</v>
       </c>
       <c t="s" s="2" r="G42">
-        <v>596</v>
+        <v>641</v>
       </c>
       <c t="s" s="2" r="H42">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c s="5" r="I42">
         <v>41456.0</v>
       </c>
       <c t="s" s="2" r="J42">
-        <v>598</v>
+        <v>643</v>
       </c>
       <c t="s" s="2" r="K42">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c t="s" s="2" r="L42">
-        <v>600</v>
+        <v>645</v>
       </c>
       <c t="s" s="2" r="M42">
-        <v>601</v>
+        <v>646</v>
       </c>
       <c t="s" s="2" r="N42">
-        <v>602</v>
+        <v>647</v>
       </c>
       <c s="3" r="O42"/>
       <c s="3" r="Q42"/>
@@ -12296,43 +12755,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B43">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c t="s" s="2" r="C43">
-        <v>604</v>
+        <v>649</v>
       </c>
       <c t="s" s="2" r="D43">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c t="s" s="2" r="E43">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c t="s" s="2" r="F43">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c t="s" s="2" r="G43">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c t="s" s="2" r="H43">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c s="6" r="I43">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J43">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c t="s" s="2" r="K43">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c t="s" s="2" r="L43">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c t="s" s="2" r="M43">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c t="s" s="2" r="N43">
-        <v>614</v>
+        <v>659</v>
       </c>
       <c s="3" r="O43"/>
       <c s="3" r="P43"/>
@@ -12356,41 +12815,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B44">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c t="s" s="2" r="C44">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c t="s" s="2" r="D44">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c t="s" s="2" r="E44">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c t="s" s="2" r="F44">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c t="s" s="2" r="G44">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c s="3" r="H44"/>
       <c s="6" r="I44">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J44">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c t="s" s="2" r="K44">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c t="s" s="2" r="L44">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c t="s" s="2" r="M44">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c t="s" s="2" r="N44">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c s="3" r="O44"/>
       <c s="3" r="P44"/>
@@ -12414,41 +12873,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B45">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c t="s" s="2" r="C45">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c t="s" s="2" r="D45">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c t="s" s="2" r="E45">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c t="s" s="2" r="F45">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c t="s" s="2" r="G45">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c s="3" r="H45"/>
       <c s="6" r="I45">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J45">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c t="s" s="2" r="K45">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c t="s" s="2" r="L45">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c t="s" s="2" r="M45">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c t="s" s="2" r="N45">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c s="3" r="O45"/>
       <c s="3" r="P45"/>
@@ -12472,41 +12931,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B46">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c t="s" s="2" r="C46">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c t="s" s="2" r="D46">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c t="s" s="2" r="E46">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c t="s" s="2" r="F46">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c t="s" s="2" r="G46">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c s="3" r="H46"/>
       <c s="6" r="I46">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J46">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c t="s" s="2" r="K46">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c t="s" s="2" r="L46">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c t="s" s="2" r="M46">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c t="s" s="2" r="N46">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c s="3" r="O46"/>
       <c s="3" r="P46"/>
@@ -12530,43 +12989,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B47">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c t="s" s="2" r="C47">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c t="s" s="2" r="D47">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c t="s" s="2" r="E47">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c t="s" s="2" r="F47">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c t="s" s="2" r="G47">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c t="s" s="2" r="H47">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c s="6" r="I47">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J47">
-        <v>655</v>
+        <v>700</v>
       </c>
       <c t="s" s="2" r="K47">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c t="s" s="2" r="L47">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c t="s" s="2" r="M47">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c t="s" s="2" r="N47">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c s="3" r="O47"/>
       <c s="3" r="P47"/>
@@ -12590,43 +13049,43 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B48">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c t="s" s="2" r="C48">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c t="s" s="2" r="D48">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c t="s" s="2" r="E48">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c t="s" s="2" r="F48">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c t="s" s="2" r="G48">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c t="s" s="2" r="H48">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c s="6" r="I48">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J48">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c t="s" s="2" r="K48">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c t="s" s="2" r="L48">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c t="s" s="2" r="M48">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c t="s" s="2" r="N48">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c s="3" r="O48"/>
       <c s="3" r="P48"/>
@@ -12650,41 +13109,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B49">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c t="s" s="2" r="C49">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c t="s" s="2" r="D49">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c t="s" s="2" r="E49">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c t="s" s="2" r="F49">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c t="s" s="2" r="G49">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c s="3" r="H49"/>
       <c s="6" r="I49">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J49">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c t="s" s="2" r="K49">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c t="s" s="2" r="L49">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c t="s" s="2" r="M49">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c t="s" s="2" r="N49">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c s="3" r="O49"/>
       <c s="3" r="P49"/>
@@ -12708,41 +13167,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B50">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c t="s" s="2" r="C50">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c t="s" s="2" r="D50">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c t="s" s="2" r="E50">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c t="s" s="2" r="F50">
-        <v>687</v>
+        <v>732</v>
       </c>
       <c t="s" s="2" r="G50">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c s="3" r="H50"/>
       <c s="6" r="I50">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J50">
-        <v>689</v>
+        <v>734</v>
       </c>
       <c t="s" s="2" r="K50">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c t="s" s="2" r="L50">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c t="s" s="2" r="M50">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c t="s" s="2" r="N50">
-        <v>693</v>
+        <v>738</v>
       </c>
       <c s="3" r="O50"/>
       <c s="3" r="P50"/>
@@ -12766,41 +13225,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B51">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c t="s" s="2" r="C51">
-        <v>695</v>
+        <v>740</v>
       </c>
       <c t="s" s="2" r="D51">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c t="s" s="2" r="E51">
-        <v>697</v>
+        <v>742</v>
       </c>
       <c t="s" s="2" r="F51">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c t="s" s="2" r="G51">
-        <v>699</v>
+        <v>744</v>
       </c>
       <c s="3" r="H51"/>
       <c s="6" r="I51">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J51">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c t="s" s="2" r="K51">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c t="s" s="2" r="L51">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c t="s" s="2" r="M51">
-        <v>703</v>
+        <v>748</v>
       </c>
       <c t="s" s="2" r="N51">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c s="3" r="O51"/>
       <c s="3" r="P51"/>
@@ -12824,41 +13283,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B52">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c t="s" s="2" r="C52">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c t="s" s="2" r="D52">
-        <v>707</v>
+        <v>752</v>
       </c>
       <c t="s" s="2" r="E52">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c t="s" s="2" r="F52">
-        <v>709</v>
+        <v>754</v>
       </c>
       <c t="s" s="2" r="G52">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c s="3" r="H52"/>
       <c s="6" r="I52">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J52">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c t="s" s="2" r="K52">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c t="s" s="2" r="L52">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c t="s" s="2" r="M52">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c t="s" s="2" r="N52">
-        <v>715</v>
+        <v>760</v>
       </c>
       <c s="3" r="O52"/>
       <c s="3" r="P52"/>
@@ -12882,41 +13341,41 @@
         <v>41789.0</v>
       </c>
       <c t="s" s="2" r="B53">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c t="s" s="2" r="C53">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c t="s" s="2" r="D53">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c t="s" s="2" r="E53">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c t="s" s="2" r="F53">
-        <v>720</v>
+        <v>765</v>
       </c>
       <c t="s" s="2" r="G53">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c s="3" r="H53"/>
       <c s="6" r="I53">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J53">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c t="s" s="2" r="K53">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c t="s" s="2" r="L53">
-        <v>724</v>
+        <v>769</v>
       </c>
       <c t="s" s="2" r="M53">
-        <v>725</v>
+        <v>770</v>
       </c>
       <c t="s" s="2" r="N53">
-        <v>726</v>
+        <v>771</v>
       </c>
       <c s="3" r="O53"/>
       <c s="3" r="P53"/>
@@ -12942,25 +13401,25 @@
       <c s="3" r="F54"/>
       <c s="3" r="G54"/>
       <c t="s" s="2" r="H54">
-        <v>727</v>
+        <v>772</v>
       </c>
       <c s="6" r="I54">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J54">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c t="s" s="2" r="K54">
-        <v>729</v>
+        <v>774</v>
       </c>
       <c t="s" s="2" r="L54">
-        <v>730</v>
+        <v>775</v>
       </c>
       <c t="s" s="2" r="M54">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c t="s" s="2" r="N54">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c s="3" r="O54"/>
       <c s="3" r="P54"/>
@@ -12984,43 +13443,43 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B55">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c t="s" s="2" r="C55">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c t="s" s="2" r="D55">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c t="s" s="2" r="E55">
-        <v>736</v>
+        <v>781</v>
       </c>
       <c t="s" s="2" r="F55">
-        <v>737</v>
+        <v>782</v>
       </c>
       <c t="s" s="2" r="G55">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c t="s" s="2" r="H55">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c s="6" r="I55">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J55">
-        <v>740</v>
+        <v>785</v>
       </c>
       <c t="s" s="2" r="K55">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c t="s" s="2" r="L55">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c t="s" s="2" r="M55">
-        <v>743</v>
+        <v>788</v>
       </c>
       <c t="s" s="2" r="N55">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c s="3" r="O55"/>
       <c s="3" r="P55"/>
@@ -13044,43 +13503,43 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B56">
-        <v>745</v>
+        <v>790</v>
       </c>
       <c t="s" s="2" r="C56">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c t="s" s="2" r="D56">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c t="s" s="2" r="E56">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c t="s" s="2" r="F56">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c t="s" s="2" r="G56">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c t="s" s="2" r="H56">
-        <v>751</v>
+        <v>796</v>
       </c>
       <c s="6" r="I56">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J56">
-        <v>752</v>
+        <v>797</v>
       </c>
       <c t="s" s="2" r="K56">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c t="s" s="2" r="L56">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c t="s" s="2" r="M56">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c t="s" s="2" r="N56">
-        <v>756</v>
+        <v>801</v>
       </c>
       <c s="3" r="O56"/>
       <c s="3" r="P56"/>
@@ -13104,41 +13563,41 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B57">
-        <v>757</v>
+        <v>802</v>
       </c>
       <c t="s" s="2" r="C57">
-        <v>758</v>
+        <v>803</v>
       </c>
       <c t="s" s="2" r="D57">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c t="s" s="2" r="E57">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c t="s" s="2" r="F57">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c t="s" s="2" r="G57">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c s="3" r="H57"/>
       <c s="6" r="I57">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J57">
-        <v>763</v>
+        <v>808</v>
       </c>
       <c t="s" s="2" r="K57">
-        <v>764</v>
+        <v>809</v>
       </c>
       <c t="s" s="2" r="L57">
-        <v>765</v>
+        <v>810</v>
       </c>
       <c t="s" s="2" r="M57">
-        <v>766</v>
+        <v>811</v>
       </c>
       <c t="s" s="2" r="N57">
-        <v>767</v>
+        <v>812</v>
       </c>
       <c s="3" r="O57"/>
       <c s="3" r="P57"/>
@@ -13162,41 +13621,41 @@
         <v>41792.0</v>
       </c>
       <c t="s" s="2" r="B58">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c t="s" s="2" r="C58">
-        <v>769</v>
+        <v>814</v>
       </c>
       <c t="s" s="2" r="D58">
-        <v>770</v>
+        <v>815</v>
       </c>
       <c t="s" s="2" r="E58">
-        <v>771</v>
+        <v>816</v>
       </c>
       <c t="s" s="2" r="F58">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c t="s" s="2" r="G58">
-        <v>773</v>
+        <v>818</v>
       </c>
       <c s="3" r="H58"/>
       <c s="6" r="I58">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J58">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c t="s" s="2" r="K58">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c t="s" s="2" r="L58">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c t="s" s="2" r="M58">
-        <v>777</v>
+        <v>822</v>
       </c>
       <c t="s" s="2" r="N58">
-        <v>778</v>
+        <v>823</v>
       </c>
       <c s="3" r="O58"/>
       <c s="3" r="P58"/>
@@ -13227,19 +13686,19 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J59">
-        <v>779</v>
+        <v>824</v>
       </c>
       <c t="s" s="2" r="K59">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c t="s" s="2" r="L59">
-        <v>781</v>
+        <v>826</v>
       </c>
       <c t="s" s="2" r="M59">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c t="s" s="2" r="N59">
-        <v>783</v>
+        <v>828</v>
       </c>
       <c s="3" r="O59"/>
       <c s="3" r="P59"/>
@@ -13263,19 +13722,19 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J60">
-        <v>784</v>
+        <v>829</v>
       </c>
       <c t="s" s="2" r="K60">
-        <v>785</v>
+        <v>830</v>
       </c>
       <c t="s" s="2" r="L60">
-        <v>786</v>
+        <v>831</v>
       </c>
       <c t="s" s="2" r="M60">
-        <v>787</v>
+        <v>832</v>
       </c>
       <c t="s" s="2" r="N60">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c s="3" r="O60"/>
       <c s="3" r="P60"/>
@@ -13299,19 +13758,19 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J61">
-        <v>789</v>
+        <v>834</v>
       </c>
       <c t="s" s="2" r="K61">
-        <v>790</v>
+        <v>835</v>
       </c>
       <c t="s" s="2" r="L61">
-        <v>791</v>
+        <v>836</v>
       </c>
       <c t="s" s="2" r="M61">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c t="s" s="2" r="N61">
-        <v>793</v>
+        <v>838</v>
       </c>
       <c s="3" r="O61"/>
       <c s="3" r="P61"/>
@@ -13335,19 +13794,19 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J62">
-        <v>794</v>
+        <v>839</v>
       </c>
       <c t="s" s="2" r="K62">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c t="s" s="2" r="L62">
-        <v>796</v>
+        <v>841</v>
       </c>
       <c t="s" s="2" r="M62">
-        <v>797</v>
+        <v>842</v>
       </c>
       <c t="s" s="2" r="N62">
-        <v>798</v>
+        <v>843</v>
       </c>
       <c s="3" r="O62"/>
       <c s="3" r="P62"/>
@@ -13372,19 +13831,19 @@
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J63">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c t="s" s="2" r="K63">
-        <v>800</v>
+        <v>845</v>
       </c>
       <c t="s" s="2" r="L63">
-        <v>801</v>
+        <v>846</v>
       </c>
       <c t="s" s="2" r="M63">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c t="s" s="2" r="N63">
-        <v>803</v>
+        <v>848</v>
       </c>
       <c s="3" r="O63"/>
       <c s="3" r="P63"/>
@@ -13408,41 +13867,41 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B64">
-        <v>804</v>
+        <v>849</v>
       </c>
       <c t="s" s="2" r="C64">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c t="s" s="2" r="D64">
-        <v>806</v>
+        <v>851</v>
       </c>
       <c t="s" s="7" r="E64">
-        <v>807</v>
+        <v>852</v>
       </c>
       <c t="s" s="2" r="F64">
-        <v>808</v>
+        <v>853</v>
       </c>
       <c t="s" s="2" r="G64">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c s="3" r="H64"/>
       <c s="6" r="I64">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J64">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c t="s" s="2" r="K64">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c t="s" s="2" r="L64">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c t="s" s="2" r="M64">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c t="s" s="2" r="N64">
-        <v>814</v>
+        <v>859</v>
       </c>
       <c s="3" r="O64"/>
       <c s="3" r="P64"/>
@@ -13466,43 +13925,43 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B65">
-        <v>815</v>
+        <v>860</v>
       </c>
       <c t="s" s="2" r="C65">
-        <v>816</v>
+        <v>861</v>
       </c>
       <c t="s" s="2" r="D65">
-        <v>817</v>
+        <v>862</v>
       </c>
       <c t="s" s="7" r="E65">
-        <v>818</v>
+        <v>863</v>
       </c>
       <c t="s" s="2" r="F65">
-        <v>819</v>
+        <v>864</v>
       </c>
       <c t="s" s="2" r="G65">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c t="s" s="2" r="H65">
-        <v>821</v>
+        <v>866</v>
       </c>
       <c s="6" r="I65">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J65">
-        <v>822</v>
+        <v>867</v>
       </c>
       <c t="s" s="2" r="K65">
-        <v>823</v>
+        <v>868</v>
       </c>
       <c t="s" s="2" r="L65">
-        <v>824</v>
+        <v>869</v>
       </c>
       <c t="s" s="2" r="M65">
-        <v>825</v>
+        <v>870</v>
       </c>
       <c t="s" s="2" r="N65">
-        <v>826</v>
+        <v>871</v>
       </c>
       <c s="3" r="O65"/>
       <c s="3" r="P65"/>
@@ -13526,41 +13985,41 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B66">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c t="s" s="2" r="C66">
-        <v>828</v>
+        <v>873</v>
       </c>
       <c t="s" s="2" r="D66">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c t="s" s="7" r="E66">
-        <v>830</v>
+        <v>875</v>
       </c>
       <c t="s" s="2" r="F66">
-        <v>831</v>
+        <v>876</v>
       </c>
       <c t="s" s="2" r="G66">
-        <v>832</v>
+        <v>877</v>
       </c>
       <c s="3" r="H66"/>
       <c s="6" r="I66">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J66">
-        <v>833</v>
+        <v>878</v>
       </c>
       <c t="s" s="2" r="K66">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c t="s" s="2" r="L66">
-        <v>835</v>
+        <v>880</v>
       </c>
       <c t="s" s="2" r="M66">
-        <v>836</v>
+        <v>881</v>
       </c>
       <c t="s" s="2" r="N66">
-        <v>837</v>
+        <v>882</v>
       </c>
       <c s="3" r="O66"/>
       <c s="3" r="P66"/>
@@ -13584,43 +14043,43 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B67">
-        <v>838</v>
+        <v>883</v>
       </c>
       <c t="s" s="2" r="C67">
-        <v>839</v>
+        <v>884</v>
       </c>
       <c t="s" s="2" r="D67">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c t="s" s="7" r="E67">
-        <v>841</v>
+        <v>886</v>
       </c>
       <c t="s" s="4" r="F67">
-        <v>842</v>
+        <v>887</v>
       </c>
       <c t="s" s="4" r="G67">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c t="s" s="2" r="H67">
-        <v>844</v>
+        <v>889</v>
       </c>
       <c s="6" r="I67">
         <v>41466.0</v>
       </c>
       <c t="s" s="2" r="J67">
-        <v>845</v>
+        <v>890</v>
       </c>
       <c t="s" s="2" r="K67">
-        <v>846</v>
+        <v>891</v>
       </c>
       <c t="s" s="2" r="L67">
-        <v>847</v>
+        <v>892</v>
       </c>
       <c t="s" s="2" r="M67">
-        <v>848</v>
+        <v>893</v>
       </c>
       <c t="s" s="2" r="N67">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c s="3" r="O67"/>
       <c s="3" r="P67"/>
@@ -13644,41 +14103,47 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B68">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c t="s" s="7" r="C68">
-        <v>851</v>
+        <v>896</v>
       </c>
       <c t="s" s="2" r="D68">
-        <v>852</v>
+        <v>897</v>
       </c>
       <c t="s" s="7" r="E68">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c t="s" s="2" r="F68">
-        <v>854</v>
+        <v>899</v>
       </c>
       <c t="s" s="2" r="G68">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c t="s" s="2" r="H68">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c s="6" r="I68">
-        <v>41466.0</v>
+        <v>41468.0</v>
       </c>
       <c t="s" s="2" r="J68">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c t="s" s="2" r="K68">
-        <v>858</v>
+        <v>903</v>
       </c>
       <c t="s" s="2" r="L68">
-        <v>859</v>
-      </c>
-      <c s="3" r="M68"/>
-      <c s="3" r="N68"/>
-      <c s="3" r="O68"/>
+        <v>904</v>
+      </c>
+      <c t="s" s="2" r="M68">
+        <v>905</v>
+      </c>
+      <c t="s" s="2" r="N68">
+        <v>906</v>
+      </c>
+      <c t="s" s="2" r="O68">
+        <v>907</v>
+      </c>
       <c s="3" r="P68"/>
       <c s="3" r="Q68"/>
       <c s="3" r="R68"/>
@@ -13700,36 +14165,28 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B69">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c t="s" s="2" r="C69">
-        <v>861</v>
+        <v>909</v>
       </c>
       <c t="s" s="2" r="D69">
-        <v>862</v>
+        <v>910</v>
       </c>
       <c t="s" s="7" r="E69">
-        <v>863</v>
+        <v>911</v>
       </c>
       <c t="s" s="2" r="F69">
-        <v>864</v>
+        <v>912</v>
       </c>
       <c t="s" s="2" r="G69">
-        <v>865</v>
+        <v>913</v>
       </c>
       <c s="3" r="H69"/>
-      <c s="6" r="I69">
-        <v>41466.0</v>
-      </c>
-      <c t="s" s="2" r="J69">
-        <v>866</v>
-      </c>
-      <c t="s" s="2" r="K69">
-        <v>867</v>
-      </c>
-      <c t="s" s="2" r="L69">
-        <v>868</v>
-      </c>
+      <c s="6" r="I69"/>
+      <c s="2" r="J69"/>
+      <c s="2" r="K69"/>
+      <c s="2" r="L69"/>
       <c s="3" r="M69"/>
       <c s="3" r="N69"/>
       <c s="3" r="O69"/>
@@ -13754,22 +14211,22 @@
         <v>41795.0</v>
       </c>
       <c t="s" s="2" r="B70">
-        <v>869</v>
+        <v>914</v>
       </c>
       <c t="s" s="2" r="C70">
-        <v>870</v>
+        <v>915</v>
       </c>
       <c t="s" s="2" r="D70">
-        <v>871</v>
+        <v>916</v>
       </c>
       <c t="s" s="7" r="E70">
-        <v>872</v>
+        <v>917</v>
       </c>
       <c t="s" s="2" r="F70">
-        <v>873</v>
+        <v>918</v>
       </c>
       <c t="s" s="2" r="G70">
-        <v>874</v>
+        <v>919</v>
       </c>
       <c s="3" r="H70"/>
       <c s="3" r="I70"/>
@@ -13824,7 +14281,7 @@
     </row>
     <row r="72">
       <c t="s" s="7" r="A72">
-        <v>875</v>
+        <v>920</v>
       </c>
       <c s="3" r="B72"/>
       <c s="3" r="C72"/>
@@ -13833,7 +14290,7 @@
       <c s="3" r="F72"/>
       <c s="3" r="G72"/>
       <c t="s" s="2" r="H72">
-        <v>876</v>
+        <v>921</v>
       </c>
       <c s="3" r="I72"/>
       <c s="3" r="J72"/>
@@ -13863,25 +14320,25 @@
         <v>41796.0</v>
       </c>
       <c t="s" s="2" r="B73">
-        <v>877</v>
+        <v>922</v>
       </c>
       <c t="s" s="2" r="C73">
-        <v>878</v>
+        <v>923</v>
       </c>
       <c t="s" s="2" r="D73">
-        <v>879</v>
+        <v>924</v>
       </c>
       <c t="s" s="2" r="E73">
-        <v>880</v>
+        <v>925</v>
       </c>
       <c t="s" s="2" r="F73">
-        <v>881</v>
+        <v>926</v>
       </c>
       <c t="s" s="2" r="G73">
-        <v>882</v>
+        <v>927</v>
       </c>
       <c t="s" s="2" r="H73">
-        <v>883</v>
+        <v>928</v>
       </c>
       <c s="3" r="I73"/>
       <c s="3" r="J73"/>
@@ -13911,28 +14368,28 @@
         <v>41796.0</v>
       </c>
       <c t="s" s="2" r="B74">
-        <v>884</v>
+        <v>929</v>
       </c>
       <c t="s" s="2" r="C74">
-        <v>885</v>
+        <v>930</v>
       </c>
       <c t="s" s="2" r="D74">
-        <v>886</v>
+        <v>931</v>
       </c>
       <c t="s" s="2" r="E74">
-        <v>887</v>
+        <v>932</v>
       </c>
       <c t="s" s="2" r="F74">
-        <v>888</v>
+        <v>933</v>
       </c>
       <c t="s" s="2" r="G74">
-        <v>889</v>
+        <v>934</v>
       </c>
       <c t="s" s="2" r="H74">
-        <v>890</v>
+        <v>935</v>
       </c>
       <c t="s" s="2" r="I74">
-        <v>891</v>
+        <v>936</v>
       </c>
       <c s="3" r="J74"/>
       <c s="3" r="K74"/>
@@ -13961,25 +14418,25 @@
         <v>41799.0</v>
       </c>
       <c t="s" s="2" r="B75">
-        <v>892</v>
+        <v>937</v>
       </c>
       <c t="s" s="2" r="C75">
-        <v>893</v>
+        <v>938</v>
       </c>
       <c t="s" s="2" r="D75">
-        <v>894</v>
+        <v>939</v>
       </c>
       <c t="s" s="2" r="E75">
-        <v>895</v>
+        <v>940</v>
       </c>
       <c t="s" s="2" r="F75">
-        <v>896</v>
+        <v>941</v>
       </c>
       <c t="s" s="2" r="G75">
-        <v>897</v>
+        <v>942</v>
       </c>
       <c t="s" s="2" r="H75">
-        <v>898</v>
+        <v>943</v>
       </c>
       <c s="3" r="I75"/>
       <c s="3" r="J75"/>
@@ -14009,25 +14466,25 @@
         <v>41799.0</v>
       </c>
       <c t="s" s="2" r="B76">
-        <v>899</v>
+        <v>944</v>
       </c>
       <c t="s" s="2" r="C76">
-        <v>900</v>
+        <v>945</v>
       </c>
       <c t="s" s="2" r="D76">
-        <v>901</v>
+        <v>946</v>
       </c>
       <c t="s" s="2" r="E76">
-        <v>902</v>
+        <v>947</v>
       </c>
       <c t="s" s="2" r="F76">
-        <v>903</v>
+        <v>948</v>
       </c>
       <c t="s" s="2" r="G76">
-        <v>904</v>
+        <v>949</v>
       </c>
       <c t="s" s="2" r="H76">
-        <v>905</v>
+        <v>950</v>
       </c>
       <c s="3" r="I76"/>
       <c s="3" r="J76"/>
@@ -14057,22 +14514,22 @@
         <v>41799.0</v>
       </c>
       <c t="s" s="2" r="B77">
-        <v>906</v>
+        <v>951</v>
       </c>
       <c t="s" s="2" r="C77">
-        <v>907</v>
+        <v>952</v>
       </c>
       <c t="s" s="2" r="D77">
-        <v>908</v>
+        <v>953</v>
       </c>
       <c t="s" s="2" r="E77">
-        <v>909</v>
+        <v>954</v>
       </c>
       <c t="s" s="2" r="F77">
-        <v>910</v>
+        <v>955</v>
       </c>
       <c t="s" s="2" r="G77">
-        <v>911</v>
+        <v>956</v>
       </c>
       <c s="3" r="H77"/>
       <c s="3" r="I77"/>
@@ -14186,7 +14643,7 @@
     </row>
     <row r="81">
       <c t="s" s="2" r="A81">
-        <v>912</v>
+        <v>957</v>
       </c>
       <c s="3" r="B81"/>
       <c s="3" r="C81"/>
@@ -14195,7 +14652,7 @@
       <c s="3" r="F81"/>
       <c s="3" r="G81"/>
       <c t="s" s="2" r="H81">
-        <v>913</v>
+        <v>958</v>
       </c>
       <c s="3" r="I81"/>
       <c s="3" r="J81"/>
@@ -14225,22 +14682,22 @@
         <v>41802.0</v>
       </c>
       <c t="s" s="2" r="B82">
-        <v>914</v>
+        <v>959</v>
       </c>
       <c t="s" s="2" r="C82">
-        <v>915</v>
+        <v>960</v>
       </c>
       <c t="s" s="2" r="D82">
-        <v>916</v>
+        <v>961</v>
       </c>
       <c t="s" s="2" r="E82">
-        <v>917</v>
+        <v>962</v>
       </c>
       <c t="s" s="2" r="F82">
-        <v>918</v>
+        <v>963</v>
       </c>
       <c t="s" s="2" r="G82">
-        <v>919</v>
+        <v>964</v>
       </c>
       <c s="2" r="H82"/>
       <c s="2" r="I82"/>
@@ -14271,22 +14728,22 @@
         <v>41802.0</v>
       </c>
       <c t="s" s="2" r="B83">
-        <v>920</v>
+        <v>965</v>
       </c>
       <c t="s" s="2" r="C83">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c t="s" s="2" r="D83">
-        <v>922</v>
+        <v>967</v>
       </c>
       <c t="s" s="2" r="E83">
-        <v>923</v>
+        <v>968</v>
       </c>
       <c t="s" s="2" r="F83">
-        <v>924</v>
+        <v>969</v>
       </c>
       <c t="s" s="2" r="G83">
-        <v>925</v>
+        <v>970</v>
       </c>
       <c s="2" r="H83"/>
       <c s="3" r="I83"/>
@@ -14317,25 +14774,25 @@
         <v>41802.0</v>
       </c>
       <c t="s" s="2" r="B84">
-        <v>926</v>
+        <v>971</v>
       </c>
       <c t="s" s="2" r="C84">
-        <v>927</v>
+        <v>972</v>
       </c>
       <c t="s" s="2" r="D84">
-        <v>928</v>
+        <v>973</v>
       </c>
       <c t="s" s="2" r="E84">
-        <v>929</v>
+        <v>974</v>
       </c>
       <c t="s" s="2" r="F84">
-        <v>930</v>
+        <v>975</v>
       </c>
       <c t="s" s="2" r="G84">
-        <v>931</v>
+        <v>976</v>
       </c>
       <c t="s" s="2" r="H84">
-        <v>932</v>
+        <v>977</v>
       </c>
       <c s="3" r="I84"/>
       <c s="3" r="J84"/>
@@ -14365,22 +14822,22 @@
         <v>41807.0</v>
       </c>
       <c t="s" s="2" r="B85">
-        <v>933</v>
+        <v>978</v>
       </c>
       <c t="s" s="2" r="C85">
-        <v>934</v>
+        <v>979</v>
       </c>
       <c t="s" s="2" r="D85">
-        <v>935</v>
+        <v>980</v>
       </c>
       <c t="s" s="2" r="E85">
-        <v>936</v>
+        <v>981</v>
       </c>
       <c t="s" s="2" r="F85">
-        <v>937</v>
+        <v>982</v>
       </c>
       <c t="s" s="2" r="G85">
-        <v>938</v>
+        <v>983</v>
       </c>
       <c s="2" r="H85"/>
       <c s="3" r="I85"/>
@@ -14411,22 +14868,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B86">
-        <v>939</v>
+        <v>984</v>
       </c>
       <c t="s" s="2" r="C86">
-        <v>940</v>
+        <v>985</v>
       </c>
       <c t="s" s="2" r="D86">
-        <v>941</v>
+        <v>986</v>
       </c>
       <c t="s" s="2" r="E86">
-        <v>942</v>
+        <v>987</v>
       </c>
       <c t="s" s="2" r="F86">
-        <v>943</v>
+        <v>988</v>
       </c>
       <c t="s" s="2" r="G86">
-        <v>944</v>
+        <v>989</v>
       </c>
       <c s="3" r="H86"/>
       <c s="3" r="I86"/>
@@ -14457,22 +14914,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B87">
-        <v>945</v>
+        <v>990</v>
       </c>
       <c t="s" s="2" r="C87">
-        <v>946</v>
+        <v>991</v>
       </c>
       <c t="s" s="2" r="D87">
-        <v>947</v>
+        <v>992</v>
       </c>
       <c t="s" s="2" r="E87">
-        <v>948</v>
+        <v>993</v>
       </c>
       <c t="s" s="2" r="F87">
-        <v>949</v>
+        <v>994</v>
       </c>
       <c t="s" s="2" r="G87">
-        <v>950</v>
+        <v>995</v>
       </c>
       <c s="3" r="H87"/>
       <c s="3" r="I87"/>
@@ -14503,25 +14960,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B88">
-        <v>951</v>
+        <v>996</v>
       </c>
       <c t="s" s="2" r="C88">
-        <v>952</v>
+        <v>997</v>
       </c>
       <c t="s" s="2" r="D88">
-        <v>953</v>
+        <v>998</v>
       </c>
       <c t="s" s="2" r="E88">
-        <v>954</v>
+        <v>999</v>
       </c>
       <c t="s" s="2" r="F88">
-        <v>955</v>
+        <v>1000</v>
       </c>
       <c t="s" s="2" r="G88">
-        <v>956</v>
+        <v>1001</v>
       </c>
       <c t="s" s="2" r="H88">
-        <v>957</v>
+        <v>1002</v>
       </c>
       <c s="3" r="I88"/>
       <c s="3" r="J88"/>
@@ -14551,22 +15008,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B89">
-        <v>958</v>
+        <v>1003</v>
       </c>
       <c t="s" s="2" r="C89">
-        <v>959</v>
+        <v>1004</v>
       </c>
       <c t="s" s="2" r="D89">
-        <v>960</v>
+        <v>1005</v>
       </c>
       <c t="s" s="2" r="E89">
-        <v>961</v>
+        <v>1006</v>
       </c>
       <c t="s" s="2" r="F89">
-        <v>962</v>
+        <v>1007</v>
       </c>
       <c t="s" s="2" r="G89">
-        <v>963</v>
+        <v>1008</v>
       </c>
       <c s="3" r="H89"/>
       <c s="2" r="I89"/>
@@ -14597,22 +15054,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B90">
-        <v>964</v>
+        <v>1009</v>
       </c>
       <c t="s" s="2" r="C90">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c t="s" s="2" r="D90">
-        <v>966</v>
+        <v>1011</v>
       </c>
       <c t="s" s="2" r="E90">
-        <v>967</v>
+        <v>1012</v>
       </c>
       <c t="s" s="2" r="F90">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c t="s" s="2" r="G90">
-        <v>969</v>
+        <v>1014</v>
       </c>
       <c s="3" r="H90"/>
       <c s="3" r="I90"/>
@@ -14643,22 +15100,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B91">
-        <v>970</v>
+        <v>1015</v>
       </c>
       <c t="s" s="2" r="C91">
-        <v>971</v>
+        <v>1016</v>
       </c>
       <c t="s" s="2" r="D91">
-        <v>972</v>
+        <v>1017</v>
       </c>
       <c t="s" s="2" r="E91">
-        <v>973</v>
+        <v>1018</v>
       </c>
       <c t="s" s="2" r="F91">
-        <v>974</v>
+        <v>1019</v>
       </c>
       <c t="s" s="2" r="G91">
-        <v>975</v>
+        <v>1020</v>
       </c>
       <c s="3" r="H91"/>
       <c s="3" r="I91"/>
@@ -14689,22 +15146,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B92">
-        <v>976</v>
+        <v>1021</v>
       </c>
       <c t="s" s="2" r="C92">
-        <v>977</v>
+        <v>1022</v>
       </c>
       <c t="s" s="2" r="D92">
-        <v>978</v>
+        <v>1023</v>
       </c>
       <c t="s" s="2" r="E92">
-        <v>979</v>
+        <v>1024</v>
       </c>
       <c t="s" s="2" r="F92">
-        <v>980</v>
+        <v>1025</v>
       </c>
       <c t="s" s="2" r="G92">
-        <v>981</v>
+        <v>1026</v>
       </c>
       <c s="3" r="H92"/>
       <c s="3" r="I92"/>
@@ -14735,22 +15192,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B93">
-        <v>982</v>
+        <v>1027</v>
       </c>
       <c t="s" s="2" r="C93">
-        <v>983</v>
+        <v>1028</v>
       </c>
       <c t="s" s="2" r="D93">
-        <v>984</v>
+        <v>1029</v>
       </c>
       <c t="s" s="2" r="E93">
-        <v>985</v>
+        <v>1030</v>
       </c>
       <c t="s" s="2" r="F93">
-        <v>986</v>
+        <v>1031</v>
       </c>
       <c t="s" s="2" r="G93">
-        <v>987</v>
+        <v>1032</v>
       </c>
       <c s="3" r="H93"/>
       <c s="3" r="I93"/>
@@ -14781,25 +15238,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B94">
-        <v>988</v>
+        <v>1033</v>
       </c>
       <c t="s" s="2" r="C94">
-        <v>989</v>
+        <v>1034</v>
       </c>
       <c t="s" s="2" r="D94">
-        <v>990</v>
+        <v>1035</v>
       </c>
       <c t="s" s="2" r="E94">
-        <v>991</v>
+        <v>1036</v>
       </c>
       <c t="s" s="2" r="F94">
-        <v>992</v>
+        <v>1037</v>
       </c>
       <c t="s" s="2" r="G94">
-        <v>993</v>
+        <v>1038</v>
       </c>
       <c t="s" s="2" r="H94">
-        <v>994</v>
+        <v>1039</v>
       </c>
       <c s="3" r="I94"/>
       <c s="3" r="J94"/>
@@ -14829,22 +15286,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B95">
-        <v>995</v>
+        <v>1040</v>
       </c>
       <c t="s" s="2" r="C95">
-        <v>996</v>
+        <v>1041</v>
       </c>
       <c t="s" s="2" r="D95">
-        <v>997</v>
+        <v>1042</v>
       </c>
       <c t="s" s="2" r="E95">
-        <v>998</v>
+        <v>1043</v>
       </c>
       <c t="s" s="2" r="F95">
-        <v>999</v>
+        <v>1044</v>
       </c>
       <c t="s" s="2" r="G95">
-        <v>1000</v>
+        <v>1045</v>
       </c>
       <c s="3" r="H95"/>
       <c s="3" r="I95"/>
@@ -14875,22 +15332,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B96">
-        <v>1001</v>
+        <v>1046</v>
       </c>
       <c t="s" s="2" r="C96">
-        <v>1002</v>
+        <v>1047</v>
       </c>
       <c t="s" s="2" r="D96">
-        <v>1003</v>
+        <v>1048</v>
       </c>
       <c t="s" s="2" r="E96">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c t="s" s="2" r="F96">
-        <v>1005</v>
+        <v>1050</v>
       </c>
       <c t="s" s="2" r="G96">
-        <v>1006</v>
+        <v>1051</v>
       </c>
       <c s="3" r="H96"/>
       <c s="3" r="I96"/>
@@ -14921,22 +15378,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B97">
-        <v>1007</v>
+        <v>1052</v>
       </c>
       <c t="s" s="2" r="C97">
-        <v>1008</v>
+        <v>1053</v>
       </c>
       <c t="s" s="2" r="D97">
-        <v>1009</v>
+        <v>1054</v>
       </c>
       <c t="s" s="2" r="E97">
-        <v>1010</v>
+        <v>1055</v>
       </c>
       <c t="s" s="2" r="F97">
-        <v>1011</v>
+        <v>1056</v>
       </c>
       <c t="s" s="2" r="G97">
-        <v>1012</v>
+        <v>1057</v>
       </c>
       <c s="3" r="H97"/>
       <c s="3" r="I97"/>
@@ -15031,25 +15488,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B100">
-        <v>1013</v>
+        <v>1058</v>
       </c>
       <c t="s" s="2" r="C100">
-        <v>1014</v>
+        <v>1059</v>
       </c>
       <c t="s" s="2" r="D100">
-        <v>1015</v>
+        <v>1060</v>
       </c>
       <c t="s" s="2" r="E100">
-        <v>1016</v>
+        <v>1061</v>
       </c>
       <c t="s" s="2" r="F100">
-        <v>1017</v>
+        <v>1062</v>
       </c>
       <c t="s" s="2" r="G100">
-        <v>1018</v>
+        <v>1063</v>
       </c>
       <c t="s" s="2" r="H100">
-        <v>1019</v>
+        <v>1064</v>
       </c>
       <c s="3" r="I100"/>
       <c s="3" r="J100"/>
@@ -15079,22 +15536,22 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B101">
-        <v>1020</v>
+        <v>1065</v>
       </c>
       <c t="s" s="2" r="C101">
-        <v>1021</v>
+        <v>1066</v>
       </c>
       <c t="s" s="2" r="D101">
-        <v>1022</v>
+        <v>1067</v>
       </c>
       <c t="s" s="2" r="E101">
-        <v>1023</v>
+        <v>1068</v>
       </c>
       <c t="s" s="2" r="F101">
-        <v>1024</v>
+        <v>1069</v>
       </c>
       <c t="s" s="2" r="G101">
-        <v>1025</v>
+        <v>1070</v>
       </c>
       <c s="3" r="H101"/>
       <c s="3" r="I101"/>
@@ -15125,25 +15582,25 @@
         <v>41803.0</v>
       </c>
       <c t="s" s="2" r="B102">
-        <v>1026</v>
+        <v>1071</v>
       </c>
       <c t="s" s="2" r="C102">
-        <v>1027</v>
+        <v>1072</v>
       </c>
       <c t="s" s="2" r="D102">
-        <v>1028</v>
+        <v>1073</v>
       </c>
       <c t="s" s="2" r="E102">
-        <v>1029</v>
+        <v>1074</v>
       </c>
       <c t="s" s="2" r="F102">
-        <v>1030</v>
+        <v>1075</v>
       </c>
       <c t="s" s="2" r="G102">
-        <v>1031</v>
+        <v>1076</v>
       </c>
       <c t="s" s="2" r="H102">
-        <v>1032</v>
+        <v>1077</v>
       </c>
       <c s="3" r="I102"/>
       <c s="3" r="J102"/>
@@ -15173,22 +15630,22 @@
         <v>41806.0</v>
       </c>
       <c t="s" s="2" r="B103">
-        <v>1033</v>
+        <v>1078</v>
       </c>
       <c t="s" s="2" r="C103">
-        <v>1034</v>
+        <v>1079</v>
       </c>
       <c t="s" s="2" r="D103">
-        <v>1035</v>
+        <v>1080</v>
       </c>
       <c t="s" s="2" r="E103">
-        <v>1036</v>
+        <v>1081</v>
       </c>
       <c t="s" s="2" r="F103">
-        <v>1037</v>
+        <v>1082</v>
       </c>
       <c t="s" s="2" r="G103">
-        <v>1038</v>
+        <v>1083</v>
       </c>
       <c s="3" r="H103"/>
       <c s="3" r="I103"/>
@@ -15223,7 +15680,7 @@
       <c s="3" r="F104"/>
       <c s="3" r="G104"/>
       <c t="s" s="2" r="H104">
-        <v>1039</v>
+        <v>1084</v>
       </c>
       <c s="3" r="I104"/>
       <c s="3" r="J104"/>
@@ -15253,22 +15710,22 @@
         <v>41806.0</v>
       </c>
       <c t="s" s="2" r="B105">
-        <v>1040</v>
+        <v>1085</v>
       </c>
       <c t="s" s="2" r="C105">
-        <v>1041</v>
+        <v>1086</v>
       </c>
       <c t="s" s="2" r="D105">
-        <v>1042</v>
+        <v>1087</v>
       </c>
       <c t="s" s="2" r="E105">
-        <v>1043</v>
+        <v>1088</v>
       </c>
       <c t="s" s="2" r="F105">
-        <v>1044</v>
+        <v>1089</v>
       </c>
       <c t="s" s="2" r="G105">
-        <v>1045</v>
+        <v>1090</v>
       </c>
       <c s="3" r="H105"/>
       <c s="3" r="I105"/>
@@ -15302,7 +15759,7 @@
       <c s="3" r="E106"/>
       <c s="2" r="F106"/>
       <c t="s" s="2" r="H106">
-        <v>1046</v>
+        <v>1091</v>
       </c>
       <c s="3" r="I106"/>
       <c s="3" r="J106"/>
@@ -15332,22 +15789,22 @@
         <v>41806.0</v>
       </c>
       <c t="s" s="2" r="B107">
-        <v>1047</v>
+        <v>1092</v>
       </c>
       <c t="s" s="2" r="C107">
-        <v>1048</v>
+        <v>1093</v>
       </c>
       <c t="s" s="2" r="D107">
-        <v>1049</v>
+        <v>1094</v>
       </c>
       <c t="s" s="2" r="E107">
-        <v>1050</v>
+        <v>1095</v>
       </c>
       <c t="s" s="2" r="F107">
-        <v>1051</v>
+        <v>1096</v>
       </c>
       <c t="s" s="2" r="G107">
-        <v>1052</v>
+        <v>1097</v>
       </c>
       <c s="3" r="H107"/>
       <c s="3" r="I107"/>
@@ -15382,7 +15839,7 @@
       <c s="3" r="F108"/>
       <c s="3" r="G108"/>
       <c t="s" s="2" r="H108">
-        <v>1053</v>
+        <v>1098</v>
       </c>
       <c s="3" r="I108"/>
       <c s="3" r="J108"/>
@@ -15412,25 +15869,25 @@
         <v>41807.0</v>
       </c>
       <c t="s" s="2" r="B109">
-        <v>1054</v>
+        <v>1099</v>
       </c>
       <c t="s" s="2" r="C109">
-        <v>1055</v>
+        <v>1100</v>
       </c>
       <c t="s" s="2" r="D109">
-        <v>1056</v>
+        <v>1101</v>
       </c>
       <c t="s" s="2" r="E109">
-        <v>1057</v>
+        <v>1102</v>
       </c>
       <c t="s" s="2" r="F109">
-        <v>1058</v>
+        <v>1103</v>
       </c>
       <c t="s" s="2" r="G109">
-        <v>1059</v>
+        <v>1104</v>
       </c>
       <c t="s" s="2" r="H109">
-        <v>1060</v>
+        <v>1105</v>
       </c>
       <c s="3" r="I109"/>
       <c s="3" r="J109"/>
@@ -15460,22 +15917,22 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B110">
-        <v>1061</v>
+        <v>1106</v>
       </c>
       <c t="s" s="2" r="C110">
-        <v>1062</v>
+        <v>1107</v>
       </c>
       <c t="s" s="2" r="D110">
-        <v>1063</v>
+        <v>1108</v>
       </c>
       <c t="s" s="2" r="E110">
-        <v>1064</v>
+        <v>1109</v>
       </c>
       <c t="s" s="2" r="F110">
-        <v>1065</v>
+        <v>1110</v>
       </c>
       <c t="s" s="2" r="G110">
-        <v>1066</v>
+        <v>1111</v>
       </c>
       <c s="3" r="H110"/>
       <c s="3" r="I110"/>
@@ -15510,7 +15967,7 @@
       <c s="3" r="F111"/>
       <c s="3" r="G111"/>
       <c t="s" s="2" r="H111">
-        <v>1067</v>
+        <v>1112</v>
       </c>
       <c s="3" r="I111"/>
       <c s="3" r="J111"/>
@@ -15540,22 +15997,22 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B112">
-        <v>1068</v>
+        <v>1113</v>
       </c>
       <c t="s" s="2" r="C112">
-        <v>1069</v>
+        <v>1114</v>
       </c>
       <c t="s" s="2" r="D112">
-        <v>1070</v>
+        <v>1115</v>
       </c>
       <c t="s" s="2" r="E112">
-        <v>1071</v>
+        <v>1116</v>
       </c>
       <c t="s" s="2" r="F112">
-        <v>1072</v>
+        <v>1117</v>
       </c>
       <c t="s" s="2" r="G112">
-        <v>1073</v>
+        <v>1118</v>
       </c>
       <c s="3" r="H112"/>
       <c s="3" r="I112"/>
@@ -15586,25 +16043,25 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B113">
-        <v>1074</v>
+        <v>1119</v>
       </c>
       <c t="s" s="2" r="C113">
-        <v>1075</v>
+        <v>1120</v>
       </c>
       <c t="s" s="2" r="D113">
-        <v>1076</v>
+        <v>1121</v>
       </c>
       <c t="s" s="2" r="E113">
-        <v>1077</v>
+        <v>1122</v>
       </c>
       <c t="s" s="2" r="F113">
-        <v>1078</v>
+        <v>1123</v>
       </c>
       <c t="s" s="2" r="G113">
-        <v>1079</v>
+        <v>1124</v>
       </c>
       <c t="s" s="2" r="H113">
-        <v>1080</v>
+        <v>1125</v>
       </c>
       <c s="3" r="I113"/>
       <c s="3" r="J113"/>
@@ -15634,22 +16091,22 @@
         <v>41808.0</v>
       </c>
       <c t="s" s="2" r="B114">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c t="s" s="2" r="C114">
-        <v>1082</v>
+        <v>1127</v>
       </c>
       <c t="s" s="2" r="D114">
-        <v>1083</v>
+        <v>1128</v>
       </c>
       <c t="s" s="2" r="E114">
-        <v>1084</v>
+        <v>1129</v>
       </c>
       <c t="s" s="2" r="F114">
-        <v>1085</v>
+        <v>1130</v>
       </c>
       <c t="s" s="2" r="G114">
-        <v>1086</v>
+        <v>1131</v>
       </c>
       <c s="3" r="H114"/>
       <c s="3" r="I114"/>
@@ -15680,22 +16137,22 @@
         <v>41809.0</v>
       </c>
       <c t="s" s="2" r="B115">
-        <v>1087</v>
+        <v>1132</v>
       </c>
       <c t="s" s="2" r="C115">
-        <v>1088</v>
+        <v>1133</v>
       </c>
       <c t="s" s="2" r="D115">
-        <v>1089</v>
+        <v>1134</v>
       </c>
       <c t="s" s="2" r="E115">
-        <v>1090</v>
+        <v>1135</v>
       </c>
       <c t="s" s="2" r="F115">
-        <v>1091</v>
+        <v>1136</v>
       </c>
       <c t="s" s="2" r="G115">
-        <v>1092</v>
+        <v>1137</v>
       </c>
       <c s="3" r="H115"/>
       <c s="3" r="I115"/>
@@ -15730,7 +16187,7 @@
       <c s="3" r="F116"/>
       <c s="3" r="G116"/>
       <c t="s" s="2" r="H116">
-        <v>1093</v>
+        <v>1138</v>
       </c>
       <c s="3" r="I116"/>
       <c s="3" r="J116"/>
@@ -15760,22 +16217,22 @@
         <v>41809.0</v>
       </c>
       <c t="s" s="2" r="B117">
-        <v>1094</v>
+        <v>1139</v>
       </c>
       <c t="s" s="2" r="C117">
-        <v>1095</v>
+        <v>1140</v>
       </c>
       <c t="s" s="2" r="D117">
-        <v>1096</v>
+        <v>1141</v>
       </c>
       <c t="s" s="2" r="E117">
-        <v>1097</v>
+        <v>1142</v>
       </c>
       <c t="s" s="2" r="F117">
-        <v>1098</v>
+        <v>1143</v>
       </c>
       <c t="s" s="2" r="G117">
-        <v>1099</v>
+        <v>1144</v>
       </c>
       <c s="3" r="H117"/>
       <c s="3" r="I117"/>
@@ -15806,25 +16263,25 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B118">
-        <v>1100</v>
+        <v>1145</v>
       </c>
       <c t="s" s="2" r="C118">
-        <v>1101</v>
+        <v>1146</v>
       </c>
       <c t="s" s="2" r="D118">
-        <v>1102</v>
+        <v>1147</v>
       </c>
       <c t="s" s="2" r="E118">
-        <v>1103</v>
+        <v>1148</v>
       </c>
       <c t="s" s="2" r="F118">
-        <v>1104</v>
+        <v>1149</v>
       </c>
       <c t="s" s="2" r="G118">
-        <v>1105</v>
+        <v>1150</v>
       </c>
       <c t="s" s="2" r="H118">
-        <v>1106</v>
+        <v>1151</v>
       </c>
       <c s="3" r="I118"/>
       <c s="3" r="J118"/>
@@ -15854,22 +16311,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B119">
-        <v>1107</v>
+        <v>1152</v>
       </c>
       <c t="s" s="2" r="C119">
-        <v>1108</v>
+        <v>1153</v>
       </c>
       <c t="s" s="2" r="D119">
-        <v>1109</v>
+        <v>1154</v>
       </c>
       <c t="s" s="2" r="E119">
-        <v>1110</v>
+        <v>1155</v>
       </c>
       <c t="s" s="2" r="F119">
-        <v>1111</v>
+        <v>1156</v>
       </c>
       <c t="s" s="2" r="G119">
-        <v>1112</v>
+        <v>1157</v>
       </c>
       <c s="3" r="H119"/>
       <c s="3" r="I119"/>
@@ -15900,22 +16357,22 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B120">
-        <v>1113</v>
+        <v>1158</v>
       </c>
       <c t="s" s="2" r="C120">
-        <v>1114</v>
+        <v>1159</v>
       </c>
       <c t="s" s="2" r="D120">
-        <v>1115</v>
+        <v>1160</v>
       </c>
       <c t="s" s="2" r="E120">
-        <v>1116</v>
+        <v>1161</v>
       </c>
       <c t="s" s="2" r="F120">
-        <v>1117</v>
+        <v>1162</v>
       </c>
       <c t="s" s="2" r="G120">
-        <v>1118</v>
+        <v>1163</v>
       </c>
       <c s="3" r="H120"/>
       <c s="3" r="I120"/>
@@ -15946,28 +16403,28 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B121">
-        <v>1119</v>
+        <v>1164</v>
       </c>
       <c t="s" s="2" r="C121">
-        <v>1120</v>
+        <v>1165</v>
       </c>
       <c t="s" s="2" r="D121">
-        <v>1121</v>
+        <v>1166</v>
       </c>
       <c t="s" s="2" r="E121">
-        <v>1122</v>
+        <v>1167</v>
       </c>
       <c t="s" s="2" r="F121">
-        <v>1123</v>
+        <v>1168</v>
       </c>
       <c t="s" s="2" r="G121">
-        <v>1124</v>
+        <v>1169</v>
       </c>
       <c t="s" s="2" r="H121">
-        <v>1125</v>
+        <v>1170</v>
       </c>
       <c t="s" s="2" r="I121">
-        <v>1126</v>
+        <v>1171</v>
       </c>
       <c s="3" r="J121"/>
       <c s="3" r="K121"/>
@@ -15996,28 +16453,28 @@
         <v>41810.0</v>
       </c>
       <c t="s" s="2" r="B122">
-        <v>1127</v>
+        <v>1172</v>
       </c>
       <c t="s" s="2" r="C122">
-        <v>1128</v>
+        <v>1173</v>
       </c>
       <c t="s" s="2" r="D122">
-        <v>1129</v>
+        <v>1174</v>
       </c>
       <c t="s" s="2" r="E122">
-        <v>1130</v>
+        <v>1175</v>
       </c>
       <c t="s" s="2" r="F122">
-        <v>1131</v>
+        <v>1176</v>
       </c>
       <c t="s" s="2" r="G122">
-        <v>1132</v>
+        <v>1177</v>
       </c>
       <c t="s" s="2" r="H122">
-        <v>1133</v>
+        <v>1178</v>
       </c>
       <c t="s" s="2" r="I122">
-        <v>1134</v>
+        <v>1179</v>
       </c>
       <c s="3" r="J122"/>
       <c s="3" r="K122"/>
@@ -16046,22 +16503,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B123">
-        <v>1135</v>
+        <v>1180</v>
       </c>
       <c t="s" s="2" r="C123">
-        <v>1136</v>
+        <v>1181</v>
       </c>
       <c t="s" s="2" r="D123">
-        <v>1137</v>
+        <v>1182</v>
       </c>
       <c t="s" s="2" r="E123">
-        <v>1138</v>
+        <v>1183</v>
       </c>
       <c t="s" s="2" r="F123">
-        <v>1139</v>
+        <v>1184</v>
       </c>
       <c t="s" s="2" r="G123">
-        <v>1140</v>
+        <v>1185</v>
       </c>
       <c s="3" r="H123"/>
       <c s="3" r="I123"/>
@@ -16092,25 +16549,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B124">
-        <v>1141</v>
+        <v>1186</v>
       </c>
       <c t="s" s="2" r="C124">
-        <v>1142</v>
+        <v>1187</v>
       </c>
       <c t="s" s="2" r="D124">
-        <v>1143</v>
+        <v>1188</v>
       </c>
       <c t="s" s="2" r="E124">
-        <v>1144</v>
+        <v>1189</v>
       </c>
       <c t="s" s="2" r="F124">
-        <v>1145</v>
+        <v>1190</v>
       </c>
       <c t="s" s="2" r="G124">
-        <v>1146</v>
+        <v>1191</v>
       </c>
       <c t="s" s="2" r="H124">
-        <v>1147</v>
+        <v>1192</v>
       </c>
       <c s="3" r="I124"/>
       <c s="3" r="J124"/>
@@ -16140,22 +16597,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B125">
-        <v>1148</v>
+        <v>1193</v>
       </c>
       <c t="s" s="2" r="C125">
-        <v>1149</v>
+        <v>1194</v>
       </c>
       <c t="s" s="2" r="D125">
-        <v>1150</v>
+        <v>1195</v>
       </c>
       <c t="s" s="2" r="E125">
-        <v>1151</v>
+        <v>1196</v>
       </c>
       <c t="s" s="2" r="F125">
-        <v>1152</v>
+        <v>1197</v>
       </c>
       <c t="s" s="2" r="G125">
-        <v>1153</v>
+        <v>1198</v>
       </c>
       <c s="3" r="H125"/>
       <c s="3" r="I125"/>
@@ -16186,25 +16643,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B126">
-        <v>1154</v>
+        <v>1199</v>
       </c>
       <c t="s" s="2" r="C126">
-        <v>1155</v>
+        <v>1200</v>
       </c>
       <c t="s" s="2" r="D126">
-        <v>1156</v>
+        <v>1201</v>
       </c>
       <c t="s" s="2" r="E126">
-        <v>1157</v>
+        <v>1202</v>
       </c>
       <c t="s" s="2" r="F126">
-        <v>1158</v>
+        <v>1203</v>
       </c>
       <c t="s" s="2" r="G126">
-        <v>1159</v>
+        <v>1204</v>
       </c>
       <c t="s" s="2" r="H126">
-        <v>1160</v>
+        <v>1205</v>
       </c>
       <c s="3" r="I126"/>
       <c s="3" r="J126"/>
@@ -16234,25 +16691,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B127">
-        <v>1161</v>
+        <v>1206</v>
       </c>
       <c t="s" s="2" r="C127">
-        <v>1162</v>
+        <v>1207</v>
       </c>
       <c t="s" s="2" r="D127">
-        <v>1163</v>
+        <v>1208</v>
       </c>
       <c t="s" s="2" r="E127">
-        <v>1164</v>
+        <v>1209</v>
       </c>
       <c t="s" s="2" r="F127">
-        <v>1165</v>
+        <v>1210</v>
       </c>
       <c t="s" s="2" r="G127">
-        <v>1166</v>
+        <v>1211</v>
       </c>
       <c t="s" s="2" r="H127">
-        <v>1167</v>
+        <v>1212</v>
       </c>
       <c s="3" r="I127"/>
       <c s="3" r="J127"/>
@@ -16282,22 +16739,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B128">
-        <v>1168</v>
+        <v>1213</v>
       </c>
       <c t="s" s="2" r="C128">
-        <v>1169</v>
+        <v>1214</v>
       </c>
       <c t="s" s="2" r="D128">
-        <v>1170</v>
+        <v>1215</v>
       </c>
       <c t="s" s="2" r="E128">
-        <v>1171</v>
+        <v>1216</v>
       </c>
       <c t="s" s="2" r="F128">
-        <v>1172</v>
+        <v>1217</v>
       </c>
       <c t="s" s="2" r="G128">
-        <v>1173</v>
+        <v>1218</v>
       </c>
       <c s="3" r="H128"/>
       <c s="3" r="I128"/>
@@ -16328,22 +16785,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B129">
-        <v>1174</v>
+        <v>1219</v>
       </c>
       <c t="s" s="2" r="C129">
-        <v>1175</v>
+        <v>1220</v>
       </c>
       <c t="s" s="2" r="D129">
-        <v>1176</v>
+        <v>1221</v>
       </c>
       <c t="s" s="2" r="E129">
-        <v>1177</v>
+        <v>1222</v>
       </c>
       <c t="s" s="2" r="F129">
-        <v>1178</v>
+        <v>1223</v>
       </c>
       <c t="s" s="2" r="G129">
-        <v>1179</v>
+        <v>1224</v>
       </c>
       <c s="3" r="H129"/>
       <c s="3" r="I129"/>
@@ -16374,22 +16831,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B130">
-        <v>1180</v>
+        <v>1225</v>
       </c>
       <c t="s" s="2" r="C130">
-        <v>1181</v>
+        <v>1226</v>
       </c>
       <c t="s" s="2" r="D130">
-        <v>1182</v>
+        <v>1227</v>
       </c>
       <c t="s" s="2" r="E130">
-        <v>1183</v>
+        <v>1228</v>
       </c>
       <c t="s" s="2" r="F130">
-        <v>1184</v>
+        <v>1229</v>
       </c>
       <c t="s" s="2" r="G130">
-        <v>1185</v>
+        <v>1230</v>
       </c>
       <c s="3" r="H130"/>
       <c s="3" r="I130"/>
@@ -16420,25 +16877,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B131">
-        <v>1186</v>
+        <v>1231</v>
       </c>
       <c t="s" s="2" r="C131">
-        <v>1187</v>
+        <v>1232</v>
       </c>
       <c t="s" s="2" r="D131">
-        <v>1188</v>
+        <v>1233</v>
       </c>
       <c t="s" s="2" r="E131">
-        <v>1189</v>
+        <v>1234</v>
       </c>
       <c t="s" s="2" r="F131">
-        <v>1190</v>
+        <v>1235</v>
       </c>
       <c t="s" s="2" r="G131">
-        <v>1191</v>
+        <v>1236</v>
       </c>
       <c t="s" s="2" r="H131">
-        <v>1192</v>
+        <v>1237</v>
       </c>
       <c s="3" r="I131"/>
       <c s="3" r="J131"/>
@@ -16468,22 +16925,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B132">
-        <v>1193</v>
+        <v>1238</v>
       </c>
       <c t="s" s="2" r="C132">
-        <v>1194</v>
+        <v>1239</v>
       </c>
       <c t="s" s="2" r="D132">
-        <v>1195</v>
+        <v>1240</v>
       </c>
       <c t="s" s="2" r="E132">
-        <v>1196</v>
+        <v>1241</v>
       </c>
       <c t="s" s="8" r="F132">
-        <v>1197</v>
+        <v>1242</v>
       </c>
       <c t="s" s="8" r="G132">
-        <v>1198</v>
+        <v>1243</v>
       </c>
       <c s="3" r="H132"/>
       <c s="3" r="I132"/>
@@ -16514,25 +16971,25 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B133">
-        <v>1199</v>
+        <v>1244</v>
       </c>
       <c t="s" s="2" r="C133">
-        <v>1200</v>
+        <v>1245</v>
       </c>
       <c t="s" s="2" r="D133">
-        <v>1201</v>
+        <v>1246</v>
       </c>
       <c t="s" s="2" r="E133">
-        <v>1202</v>
+        <v>1247</v>
       </c>
       <c t="s" s="2" r="F133">
-        <v>1203</v>
+        <v>1248</v>
       </c>
       <c t="s" s="2" r="G133">
-        <v>1204</v>
+        <v>1249</v>
       </c>
       <c t="s" s="2" r="H133">
-        <v>1205</v>
+        <v>1250</v>
       </c>
       <c s="3" r="I133"/>
       <c s="3" r="J133"/>
@@ -16562,22 +17019,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B134">
-        <v>1206</v>
+        <v>1251</v>
       </c>
       <c t="s" s="2" r="C134">
-        <v>1207</v>
+        <v>1252</v>
       </c>
       <c t="s" s="2" r="D134">
-        <v>1208</v>
+        <v>1253</v>
       </c>
       <c t="s" s="2" r="E134">
-        <v>1209</v>
+        <v>1254</v>
       </c>
       <c t="s" s="2" r="F134">
-        <v>1210</v>
+        <v>1255</v>
       </c>
       <c t="s" s="2" r="G134">
-        <v>1211</v>
+        <v>1256</v>
       </c>
       <c s="3" r="H134"/>
       <c s="3" r="I134"/>
@@ -16608,22 +17065,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B135">
-        <v>1212</v>
+        <v>1257</v>
       </c>
       <c t="s" s="2" r="C135">
-        <v>1213</v>
+        <v>1258</v>
       </c>
       <c t="s" s="2" r="D135">
-        <v>1214</v>
+        <v>1259</v>
       </c>
       <c t="s" s="2" r="E135">
-        <v>1215</v>
+        <v>1260</v>
       </c>
       <c t="s" s="2" r="F135">
-        <v>1216</v>
+        <v>1261</v>
       </c>
       <c t="s" s="2" r="G135">
-        <v>1217</v>
+        <v>1262</v>
       </c>
       <c s="3" r="H135"/>
       <c s="3" r="I135"/>
@@ -16654,22 +17111,22 @@
         <v>41813.0</v>
       </c>
       <c t="s" s="2" r="B136">
-        <v>1218</v>
+        <v>1263</v>
       </c>
       <c t="s" s="2" r="C136">
-        <v>1219</v>
+        <v>1264</v>
       </c>
       <c t="s" s="2" r="D136">
-        <v>1220</v>
+        <v>1265</v>
       </c>
       <c t="s" s="2" r="E136">
-        <v>1221</v>
+        <v>1266</v>
       </c>
       <c t="s" s="2" r="F136">
-        <v>1222</v>
+        <v>1267</v>
       </c>
       <c t="s" s="2" r="G136">
-        <v>1223</v>
+        <v>1268</v>
       </c>
       <c s="3" r="H136"/>
       <c s="3" r="I136"/>
@@ -16857,7 +17314,7 @@
     </row>
     <row r="142">
       <c t="s" s="2" r="A142">
-        <v>1224</v>
+        <v>1269</v>
       </c>
       <c s="3" r="B142"/>
       <c s="3" r="C142"/>
@@ -16895,10 +17352,10 @@
       <c s="3" r="C143"/>
       <c s="3" r="D143"/>
       <c t="s" s="10" r="E143">
-        <v>1225</v>
+        <v>1270</v>
       </c>
       <c t="s" s="10" r="F143">
-        <v>1226</v>
+        <v>1271</v>
       </c>
       <c s="9" r="G143"/>
       <c s="9" r="H143"/>
@@ -16931,10 +17388,10 @@
       <c s="3" r="C144"/>
       <c s="3" r="D144"/>
       <c t="s" s="10" r="E144">
-        <v>1227</v>
+        <v>1272</v>
       </c>
       <c t="s" s="10" r="F144">
-        <v>1228</v>
+        <v>1273</v>
       </c>
       <c s="9" r="G144"/>
       <c s="9" r="H144"/>
@@ -16967,10 +17424,10 @@
       <c s="3" r="C145"/>
       <c s="3" r="D145"/>
       <c t="s" s="10" r="E145">
-        <v>1229</v>
+        <v>1274</v>
       </c>
       <c t="s" s="10" r="F145">
-        <v>1230</v>
+        <v>1275</v>
       </c>
       <c s="9" r="G145"/>
       <c s="9" r="H145"/>
@@ -17003,10 +17460,10 @@
       <c s="3" r="C146"/>
       <c s="3" r="D146"/>
       <c t="s" s="10" r="E146">
-        <v>1231</v>
+        <v>1276</v>
       </c>
       <c t="s" s="10" r="F146">
-        <v>1232</v>
+        <v>1277</v>
       </c>
       <c s="9" r="G146"/>
       <c s="9" r="H146"/>
@@ -17039,10 +17496,10 @@
       <c s="3" r="C147"/>
       <c s="3" r="D147"/>
       <c t="s" s="10" r="E147">
-        <v>1233</v>
+        <v>1278</v>
       </c>
       <c t="s" s="10" r="F147">
-        <v>1234</v>
+        <v>1279</v>
       </c>
       <c s="9" r="G147"/>
       <c s="9" r="H147"/>
@@ -17075,10 +17532,10 @@
       <c s="3" r="C148"/>
       <c s="3" r="D148"/>
       <c t="s" s="10" r="E148">
-        <v>1235</v>
+        <v>1280</v>
       </c>
       <c t="s" s="10" r="F148">
-        <v>1236</v>
+        <v>1281</v>
       </c>
       <c s="9" r="G148"/>
       <c s="9" r="H148"/>
@@ -17111,10 +17568,10 @@
       <c s="3" r="C149"/>
       <c s="3" r="D149"/>
       <c t="s" s="10" r="E149">
-        <v>1237</v>
+        <v>1282</v>
       </c>
       <c t="s" s="10" r="F149">
-        <v>1238</v>
+        <v>1283</v>
       </c>
       <c s="9" r="G149"/>
       <c s="9" r="H149"/>
@@ -17147,14 +17604,14 @@
       <c s="3" r="C150"/>
       <c s="3" r="D150"/>
       <c t="s" s="10" r="E150">
-        <v>1239</v>
+        <v>1284</v>
       </c>
       <c t="s" s="10" r="F150">
-        <v>1240</v>
+        <v>1285</v>
       </c>
       <c s="9" r="G150"/>
       <c t="s" s="10" r="H150">
-        <v>1241</v>
+        <v>1286</v>
       </c>
       <c s="3" r="I150"/>
       <c s="3" r="J150"/>
@@ -17185,13 +17642,13 @@
       <c s="3" r="C151"/>
       <c s="3" r="D151"/>
       <c t="s" s="10" r="E151">
-        <v>1242</v>
+        <v>1287</v>
       </c>
       <c t="s" s="10" r="F151">
-        <v>1243</v>
+        <v>1288</v>
       </c>
       <c t="s" s="10" r="G151">
-        <v>1244</v>
+        <v>1289</v>
       </c>
       <c s="9" r="H151"/>
       <c s="3" r="I151"/>
@@ -17223,13 +17680,13 @@
       <c s="3" r="C152"/>
       <c s="3" r="D152"/>
       <c t="s" s="10" r="E152">
-        <v>1245</v>
+        <v>1290</v>
       </c>
       <c t="s" s="10" r="F152">
-        <v>1246</v>
+        <v>1291</v>
       </c>
       <c t="s" s="10" r="G152">
-        <v>1247</v>
+        <v>1292</v>
       </c>
       <c s="9" r="H152"/>
       <c s="3" r="I152"/>
@@ -17261,13 +17718,13 @@
       <c s="3" r="C153"/>
       <c s="3" r="D153"/>
       <c t="s" s="10" r="E153">
-        <v>1248</v>
+        <v>1293</v>
       </c>
       <c t="s" s="10" r="F153">
-        <v>1249</v>
+        <v>1294</v>
       </c>
       <c t="s" s="10" r="G153">
-        <v>1250</v>
+        <v>1295</v>
       </c>
       <c s="9" r="H153"/>
       <c s="3" r="I153"/>
@@ -17299,13 +17756,13 @@
       <c s="3" r="C154"/>
       <c s="3" r="D154"/>
       <c t="s" s="10" r="E154">
-        <v>1251</v>
+        <v>1296</v>
       </c>
       <c t="s" s="10" r="F154">
-        <v>1252</v>
+        <v>1297</v>
       </c>
       <c t="s" s="10" r="G154">
-        <v>1253</v>
+        <v>1298</v>
       </c>
       <c s="9" r="H154"/>
       <c s="3" r="I154"/>
@@ -17337,16 +17794,16 @@
       <c s="3" r="C155"/>
       <c s="3" r="D155"/>
       <c t="s" s="10" r="E155">
-        <v>1254</v>
+        <v>1299</v>
       </c>
       <c t="s" s="10" r="F155">
-        <v>1255</v>
+        <v>1300</v>
       </c>
       <c t="s" s="10" r="G155">
-        <v>1256</v>
+        <v>1301</v>
       </c>
       <c t="s" s="10" r="H155">
-        <v>1257</v>
+        <v>1302</v>
       </c>
       <c s="3" r="I155"/>
       <c s="3" r="J155"/>
@@ -17377,13 +17834,13 @@
       <c s="3" r="C156"/>
       <c s="3" r="D156"/>
       <c t="s" s="10" r="E156">
-        <v>1258</v>
+        <v>1303</v>
       </c>
       <c t="s" s="10" r="F156">
-        <v>1259</v>
+        <v>1304</v>
       </c>
       <c t="s" s="10" r="G156">
-        <v>1260</v>
+        <v>1305</v>
       </c>
       <c s="9" r="H156"/>
       <c s="3" r="I156"/>
@@ -17415,13 +17872,13 @@
       <c s="3" r="C157"/>
       <c s="3" r="D157"/>
       <c t="s" s="10" r="E157">
-        <v>1261</v>
+        <v>1306</v>
       </c>
       <c t="s" s="10" r="F157">
-        <v>1262</v>
+        <v>1307</v>
       </c>
       <c t="s" s="10" r="G157">
-        <v>1263</v>
+        <v>1308</v>
       </c>
       <c s="9" r="H157"/>
       <c s="3" r="I157"/>
@@ -17453,13 +17910,13 @@
       <c s="3" r="C158"/>
       <c s="3" r="D158"/>
       <c t="s" s="10" r="E158">
-        <v>1264</v>
+        <v>1309</v>
       </c>
       <c t="s" s="10" r="F158">
-        <v>1265</v>
+        <v>1310</v>
       </c>
       <c t="s" s="10" r="G158">
-        <v>1266</v>
+        <v>1311</v>
       </c>
       <c s="9" r="H158"/>
       <c s="3" r="I158"/>
@@ -17491,13 +17948,13 @@
       <c s="3" r="C159"/>
       <c s="3" r="D159"/>
       <c t="s" s="10" r="E159">
-        <v>1267</v>
+        <v>1312</v>
       </c>
       <c t="s" s="10" r="F159">
-        <v>1268</v>
+        <v>1313</v>
       </c>
       <c t="s" s="10" r="G159">
-        <v>1269</v>
+        <v>1314</v>
       </c>
       <c s="3" r="H159"/>
       <c s="3" r="I159"/>
@@ -17529,13 +17986,13 @@
       <c s="3" r="C160"/>
       <c s="3" r="D160"/>
       <c t="s" s="10" r="E160">
-        <v>1270</v>
+        <v>1315</v>
       </c>
       <c t="s" s="2" r="F160">
-        <v>1271</v>
+        <v>1316</v>
       </c>
       <c t="s" s="2" r="G160">
-        <v>1272</v>
+        <v>1317</v>
       </c>
       <c s="3" r="H160"/>
       <c s="3" r="I160"/>
@@ -17599,10 +18056,10 @@
       <c s="3" r="C162"/>
       <c s="3" r="D162"/>
       <c t="s" s="10" r="E162">
-        <v>1273</v>
+        <v>1318</v>
       </c>
       <c t="s" s="2" r="F162">
-        <v>1274</v>
+        <v>1319</v>
       </c>
       <c s="3" r="G162"/>
       <c s="3" r="H162"/>
@@ -17667,13 +18124,13 @@
       <c s="3" r="C164"/>
       <c s="3" r="D164"/>
       <c t="s" s="2" r="E164">
-        <v>1275</v>
+        <v>1320</v>
       </c>
       <c t="s" s="2" r="F164">
-        <v>1276</v>
+        <v>1321</v>
       </c>
       <c t="s" s="2" r="G164">
-        <v>1277</v>
+        <v>1322</v>
       </c>
       <c s="3" r="H164"/>
       <c s="3" r="I164"/>
@@ -17705,10 +18162,10 @@
       <c s="3" r="C165"/>
       <c s="3" r="D165"/>
       <c t="s" s="2" r="E165">
-        <v>1278</v>
+        <v>1323</v>
       </c>
       <c t="s" s="2" r="F165">
-        <v>1279</v>
+        <v>1324</v>
       </c>
       <c s="3" r="G165"/>
       <c s="3" r="H165"/>
@@ -18209,7 +18666,7 @@
     </row>
     <row r="183">
       <c t="s" s="2" r="G183">
-        <v>1280</v>
+        <v>1325</v>
       </c>
       <c s="3" r="H183"/>
       <c s="3" r="I183"/>
@@ -18393,7 +18850,7 @@
     </row>
     <row r="190">
       <c t="s" s="2" r="G190">
-        <v>1281</v>
+        <v>1326</v>
       </c>
       <c s="3" r="H190"/>
       <c s="3" r="I190"/>
@@ -18891,10 +19348,10 @@
       <c s="3" r="G209"/>
       <c s="3" r="H209"/>
       <c t="s" s="2" r="I209">
-        <v>1282</v>
+        <v>1327</v>
       </c>
       <c t="s" s="2" r="J209">
-        <v>1283</v>
+        <v>1328</v>
       </c>
       <c s="3" r="K209"/>
       <c s="3" r="L209"/>
